--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,12 +524,24 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>256</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>445</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4878564</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -538,7 +550,9 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>22</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -549,7 +563,9 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>33</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -560,7 +576,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>44</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -571,7 +589,9 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>55</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -582,7 +602,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>66</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -593,7 +615,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>77</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
@@ -604,7 +628,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>88</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -615,7 +641,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>99</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -626,7 +654,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>110</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
@@ -637,7 +667,9 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>121</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -648,7 +680,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>132</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -659,7 +693,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>143</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -670,7 +706,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>154</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -681,7 +719,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>165</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -692,7 +732,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>176</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
@@ -703,7 +745,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>187</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
@@ -714,7 +758,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>198</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
@@ -725,7 +771,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>209</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -736,7 +784,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>220</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -747,7 +797,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>231</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -758,7 +810,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>242</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
@@ -769,7 +823,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>253</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -780,7 +836,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>264</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
@@ -791,7 +849,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>275</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -802,7 +862,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>286</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
@@ -813,7 +875,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>297</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
@@ -824,7 +888,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>308</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -491,7 +491,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
         <v>276.75</v>
       </c>
       <c r="D21" s="2">
-        <v>1544.95</v>
+        <v>280.25</v>
       </c>
       <c r="E21" s="1">
         <v>280.89999999999998</v>
@@ -1167,7 +1167,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -491,7 +491,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,22 +526,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>2478</v>
+        <v>2465</v>
       </c>
       <c r="C2" s="1">
-        <v>2400.0500000000002</v>
+        <v>2420</v>
       </c>
       <c r="D2" s="2">
-        <v>2446.9499999999998</v>
+        <v>2442</v>
       </c>
       <c r="E2" s="1">
-        <v>2456</v>
+        <v>2445.1</v>
       </c>
       <c r="F2" s="1">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1">
-        <v>2446.9499999999998</v>
+        <v>2444.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,22 +549,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>401.35</v>
+        <v>399.15</v>
       </c>
       <c r="C3" s="1">
-        <v>387.7</v>
+        <v>392</v>
       </c>
       <c r="D3" s="2">
-        <v>398.5</v>
+        <v>395.85</v>
       </c>
       <c r="E3" s="1">
-        <v>399.5</v>
+        <v>396.35</v>
       </c>
       <c r="F3" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>388.3</v>
+        <v>393.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,22 +572,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>1488.8</v>
+        <v>1474</v>
       </c>
       <c r="C4" s="1">
-        <v>1467.05</v>
+        <v>1463</v>
       </c>
       <c r="D4" s="2">
-        <v>1478</v>
+        <v>1469.9</v>
       </c>
       <c r="E4" s="1">
-        <v>1482.05</v>
+        <v>1469.85</v>
       </c>
       <c r="F4" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>1485.65</v>
+        <v>1468.15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -595,22 +595,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>7058.9</v>
+        <v>6990</v>
       </c>
       <c r="C5" s="1">
-        <v>6945.9</v>
+        <v>6920</v>
       </c>
       <c r="D5" s="2">
-        <v>7005</v>
+        <v>6970</v>
       </c>
       <c r="E5" s="1">
-        <v>7018.05</v>
+        <v>6981.5</v>
       </c>
       <c r="F5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>6958</v>
+        <v>6938.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,22 +618,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>228.75</v>
+        <v>225.75</v>
       </c>
       <c r="C6" s="1">
-        <v>221.55</v>
+        <v>223.5</v>
       </c>
       <c r="D6" s="2">
-        <v>227.65</v>
+        <v>224.25</v>
       </c>
       <c r="E6" s="1">
-        <v>227.75</v>
+        <v>224.6</v>
       </c>
       <c r="F6" s="1">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1">
-        <v>222.8</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,22 +641,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>190</v>
+        <v>188.5</v>
       </c>
       <c r="C7" s="1">
-        <v>187.45</v>
+        <v>185.85</v>
       </c>
       <c r="D7" s="2">
-        <v>188.4</v>
+        <v>186.7</v>
       </c>
       <c r="E7" s="1">
-        <v>188.75</v>
+        <v>186.75</v>
       </c>
       <c r="F7" s="1">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="G7" s="1">
-        <v>189.75</v>
+        <v>186.55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,22 +664,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>234.25</v>
+        <v>234.8</v>
       </c>
       <c r="C8" s="1">
-        <v>230.7</v>
+        <v>232.1</v>
       </c>
       <c r="D8" s="2">
-        <v>234.15</v>
+        <v>233.2</v>
       </c>
       <c r="E8" s="1">
-        <v>233.9</v>
+        <v>233.05</v>
       </c>
       <c r="F8" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
-        <v>232.8</v>
+        <v>234.2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,22 +687,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>472.85</v>
+        <v>479.6</v>
       </c>
       <c r="C9" s="1">
-        <v>463.05</v>
+        <v>467.9</v>
       </c>
       <c r="D9" s="2">
-        <v>470.1</v>
+        <v>477.65</v>
       </c>
       <c r="E9" s="1">
-        <v>470.95</v>
+        <v>478.05</v>
       </c>
       <c r="F9" s="1">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
-        <v>469.1</v>
+        <v>469.55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,22 +710,22 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>3347.95</v>
+        <v>3333</v>
       </c>
       <c r="C10" s="1">
-        <v>3286.35</v>
+        <v>3299.9</v>
       </c>
       <c r="D10" s="2">
-        <v>3337.8</v>
+        <v>3320</v>
       </c>
       <c r="E10" s="1">
-        <v>3338.7</v>
+        <v>3327.2</v>
       </c>
       <c r="F10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
-        <v>3316.45</v>
+        <v>3301.45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,22 +733,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>133.25</v>
+        <v>133.4</v>
       </c>
       <c r="C11" s="1">
-        <v>130.5</v>
+        <v>131.94999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>132.80000000000001</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>133</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="G11" s="1">
-        <v>131.5</v>
+        <v>132.30000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,22 +756,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>1177</v>
+        <v>1186.25</v>
       </c>
       <c r="C12" s="1">
-        <v>1154</v>
+        <v>1171.5</v>
       </c>
       <c r="D12" s="2">
-        <v>1170</v>
+        <v>1175.5</v>
       </c>
       <c r="E12" s="1">
-        <v>1171</v>
+        <v>1177.1500000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1">
-        <v>1161.5</v>
+        <v>1176.0999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -779,22 +779,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>1615</v>
+        <v>1609.65</v>
       </c>
       <c r="C13" s="1">
-        <v>1600.25</v>
+        <v>1588.1</v>
       </c>
       <c r="D13" s="2">
-        <v>1608.5</v>
+        <v>1604.35</v>
       </c>
       <c r="E13" s="1">
-        <v>1610.9</v>
+        <v>1606.2</v>
       </c>
       <c r="F13" s="1">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G13" s="1">
-        <v>1603.5</v>
+        <v>1590.9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,22 +802,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>453.9</v>
+        <v>446.6</v>
       </c>
       <c r="C14" s="1">
-        <v>447.6</v>
+        <v>439</v>
       </c>
       <c r="D14" s="2">
-        <v>448.85</v>
+        <v>444</v>
       </c>
       <c r="E14" s="1">
-        <v>450.8</v>
+        <v>445.2</v>
       </c>
       <c r="F14" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1">
-        <v>448.95</v>
+        <v>444.9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>962.9</v>
+        <v>959.8</v>
       </c>
       <c r="C15" s="1">
-        <v>947</v>
+        <v>949.25</v>
       </c>
       <c r="D15" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E15" s="1">
-        <v>959.55</v>
+        <v>956.5</v>
       </c>
       <c r="F15" s="1">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G15" s="1">
-        <v>948.75</v>
+        <v>950.15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,22 +848,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>1397.5</v>
+        <v>1383.8</v>
       </c>
       <c r="C16" s="1">
-        <v>1379.05</v>
+        <v>1367</v>
       </c>
       <c r="D16" s="2">
-        <v>1387.8</v>
+        <v>1380</v>
       </c>
       <c r="E16" s="1">
-        <v>1388.9</v>
+        <v>1380.7</v>
       </c>
       <c r="F16" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>1382</v>
+        <v>1371.65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,22 +871,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>1395</v>
+        <v>1419.95</v>
       </c>
       <c r="C17" s="1">
-        <v>1369.2</v>
+        <v>1406</v>
       </c>
       <c r="D17" s="2">
-        <v>1392.95</v>
+        <v>1417.9</v>
       </c>
       <c r="E17" s="1">
-        <v>1393.55</v>
+        <v>1418.5</v>
       </c>
       <c r="F17" s="1">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1">
-        <v>1372</v>
+        <v>1416.15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,22 +894,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>680.05</v>
+        <v>658.5</v>
       </c>
       <c r="C18" s="1">
-        <v>658.15</v>
+        <v>642</v>
       </c>
       <c r="D18" s="2">
-        <v>662.9</v>
+        <v>647</v>
       </c>
       <c r="E18" s="1">
-        <v>662.25</v>
+        <v>647.95000000000005</v>
       </c>
       <c r="F18" s="1">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1">
-        <v>678.3</v>
+        <v>658.3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -917,22 +917,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>423.95</v>
+        <v>424.5</v>
       </c>
       <c r="C19" s="1">
+        <v>417</v>
+      </c>
+      <c r="D19" s="2">
+        <v>422.25</v>
+      </c>
+      <c r="E19" s="1">
+        <v>422.15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1">
         <v>420.35</v>
-      </c>
-      <c r="D19" s="2">
-        <v>421.45</v>
-      </c>
-      <c r="E19" s="1">
-        <v>422.05</v>
-      </c>
-      <c r="F19" s="1">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1">
-        <v>422.65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>1550.75</v>
+        <v>1573</v>
       </c>
       <c r="C20" s="1">
-        <v>1524</v>
+        <v>1538.6</v>
       </c>
       <c r="D20" s="2">
-        <v>1544.95</v>
+        <v>1570</v>
       </c>
       <c r="E20" s="1">
-        <v>1546.85</v>
+        <v>1570.6</v>
       </c>
       <c r="F20" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1">
-        <v>1530.6</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,22 +963,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>283.64999999999998</v>
+        <v>278</v>
       </c>
       <c r="C21" s="1">
-        <v>276.75</v>
+        <v>272.7</v>
       </c>
       <c r="D21" s="2">
-        <v>280.25</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>280.89999999999998</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="F21" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1">
-        <v>277.35000000000002</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,22 +986,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>2582.3000000000002</v>
+        <v>2582.8000000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>2525</v>
+        <v>2557.15</v>
       </c>
       <c r="D22" s="2">
-        <v>2573.1999999999998</v>
+        <v>2571.9499999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>2577.25</v>
+        <v>2575.15</v>
       </c>
       <c r="F22" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1">
-        <v>2526</v>
+        <v>2563.75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,22 +1009,22 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>565.15</v>
+        <v>566.4</v>
       </c>
       <c r="C23" s="1">
-        <v>558.6</v>
+        <v>560.6</v>
       </c>
       <c r="D23" s="2">
-        <v>561</v>
+        <v>565.04999999999995</v>
       </c>
       <c r="E23" s="1">
-        <v>560.79999999999995</v>
+        <v>565.35</v>
       </c>
       <c r="F23" s="1">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="G23" s="1">
-        <v>564.15</v>
+        <v>561.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,22 +1032,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>558.95000000000005</v>
+        <v>550.79999999999995</v>
       </c>
       <c r="C24" s="1">
-        <v>535.04999999999995</v>
+        <v>536.54999999999995</v>
       </c>
       <c r="D24" s="2">
-        <v>548.9</v>
+        <v>548.29999999999995</v>
       </c>
       <c r="E24" s="1">
-        <v>550.5</v>
+        <v>549.15</v>
       </c>
       <c r="F24" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
-        <v>540.20000000000005</v>
+        <v>539.4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,22 +1055,22 @@
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>1005.75</v>
+        <v>996.35</v>
       </c>
       <c r="C25" s="1">
-        <v>988.2</v>
+        <v>988.5</v>
       </c>
       <c r="D25" s="2">
-        <v>1000.05</v>
+        <v>990</v>
       </c>
       <c r="E25" s="1">
-        <v>1001.65</v>
+        <v>990.7</v>
       </c>
       <c r="F25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1">
-        <v>993</v>
+        <v>994.1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,22 +1078,22 @@
         <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>609.25</v>
+        <v>621.35</v>
       </c>
       <c r="C26" s="1">
-        <v>594.5</v>
+        <v>599.79999999999995</v>
       </c>
       <c r="D26" s="2">
-        <v>606.79999999999995</v>
+        <v>617.79999999999995</v>
       </c>
       <c r="E26" s="1">
-        <v>607.35</v>
+        <v>618.75</v>
       </c>
       <c r="F26" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1">
-        <v>596.6</v>
+        <v>601.04999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,22 +1101,22 @@
         <v>31</v>
       </c>
       <c r="B27" s="1">
-        <v>232.4</v>
+        <v>235.5</v>
       </c>
       <c r="C27" s="1">
-        <v>229.1</v>
+        <v>228.95</v>
       </c>
       <c r="D27" s="2">
-        <v>230.95</v>
+        <v>234.8</v>
       </c>
       <c r="E27" s="1">
-        <v>231.15</v>
+        <v>234.95</v>
       </c>
       <c r="F27" s="1">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="G27" s="1">
-        <v>231.65</v>
+        <v>229.75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,22 +1124,22 @@
         <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>118.95</v>
+        <v>117.45</v>
       </c>
       <c r="C28" s="1">
-        <v>117.35</v>
+        <v>115.4</v>
       </c>
       <c r="D28" s="2">
-        <v>117.85</v>
+        <v>115.9</v>
       </c>
       <c r="E28" s="1">
-        <v>118.15</v>
+        <v>115.95</v>
       </c>
       <c r="F28" s="1">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="G28" s="1">
-        <v>118.65</v>
+        <v>117.05</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,22 +1147,22 @@
         <v>33</v>
       </c>
       <c r="B29" s="1">
-        <v>8117.35</v>
+        <v>8265</v>
       </c>
       <c r="C29" s="1">
-        <v>8019.05</v>
+        <v>8005.6</v>
       </c>
       <c r="D29" s="2">
-        <v>8024.95</v>
+        <v>8245</v>
       </c>
       <c r="E29" s="1">
-        <v>8054.3</v>
+        <v>8251.9</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>8076</v>
+        <v>8018</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +140,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +177,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -177,15 +207,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -193,6 +340,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -491,7 +643,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,674 +652,674 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>2465</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2420</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2442</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2445.1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2444.5</v>
+      <c r="B2" s="8">
+        <v>2665.95</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2461.3000000000002</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2570.9499999999998</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2577.4</v>
+      </c>
+      <c r="F2" s="17">
+        <v>146</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2471.65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>399.15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>392</v>
-      </c>
-      <c r="D3" s="2">
-        <v>395.85</v>
-      </c>
-      <c r="E3" s="1">
-        <v>396.35</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="9">
+        <v>396.45</v>
+      </c>
+      <c r="C3" s="12">
+        <v>384.6</v>
+      </c>
+      <c r="D3" s="15">
+        <v>391.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>391.65</v>
+      </c>
+      <c r="F3" s="18">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6">
+        <v>389.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1473.7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1456</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1459.35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1460.15</v>
+      </c>
+      <c r="F4" s="18">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1470.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6915.8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>6845</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6850</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6862.1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6890.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9">
+        <v>233.7</v>
+      </c>
+      <c r="C6" s="12">
+        <v>228.7</v>
+      </c>
+      <c r="D6" s="15">
+        <v>229</v>
+      </c>
+      <c r="E6" s="6">
+        <v>229.45</v>
+      </c>
+      <c r="F6" s="18">
+        <v>145</v>
+      </c>
+      <c r="G6" s="6">
+        <v>231.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>192.65</v>
+      </c>
+      <c r="C7" s="12">
+        <v>190</v>
+      </c>
+      <c r="D7" s="15">
+        <v>191.35</v>
+      </c>
+      <c r="E7" s="6">
+        <v>191.7</v>
+      </c>
+      <c r="F7" s="18">
+        <v>152</v>
+      </c>
+      <c r="G7" s="6">
+        <v>190.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9">
+        <v>228.85</v>
+      </c>
+      <c r="C8" s="12">
+        <v>227</v>
+      </c>
+      <c r="D8" s="15">
+        <v>227.05</v>
+      </c>
+      <c r="E8" s="6">
+        <v>227.45</v>
+      </c>
+      <c r="F8" s="18">
+        <v>69</v>
+      </c>
+      <c r="G8" s="6">
+        <v>228.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9">
+        <v>478</v>
+      </c>
+      <c r="C9" s="12">
+        <v>472.65</v>
+      </c>
+      <c r="D9" s="15">
+        <v>474.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>474.05</v>
+      </c>
+      <c r="F9" s="18">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6">
+        <v>476.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3369</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3283.1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3345</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3349.6</v>
+      </c>
+      <c r="F10" s="18">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3288.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
-        <v>393.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1474</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1463</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1469.9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1469.85</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1468.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6990</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6920</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6970</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6981.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6938.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>225.75</v>
-      </c>
-      <c r="C6" s="1">
-        <v>223.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>224.25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>224.6</v>
-      </c>
-      <c r="F6" s="1">
-        <v>46</v>
-      </c>
-      <c r="G6" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>188.5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>185.85</v>
-      </c>
-      <c r="D7" s="2">
-        <v>186.7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>186.75</v>
-      </c>
-      <c r="F7" s="1">
-        <v>187</v>
-      </c>
-      <c r="G7" s="1">
-        <v>186.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>234.8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>232.1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>233.2</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B11" s="9">
+        <v>134.9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>132.94999999999999</v>
+      </c>
+      <c r="D11" s="15">
+        <v>133.75</v>
+      </c>
+      <c r="E11" s="6">
+        <v>134.15</v>
+      </c>
+      <c r="F11" s="18">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6">
+        <v>134.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1177.8499999999999</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1159.7</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1173</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1173.7</v>
+      </c>
+      <c r="F12" s="18">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1596.3</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1585.5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1588.7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1590.75</v>
+      </c>
+      <c r="F13" s="18">
+        <v>128</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1592.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9">
+        <v>445.2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>438.15</v>
+      </c>
+      <c r="D14" s="15">
+        <v>439.2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>439.5</v>
+      </c>
+      <c r="F14" s="18">
+        <v>39</v>
+      </c>
+      <c r="G14" s="6">
+        <v>444.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9">
+        <v>955</v>
+      </c>
+      <c r="C15" s="12">
+        <v>947.45</v>
+      </c>
+      <c r="D15" s="15">
+        <v>948.95</v>
+      </c>
+      <c r="E15" s="6">
+        <v>950.65</v>
+      </c>
+      <c r="F15" s="18">
+        <v>132</v>
+      </c>
+      <c r="G15" s="6">
+        <v>952.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1377</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1360.85</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1372.1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1371.7</v>
+      </c>
+      <c r="F16" s="18">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1373.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1402</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1386.15</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1387</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1388.8</v>
+      </c>
+      <c r="F17" s="18">
+        <v>51</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9">
+        <v>645.9</v>
+      </c>
+      <c r="C18" s="12">
+        <v>637.4</v>
+      </c>
+      <c r="D18" s="15">
+        <v>641.85</v>
+      </c>
+      <c r="E18" s="6">
+        <v>641.04999999999995</v>
+      </c>
+      <c r="F18" s="18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6">
+        <v>644.04999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9">
+        <v>415.2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>410.1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>413</v>
+      </c>
+      <c r="E19" s="6">
+        <v>413.75</v>
+      </c>
+      <c r="F19" s="18">
+        <v>25</v>
+      </c>
+      <c r="G19" s="6">
+        <v>413.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1582.55</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1544.6</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1548.9</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1552.65</v>
+      </c>
+      <c r="F20" s="18">
+        <v>22</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9">
+        <v>279.60000000000002</v>
+      </c>
+      <c r="C21" s="12">
+        <v>273.55</v>
+      </c>
+      <c r="D21" s="15">
+        <v>274.55</v>
+      </c>
+      <c r="E21" s="6">
+        <v>275.05</v>
+      </c>
+      <c r="F21" s="18">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6">
+        <v>278.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2577.6</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2508.5500000000002</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2551.0500000000002</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2556.8000000000002</v>
+      </c>
+      <c r="F22" s="18">
+        <v>93</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2529.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9">
+        <v>575.25</v>
+      </c>
+      <c r="C23" s="12">
+        <v>569.6</v>
+      </c>
+      <c r="D23" s="15">
+        <v>571.15</v>
+      </c>
+      <c r="E23" s="6">
+        <v>572.95000000000005</v>
+      </c>
+      <c r="F23" s="18">
+        <v>182</v>
+      </c>
+      <c r="G23" s="6">
+        <v>571.54999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9">
+        <v>555</v>
+      </c>
+      <c r="C24" s="12">
+        <v>546.5</v>
+      </c>
+      <c r="D24" s="15">
+        <v>548.35</v>
+      </c>
+      <c r="E24" s="6">
+        <v>549.29999999999995</v>
+      </c>
+      <c r="F24" s="18">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6">
+        <v>551.54999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1002</v>
+      </c>
+      <c r="C25" s="12">
+        <v>982</v>
+      </c>
+      <c r="D25" s="15">
+        <v>997.5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>998.5</v>
+      </c>
+      <c r="F25" s="18">
+        <v>6</v>
+      </c>
+      <c r="G25" s="6">
+        <v>992.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9">
+        <v>620.1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>612.95000000000005</v>
+      </c>
+      <c r="D26" s="15">
+        <v>613.20000000000005</v>
+      </c>
+      <c r="E26" s="6">
+        <v>615.79999999999995</v>
+      </c>
+      <c r="F26" s="18">
+        <v>111</v>
+      </c>
+      <c r="G26" s="6">
+        <v>615.29999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="9">
+        <v>233.3</v>
+      </c>
+      <c r="C27" s="12">
+        <v>229.6</v>
+      </c>
+      <c r="D27" s="15">
+        <v>230</v>
+      </c>
+      <c r="E27" s="6">
+        <v>230.1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>68</v>
+      </c>
+      <c r="G27" s="6">
         <v>233.05</v>
       </c>
-      <c r="F8" s="1">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1">
-        <v>234.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>479.6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>467.9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>477.65</v>
-      </c>
-      <c r="E9" s="1">
-        <v>478.05</v>
-      </c>
-      <c r="F9" s="1">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1">
-        <v>469.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3333</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3299.9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3320</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3327.2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3301.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>133.4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>131.94999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="F11" s="1">
-        <v>113</v>
-      </c>
-      <c r="G11" s="1">
-        <v>132.30000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1186.25</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1171.5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1175.5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1177.1500000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1176.0999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1609.65</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1588.1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1604.35</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1606.2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>170</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1590.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>446.6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>439</v>
-      </c>
-      <c r="D14" s="2">
-        <v>444</v>
-      </c>
-      <c r="E14" s="1">
-        <v>445.2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>50</v>
-      </c>
-      <c r="G14" s="1">
-        <v>444.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <v>959.8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>949.25</v>
-      </c>
-      <c r="D15" s="2">
-        <v>956</v>
-      </c>
-      <c r="E15" s="1">
-        <v>956.5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>179</v>
-      </c>
-      <c r="G15" s="1">
-        <v>950.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1383.8</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1367</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1380</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1380.7</v>
-      </c>
-      <c r="F16" s="1">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1371.65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1419.95</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1406</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1417.9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1418.5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>77</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1416.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <v>658.5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>642</v>
-      </c>
-      <c r="D18" s="2">
-        <v>647</v>
-      </c>
-      <c r="E18" s="1">
-        <v>647.95000000000005</v>
-      </c>
-      <c r="F18" s="1">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1">
-        <v>658.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1">
-        <v>424.5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>417</v>
-      </c>
-      <c r="D19" s="2">
-        <v>422.25</v>
-      </c>
-      <c r="E19" s="1">
-        <v>422.15</v>
-      </c>
-      <c r="F19" s="1">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1">
-        <v>420.35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1573</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1538.6</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1570</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1570.6</v>
-      </c>
-      <c r="F20" s="1">
-        <v>23</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <v>278</v>
-      </c>
-      <c r="C21" s="1">
-        <v>272.7</v>
-      </c>
-      <c r="D21" s="2">
-        <v>277.89999999999998</v>
-      </c>
-      <c r="E21" s="1">
-        <v>277.39999999999998</v>
-      </c>
-      <c r="F21" s="1">
-        <v>36</v>
-      </c>
-      <c r="G21" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2582.8000000000002</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2557.15</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2571.9499999999998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2575.15</v>
-      </c>
-      <c r="F22" s="1">
-        <v>51</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2563.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1">
-        <v>566.4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>560.6</v>
-      </c>
-      <c r="D23" s="2">
-        <v>565.04999999999995</v>
-      </c>
-      <c r="E23" s="1">
-        <v>565.35</v>
-      </c>
-      <c r="F23" s="1">
-        <v>157</v>
-      </c>
-      <c r="G23" s="1">
-        <v>561.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1">
-        <v>550.79999999999995</v>
-      </c>
-      <c r="C24" s="1">
-        <v>536.54999999999995</v>
-      </c>
-      <c r="D24" s="2">
-        <v>548.29999999999995</v>
-      </c>
-      <c r="E24" s="1">
-        <v>549.15</v>
-      </c>
-      <c r="F24" s="1">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1">
-        <v>539.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1">
-        <v>996.35</v>
-      </c>
-      <c r="C25" s="1">
-        <v>988.5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>990</v>
-      </c>
-      <c r="E25" s="1">
-        <v>990.7</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>994.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1">
-        <v>621.35</v>
-      </c>
-      <c r="C26" s="1">
-        <v>599.79999999999995</v>
-      </c>
-      <c r="D26" s="2">
-        <v>617.79999999999995</v>
-      </c>
-      <c r="E26" s="1">
-        <v>618.75</v>
-      </c>
-      <c r="F26" s="1">
-        <v>145</v>
-      </c>
-      <c r="G26" s="1">
-        <v>601.04999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1">
-        <v>235.5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>228.95</v>
-      </c>
-      <c r="D27" s="2">
-        <v>234.8</v>
-      </c>
-      <c r="E27" s="1">
-        <v>234.95</v>
-      </c>
-      <c r="F27" s="1">
-        <v>67</v>
-      </c>
-      <c r="G27" s="1">
-        <v>229.75</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="1">
-        <v>117.45</v>
-      </c>
-      <c r="C28" s="1">
-        <v>115.4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>115.9</v>
-      </c>
-      <c r="E28" s="1">
-        <v>115.95</v>
-      </c>
-      <c r="F28" s="1">
-        <v>312</v>
-      </c>
-      <c r="G28" s="1">
-        <v>117.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="9">
+        <v>116.4</v>
+      </c>
+      <c r="C28" s="12">
+        <v>114.75</v>
+      </c>
+      <c r="D28" s="15">
+        <v>116.4</v>
+      </c>
+      <c r="E28" s="6">
+        <v>115.8</v>
+      </c>
+      <c r="F28" s="18">
+        <v>303</v>
+      </c>
+      <c r="G28" s="6">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="1">
-        <v>8265</v>
-      </c>
-      <c r="C29" s="1">
-        <v>8005.6</v>
-      </c>
-      <c r="D29" s="2">
-        <v>8245</v>
-      </c>
-      <c r="E29" s="1">
-        <v>8251.9</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="B29" s="10">
+        <v>8246.4</v>
+      </c>
+      <c r="C29" s="13">
+        <v>8165.8</v>
+      </c>
+      <c r="D29" s="16">
+        <v>8198</v>
+      </c>
+      <c r="E29" s="7">
+        <v>8214.85</v>
+      </c>
+      <c r="F29" s="19">
         <v>2</v>
       </c>
-      <c r="G29" s="1">
-        <v>8018</v>
+      <c r="G29" s="7">
+        <v>8201.2000000000007</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -340,11 +340,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF0000FF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +647,7 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -678,22 +673,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="8">
-        <v>2665.95</v>
+        <v>2714.95</v>
       </c>
       <c r="C2" s="11">
-        <v>2461.3000000000002</v>
+        <v>2668.2</v>
       </c>
       <c r="D2" s="14">
-        <v>2570.9499999999998</v>
+        <v>2694.9</v>
       </c>
       <c r="E2" s="5">
-        <v>2577.4</v>
+        <v>2698.05</v>
       </c>
       <c r="F2" s="17">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="G2" s="5">
-        <v>2471.65</v>
+        <v>2705.95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,22 +696,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>396.45</v>
+        <v>401.5</v>
       </c>
       <c r="C3" s="12">
-        <v>384.6</v>
+        <v>392.05</v>
       </c>
       <c r="D3" s="15">
-        <v>391.5</v>
+        <v>393.85</v>
       </c>
       <c r="E3" s="6">
-        <v>391.65</v>
+        <v>393.95</v>
       </c>
       <c r="F3" s="18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6">
-        <v>389.75</v>
+        <v>398.6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,22 +719,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>1473.7</v>
+        <v>1494</v>
       </c>
       <c r="C4" s="12">
-        <v>1456</v>
+        <v>1464.35</v>
       </c>
       <c r="D4" s="15">
-        <v>1459.35</v>
+        <v>1468.5</v>
       </c>
       <c r="E4" s="6">
-        <v>1460.15</v>
+        <v>1467.8</v>
       </c>
       <c r="F4" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6">
-        <v>1470.65</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,22 +742,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>6915.8</v>
+        <v>7153.5</v>
       </c>
       <c r="C5" s="12">
-        <v>6845</v>
+        <v>7050</v>
       </c>
       <c r="D5" s="15">
-        <v>6850</v>
+        <v>7053.25</v>
       </c>
       <c r="E5" s="6">
-        <v>6862.1</v>
+        <v>7069.95</v>
       </c>
       <c r="F5" s="18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6">
-        <v>6890.1</v>
+        <v>7056.05</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -770,22 +765,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>233.7</v>
+        <v>232.7</v>
       </c>
       <c r="C6" s="12">
-        <v>228.7</v>
+        <v>230.8</v>
       </c>
       <c r="D6" s="15">
-        <v>229</v>
+        <v>231.95</v>
       </c>
       <c r="E6" s="6">
-        <v>229.45</v>
+        <v>232.1</v>
       </c>
       <c r="F6" s="18">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="G6" s="6">
-        <v>231.7</v>
+        <v>231.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -793,22 +788,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>192.65</v>
+        <v>191.8</v>
       </c>
       <c r="C7" s="12">
-        <v>190</v>
+        <v>189.85</v>
       </c>
       <c r="D7" s="15">
-        <v>191.35</v>
+        <v>190.3</v>
       </c>
       <c r="E7" s="6">
-        <v>191.7</v>
+        <v>190.25</v>
       </c>
       <c r="F7" s="18">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="G7" s="6">
-        <v>190.25</v>
+        <v>191.45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,22 +811,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>228.85</v>
+        <v>232.05</v>
       </c>
       <c r="C8" s="12">
-        <v>227</v>
+        <v>229.7</v>
       </c>
       <c r="D8" s="15">
-        <v>227.05</v>
+        <v>230.85</v>
       </c>
       <c r="E8" s="6">
-        <v>227.45</v>
+        <v>230.75</v>
       </c>
       <c r="F8" s="18">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G8" s="6">
-        <v>228.45</v>
+        <v>230.15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,22 +834,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <v>478</v>
+        <v>484.85</v>
       </c>
       <c r="C9" s="12">
-        <v>472.65</v>
+        <v>479.55</v>
       </c>
       <c r="D9" s="15">
-        <v>474.5</v>
+        <v>480</v>
       </c>
       <c r="E9" s="6">
-        <v>474.05</v>
+        <v>480.35</v>
       </c>
       <c r="F9" s="18">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G9" s="6">
-        <v>476.7</v>
+        <v>481.9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,19 +860,19 @@
         <v>3369</v>
       </c>
       <c r="C10" s="12">
-        <v>3283.1</v>
+        <v>3329</v>
       </c>
       <c r="D10" s="15">
-        <v>3345</v>
+        <v>3338</v>
       </c>
       <c r="E10" s="6">
-        <v>3349.6</v>
+        <v>3343.4</v>
       </c>
       <c r="F10" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="6">
-        <v>3288.15</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -885,22 +880,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <v>134.9</v>
+        <v>136.9</v>
       </c>
       <c r="C11" s="12">
-        <v>132.94999999999999</v>
+        <v>134.1</v>
       </c>
       <c r="D11" s="15">
-        <v>133.75</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="E11" s="6">
-        <v>134.15</v>
+        <v>136.05000000000001</v>
       </c>
       <c r="F11" s="18">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="G11" s="6">
-        <v>134.35</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,22 +903,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>1177.8499999999999</v>
+        <v>1186</v>
       </c>
       <c r="C12" s="12">
-        <v>1159.7</v>
+        <v>1176.1500000000001</v>
       </c>
       <c r="D12" s="15">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="E12" s="6">
-        <v>1173.7</v>
+        <v>1179.5</v>
       </c>
       <c r="F12" s="18">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G12" s="6">
-        <v>1163</v>
+        <v>1185.95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,22 +926,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>1596.3</v>
+        <v>1595.95</v>
       </c>
       <c r="C13" s="12">
-        <v>1585.5</v>
+        <v>1580</v>
       </c>
       <c r="D13" s="15">
-        <v>1588.7</v>
+        <v>1581.45</v>
       </c>
       <c r="E13" s="6">
-        <v>1590.75</v>
+        <v>1582.7</v>
       </c>
       <c r="F13" s="18">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G13" s="6">
-        <v>1592.3</v>
+        <v>1593.05</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,22 +949,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>445.2</v>
+        <v>454.4</v>
       </c>
       <c r="C14" s="12">
-        <v>438.15</v>
+        <v>448.8</v>
       </c>
       <c r="D14" s="15">
-        <v>439.2</v>
+        <v>451</v>
       </c>
       <c r="E14" s="6">
-        <v>439.5</v>
+        <v>450.35</v>
       </c>
       <c r="F14" s="18">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" s="6">
-        <v>444.2</v>
+        <v>451.85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,22 +972,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>955</v>
+        <v>956.65</v>
       </c>
       <c r="C15" s="12">
-        <v>947.45</v>
+        <v>949.3</v>
       </c>
       <c r="D15" s="15">
-        <v>948.95</v>
+        <v>950</v>
       </c>
       <c r="E15" s="6">
-        <v>950.65</v>
+        <v>952</v>
       </c>
       <c r="F15" s="18">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="G15" s="6">
-        <v>952.5</v>
+        <v>953.7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,22 +995,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>1377</v>
+        <v>1404</v>
       </c>
       <c r="C16" s="12">
-        <v>1360.85</v>
+        <v>1394.1</v>
       </c>
       <c r="D16" s="15">
-        <v>1372.1</v>
+        <v>1397.8</v>
       </c>
       <c r="E16" s="6">
-        <v>1371.7</v>
+        <v>1401.15</v>
       </c>
       <c r="F16" s="18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G16" s="6">
-        <v>1373.1</v>
+        <v>1397.05</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1023,22 +1018,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <v>1402</v>
+        <v>1405.95</v>
       </c>
       <c r="C17" s="12">
-        <v>1386.15</v>
+        <v>1396.65</v>
       </c>
       <c r="D17" s="15">
-        <v>1387</v>
+        <v>1404</v>
       </c>
       <c r="E17" s="6">
-        <v>1388.8</v>
+        <v>1403.75</v>
       </c>
       <c r="F17" s="18">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G17" s="6">
-        <v>1400</v>
+        <v>1402.65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,22 +1041,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <v>645.9</v>
+        <v>658.7</v>
       </c>
       <c r="C18" s="12">
-        <v>637.4</v>
+        <v>649.25</v>
       </c>
       <c r="D18" s="15">
-        <v>641.85</v>
+        <v>654.4</v>
       </c>
       <c r="E18" s="6">
-        <v>641.04999999999995</v>
+        <v>655.85</v>
       </c>
       <c r="F18" s="18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6">
-        <v>644.04999999999995</v>
+        <v>656.15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,22 +1064,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="9">
-        <v>415.2</v>
+        <v>427.15</v>
       </c>
       <c r="C19" s="12">
-        <v>410.1</v>
+        <v>421.5</v>
       </c>
       <c r="D19" s="15">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E19" s="6">
-        <v>413.75</v>
+        <v>422.9</v>
       </c>
       <c r="F19" s="18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6">
-        <v>413.4</v>
+        <v>421.6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,22 +1087,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="9">
-        <v>1582.55</v>
+        <v>1555</v>
       </c>
       <c r="C20" s="12">
-        <v>1544.6</v>
+        <v>1541</v>
       </c>
       <c r="D20" s="15">
-        <v>1548.9</v>
+        <v>1550</v>
       </c>
       <c r="E20" s="6">
-        <v>1552.65</v>
+        <v>1550.5</v>
       </c>
       <c r="F20" s="18">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G20" s="6">
-        <v>1574</v>
+        <v>1547.3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,22 +1110,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="9">
-        <v>279.60000000000002</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="C21" s="12">
-        <v>273.55</v>
+        <v>276.5</v>
       </c>
       <c r="D21" s="15">
-        <v>274.55</v>
+        <v>288.7</v>
       </c>
       <c r="E21" s="6">
-        <v>275.05</v>
+        <v>288.64999999999998</v>
       </c>
       <c r="F21" s="18">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G21" s="6">
-        <v>278.7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1138,22 +1133,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="9">
-        <v>2577.6</v>
+        <v>2537.9499999999998</v>
       </c>
       <c r="C22" s="12">
-        <v>2508.5500000000002</v>
+        <v>2507</v>
       </c>
       <c r="D22" s="15">
-        <v>2551.0500000000002</v>
+        <v>2523</v>
       </c>
       <c r="E22" s="6">
-        <v>2556.8000000000002</v>
+        <v>2519.4</v>
       </c>
       <c r="F22" s="18">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G22" s="6">
-        <v>2529.65</v>
+        <v>2509.3000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,22 +1156,22 @@
         <v>27</v>
       </c>
       <c r="B23" s="9">
-        <v>575.25</v>
+        <v>574.45000000000005</v>
       </c>
       <c r="C23" s="12">
-        <v>569.6</v>
+        <v>567.5</v>
       </c>
       <c r="D23" s="15">
-        <v>571.15</v>
+        <v>568.20000000000005</v>
       </c>
       <c r="E23" s="6">
-        <v>572.95000000000005</v>
+        <v>568.5</v>
       </c>
       <c r="F23" s="18">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="G23" s="6">
-        <v>571.54999999999995</v>
+        <v>572.54999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1184,22 +1179,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="9">
-        <v>555</v>
+        <v>548.5</v>
       </c>
       <c r="C24" s="12">
-        <v>546.5</v>
+        <v>539.1</v>
       </c>
       <c r="D24" s="15">
-        <v>548.35</v>
+        <v>541</v>
       </c>
       <c r="E24" s="6">
-        <v>549.29999999999995</v>
+        <v>542</v>
       </c>
       <c r="F24" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24" s="6">
-        <v>551.54999999999995</v>
+        <v>544.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,22 +1202,22 @@
         <v>29</v>
       </c>
       <c r="B25" s="9">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="C25" s="12">
-        <v>982</v>
+        <v>1000.3</v>
       </c>
       <c r="D25" s="15">
-        <v>997.5</v>
+        <v>1004.9</v>
       </c>
       <c r="E25" s="6">
-        <v>998.5</v>
+        <v>1004</v>
       </c>
       <c r="F25" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="6">
-        <v>992.25</v>
+        <v>1002.55</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1230,22 +1225,22 @@
         <v>30</v>
       </c>
       <c r="B26" s="9">
-        <v>620.1</v>
+        <v>626.5</v>
       </c>
       <c r="C26" s="12">
-        <v>612.95000000000005</v>
+        <v>618.6</v>
       </c>
       <c r="D26" s="15">
-        <v>613.20000000000005</v>
+        <v>619.45000000000005</v>
       </c>
       <c r="E26" s="6">
-        <v>615.79999999999995</v>
+        <v>620.20000000000005</v>
       </c>
       <c r="F26" s="18">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G26" s="6">
-        <v>615.29999999999995</v>
+        <v>624.85</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1253,22 +1248,22 @@
         <v>31</v>
       </c>
       <c r="B27" s="9">
-        <v>233.3</v>
+        <v>244.1</v>
       </c>
       <c r="C27" s="12">
-        <v>229.6</v>
+        <v>239.6</v>
       </c>
       <c r="D27" s="15">
-        <v>230</v>
+        <v>243.7</v>
       </c>
       <c r="E27" s="6">
-        <v>230.1</v>
+        <v>243.5</v>
       </c>
       <c r="F27" s="18">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="G27" s="6">
-        <v>233.05</v>
+        <v>240.75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,50 +1271,50 @@
         <v>32</v>
       </c>
       <c r="B28" s="9">
-        <v>116.4</v>
+        <v>117.75</v>
       </c>
       <c r="C28" s="12">
-        <v>114.75</v>
+        <v>116.5</v>
       </c>
       <c r="D28" s="15">
-        <v>116.4</v>
+        <v>117.55</v>
       </c>
       <c r="E28" s="6">
-        <v>115.8</v>
+        <v>117.55</v>
       </c>
       <c r="F28" s="18">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="G28" s="6">
-        <v>116.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="10">
-        <v>8246.4</v>
+        <v>8267.9500000000007</v>
       </c>
       <c r="C29" s="13">
-        <v>8165.8</v>
+        <v>8192.0499999999993</v>
       </c>
       <c r="D29" s="16">
-        <v>8198</v>
+        <v>8198.2999999999993</v>
       </c>
       <c r="E29" s="7">
-        <v>8214.85</v>
+        <v>8203.5</v>
       </c>
       <c r="F29" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>8201.2000000000007</v>
+        <v>8230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -638,7 +638,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,22 +673,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="8">
-        <v>2714.95</v>
+        <v>2612.4499999999998</v>
       </c>
       <c r="C2" s="11">
-        <v>2668.2</v>
+        <v>2531.1</v>
       </c>
       <c r="D2" s="14">
-        <v>2694.9</v>
+        <v>2542.1999999999998</v>
       </c>
       <c r="E2" s="5">
-        <v>2698.05</v>
+        <v>2539.5500000000002</v>
       </c>
       <c r="F2" s="17">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="G2" s="5">
-        <v>2705.95</v>
+        <v>2571.65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,22 +696,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>401.5</v>
+        <v>399.55</v>
       </c>
       <c r="C3" s="12">
-        <v>392.05</v>
+        <v>393.1</v>
       </c>
       <c r="D3" s="15">
-        <v>393.85</v>
+        <v>394.7</v>
       </c>
       <c r="E3" s="6">
-        <v>393.95</v>
+        <v>395.6</v>
       </c>
       <c r="F3" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6">
-        <v>398.6</v>
+        <v>397.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,22 +719,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C4" s="12">
-        <v>1464.35</v>
+        <v>1465</v>
       </c>
       <c r="D4" s="15">
-        <v>1468.5</v>
+        <v>1467</v>
       </c>
       <c r="E4" s="6">
-        <v>1467.8</v>
+        <v>1468.6</v>
       </c>
       <c r="F4" s="18">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6">
-        <v>1482</v>
+        <v>1489.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -742,22 +742,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>7153.5</v>
+        <v>7185.95</v>
       </c>
       <c r="C5" s="12">
-        <v>7050</v>
+        <v>7121</v>
       </c>
       <c r="D5" s="15">
-        <v>7053.25</v>
+        <v>7124</v>
       </c>
       <c r="E5" s="6">
-        <v>7069.95</v>
+        <v>7137.45</v>
       </c>
       <c r="F5" s="18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6">
-        <v>7056.05</v>
+        <v>7179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,22 +765,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>232.7</v>
+        <v>240.7</v>
       </c>
       <c r="C6" s="12">
-        <v>230.8</v>
+        <v>234</v>
       </c>
       <c r="D6" s="15">
-        <v>231.95</v>
+        <v>235.2</v>
       </c>
       <c r="E6" s="6">
-        <v>232.1</v>
+        <v>234.9</v>
       </c>
       <c r="F6" s="18">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="G6" s="6">
-        <v>231.8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,22 +788,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>191.8</v>
+        <v>194.95</v>
       </c>
       <c r="C7" s="12">
-        <v>189.85</v>
+        <v>190.75</v>
       </c>
       <c r="D7" s="15">
-        <v>190.3</v>
+        <v>191.9</v>
       </c>
       <c r="E7" s="6">
-        <v>190.25</v>
+        <v>191.85</v>
       </c>
       <c r="F7" s="18">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="G7" s="6">
-        <v>191.45</v>
+        <v>194.55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -811,22 +811,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>232.05</v>
+        <v>232.65</v>
       </c>
       <c r="C8" s="12">
-        <v>229.7</v>
+        <v>228.5</v>
       </c>
       <c r="D8" s="15">
-        <v>230.85</v>
+        <v>229.75</v>
       </c>
       <c r="E8" s="6">
-        <v>230.75</v>
+        <v>229.25</v>
       </c>
       <c r="F8" s="18">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G8" s="6">
-        <v>230.15</v>
+        <v>232.3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,22 +834,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="9">
+        <v>490.75</v>
+      </c>
+      <c r="C9" s="12">
+        <v>483</v>
+      </c>
+      <c r="D9" s="15">
+        <v>483.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>483.55</v>
+      </c>
+      <c r="F9" s="18">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6">
         <v>484.85</v>
-      </c>
-      <c r="C9" s="12">
-        <v>479.55</v>
-      </c>
-      <c r="D9" s="15">
-        <v>480</v>
-      </c>
-      <c r="E9" s="6">
-        <v>480.35</v>
-      </c>
-      <c r="F9" s="18">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6">
-        <v>481.9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,22 +857,22 @@
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <v>3369</v>
+        <v>3367.7</v>
       </c>
       <c r="C10" s="12">
-        <v>3329</v>
+        <v>3320</v>
       </c>
       <c r="D10" s="15">
-        <v>3338</v>
+        <v>3325</v>
       </c>
       <c r="E10" s="6">
-        <v>3343.4</v>
+        <v>3341.65</v>
       </c>
       <c r="F10" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" s="6">
-        <v>3364</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -880,22 +880,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <v>136.9</v>
+        <v>143.15</v>
       </c>
       <c r="C11" s="12">
-        <v>134.1</v>
+        <v>139.4</v>
       </c>
       <c r="D11" s="15">
-        <v>135.80000000000001</v>
+        <v>140.6</v>
       </c>
       <c r="E11" s="6">
-        <v>136.05000000000001</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="F11" s="18">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="G11" s="6">
-        <v>134.5</v>
+        <v>142.80000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,22 +903,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>1186</v>
+        <v>1188.8</v>
       </c>
       <c r="C12" s="12">
-        <v>1176.1500000000001</v>
+        <v>1169</v>
       </c>
       <c r="D12" s="15">
-        <v>1180</v>
+        <v>1172.95</v>
       </c>
       <c r="E12" s="6">
-        <v>1179.5</v>
+        <v>1171.25</v>
       </c>
       <c r="F12" s="18">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G12" s="6">
-        <v>1185.95</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -926,22 +926,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>1595.95</v>
+        <v>1596.2</v>
       </c>
       <c r="C13" s="12">
-        <v>1580</v>
+        <v>1576.15</v>
       </c>
       <c r="D13" s="15">
-        <v>1581.45</v>
+        <v>1579.6</v>
       </c>
       <c r="E13" s="6">
-        <v>1582.7</v>
+        <v>1579.3</v>
       </c>
       <c r="F13" s="18">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="G13" s="6">
-        <v>1593.05</v>
+        <v>1591.05</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,22 +949,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>454.4</v>
+        <v>464.65</v>
       </c>
       <c r="C14" s="12">
-        <v>448.8</v>
+        <v>453.85</v>
       </c>
       <c r="D14" s="15">
-        <v>451</v>
+        <v>455.55</v>
       </c>
       <c r="E14" s="6">
-        <v>450.35</v>
+        <v>456.5</v>
       </c>
       <c r="F14" s="18">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G14" s="6">
-        <v>451.85</v>
+        <v>464.4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,22 +972,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>956.65</v>
+        <v>982.4</v>
       </c>
       <c r="C15" s="12">
-        <v>949.3</v>
+        <v>966.75</v>
       </c>
       <c r="D15" s="15">
-        <v>950</v>
+        <v>968.8</v>
       </c>
       <c r="E15" s="6">
-        <v>952</v>
+        <v>968.95</v>
       </c>
       <c r="F15" s="18">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="G15" s="6">
-        <v>953.7</v>
+        <v>974.3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,22 +995,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>1404</v>
+        <v>1435</v>
       </c>
       <c r="C16" s="12">
-        <v>1394.1</v>
+        <v>1411.95</v>
       </c>
       <c r="D16" s="15">
-        <v>1397.8</v>
+        <v>1418.65</v>
       </c>
       <c r="E16" s="6">
-        <v>1401.15</v>
+        <v>1425.15</v>
       </c>
       <c r="F16" s="18">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G16" s="6">
-        <v>1397.05</v>
+        <v>1414.15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,22 +1018,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <v>1405.95</v>
+        <v>1425.05</v>
       </c>
       <c r="C17" s="12">
-        <v>1396.65</v>
+        <v>1414.45</v>
       </c>
       <c r="D17" s="15">
-        <v>1404</v>
+        <v>1424</v>
       </c>
       <c r="E17" s="6">
-        <v>1403.75</v>
+        <v>1423.6</v>
       </c>
       <c r="F17" s="18">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G17" s="6">
-        <v>1402.65</v>
+        <v>1419.75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,22 +1041,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <v>658.7</v>
+        <v>667.5</v>
       </c>
       <c r="C18" s="12">
-        <v>649.25</v>
+        <v>647</v>
       </c>
       <c r="D18" s="15">
-        <v>654.4</v>
+        <v>647.70000000000005</v>
       </c>
       <c r="E18" s="6">
-        <v>655.85</v>
+        <v>649.1</v>
       </c>
       <c r="F18" s="18">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G18" s="6">
-        <v>656.15</v>
+        <v>664.3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,22 +1064,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="9">
-        <v>427.15</v>
+        <v>426.1</v>
       </c>
       <c r="C19" s="12">
-        <v>421.5</v>
+        <v>419.9</v>
       </c>
       <c r="D19" s="15">
-        <v>423</v>
+        <v>420.45</v>
       </c>
       <c r="E19" s="6">
-        <v>422.9</v>
+        <v>421.55</v>
       </c>
       <c r="F19" s="18">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G19" s="6">
-        <v>421.6</v>
+        <v>425.95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,22 +1087,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="9">
-        <v>1555</v>
+        <v>1553.3</v>
       </c>
       <c r="C20" s="12">
-        <v>1541</v>
+        <v>1528.05</v>
       </c>
       <c r="D20" s="15">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="E20" s="6">
-        <v>1550.5</v>
+        <v>1542.2</v>
       </c>
       <c r="F20" s="18">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G20" s="6">
-        <v>1547.3</v>
+        <v>1550.9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1110,22 +1110,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="9">
-        <v>289.60000000000002</v>
+        <v>306</v>
       </c>
       <c r="C21" s="12">
-        <v>276.5</v>
+        <v>299</v>
       </c>
       <c r="D21" s="15">
-        <v>288.7</v>
+        <v>304.3</v>
       </c>
       <c r="E21" s="6">
-        <v>288.64999999999998</v>
+        <v>304.05</v>
       </c>
       <c r="F21" s="18">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G21" s="6">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1133,22 +1133,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="9">
-        <v>2537.9499999999998</v>
+        <v>2539</v>
       </c>
       <c r="C22" s="12">
-        <v>2507</v>
+        <v>2471</v>
       </c>
       <c r="D22" s="15">
-        <v>2523</v>
+        <v>2475.8000000000002</v>
       </c>
       <c r="E22" s="6">
-        <v>2519.4</v>
+        <v>2479.8000000000002</v>
       </c>
       <c r="F22" s="18">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G22" s="6">
-        <v>2509.3000000000002</v>
+        <v>2529.4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1156,22 +1156,22 @@
         <v>27</v>
       </c>
       <c r="B23" s="9">
-        <v>574.45000000000005</v>
+        <v>582</v>
       </c>
       <c r="C23" s="12">
-        <v>567.5</v>
+        <v>575.54999999999995</v>
       </c>
       <c r="D23" s="15">
-        <v>568.20000000000005</v>
+        <v>577</v>
       </c>
       <c r="E23" s="6">
-        <v>568.5</v>
+        <v>576.95000000000005</v>
       </c>
       <c r="F23" s="18">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="G23" s="6">
-        <v>572.54999999999995</v>
+        <v>580.35</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1179,22 +1179,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="9">
-        <v>548.5</v>
+        <v>585.9</v>
       </c>
       <c r="C24" s="12">
-        <v>539.1</v>
+        <v>566.04999999999995</v>
       </c>
       <c r="D24" s="15">
-        <v>541</v>
+        <v>582.70000000000005</v>
       </c>
       <c r="E24" s="6">
-        <v>542</v>
+        <v>582.54999999999995</v>
       </c>
       <c r="F24" s="18">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G24" s="6">
-        <v>544.5</v>
+        <v>571.1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,22 +1202,22 @@
         <v>29</v>
       </c>
       <c r="B25" s="9">
-        <v>1008</v>
+        <v>1017.4</v>
       </c>
       <c r="C25" s="12">
-        <v>1000.3</v>
+        <v>1004.15</v>
       </c>
       <c r="D25" s="15">
-        <v>1004.9</v>
+        <v>1017</v>
       </c>
       <c r="E25" s="6">
-        <v>1004</v>
+        <v>1015.65</v>
       </c>
       <c r="F25" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6">
-        <v>1002.55</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,22 +1225,22 @@
         <v>30</v>
       </c>
       <c r="B26" s="9">
-        <v>626.5</v>
+        <v>619</v>
       </c>
       <c r="C26" s="12">
-        <v>618.6</v>
+        <v>609.65</v>
       </c>
       <c r="D26" s="15">
-        <v>619.45000000000005</v>
+        <v>611.65</v>
       </c>
       <c r="E26" s="6">
-        <v>620.20000000000005</v>
+        <v>610.95000000000005</v>
       </c>
       <c r="F26" s="18">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G26" s="6">
-        <v>624.85</v>
+        <v>617.25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>31</v>
       </c>
       <c r="B27" s="9">
-        <v>244.1</v>
+        <v>252.8</v>
       </c>
       <c r="C27" s="12">
-        <v>239.6</v>
+        <v>246.55</v>
       </c>
       <c r="D27" s="15">
-        <v>243.7</v>
+        <v>249.8</v>
       </c>
       <c r="E27" s="6">
-        <v>243.5</v>
+        <v>249.75</v>
       </c>
       <c r="F27" s="18">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="G27" s="6">
-        <v>240.75</v>
+        <v>247.35</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,22 +1271,22 @@
         <v>32</v>
       </c>
       <c r="B28" s="9">
-        <v>117.75</v>
+        <v>120.1</v>
       </c>
       <c r="C28" s="12">
-        <v>116.5</v>
+        <v>118.05</v>
       </c>
       <c r="D28" s="15">
-        <v>117.55</v>
+        <v>118.3</v>
       </c>
       <c r="E28" s="6">
-        <v>117.55</v>
+        <v>118.25</v>
       </c>
       <c r="F28" s="18">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="G28" s="6">
-        <v>116.8</v>
+        <v>119.65</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1294,22 +1294,22 @@
         <v>33</v>
       </c>
       <c r="B29" s="10">
-        <v>8267.9500000000007</v>
+        <v>8324</v>
       </c>
       <c r="C29" s="13">
-        <v>8192.0499999999993</v>
+        <v>8198</v>
       </c>
       <c r="D29" s="16">
-        <v>8198.2999999999993</v>
+        <v>8198</v>
       </c>
       <c r="E29" s="7">
-        <v>8203.5</v>
+        <v>8211.4</v>
       </c>
       <c r="F29" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="7">
-        <v>8230</v>
+        <v>8213.2000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2536.65</v>
+        <v>2465.55</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2473.55</v>
+        <v>2395.6</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2507.6</v>
+        <v>2449.9</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2506.45</v>
+        <v>2450.05</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2480.6</v>
+        <v>2401.95</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>397.75</v>
+        <v>390.55</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>388.5</v>
+        <v>383.8</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>389.6</v>
+        <v>385.15</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>389.65</v>
+        <v>384.75</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>394.15</v>
+        <v>387.95</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
+        <v>1518.7</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <v>1490.15</v>
+      </c>
+      <c r="D4" s="15" t="n">
         <v>1514</v>
       </c>
-      <c r="C4" s="12" t="n">
-        <v>1497.25</v>
-      </c>
-      <c r="D4" s="15" t="n">
-        <v>1506.95</v>
-      </c>
       <c r="E4" s="6" t="n">
-        <v>1503.45</v>
+        <v>1514.5</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1505.05</v>
+        <v>1493.25</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7310.95</v>
+        <v>7329.4</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7236</v>
+        <v>7155</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7295</v>
+        <v>7300.1</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7293.35</v>
+        <v>7320.6</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7269</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>236.7</v>
+        <v>236.25</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>234.2</v>
+        <v>231.6</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>235.85</v>
+        <v>235.15</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>235.8</v>
+        <v>235.1</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>235.85</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>191.6</v>
+        <v>191.8</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>189.2</v>
+        <v>186.3</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>191.1</v>
+        <v>190.75</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>191.15</v>
+        <v>190.6</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>190.75</v>
+        <v>187.6</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>230.4</v>
+        <v>237.25</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>229.25</v>
+        <v>232.1</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>229.85</v>
+        <v>236.9</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>229.95</v>
+        <v>236.9</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>229.55</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>497.8</v>
+        <v>509.5</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>488.5</v>
+        <v>500.3</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>494.5</v>
+        <v>503.9</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>494</v>
+        <v>503.25</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>488.9</v>
+        <v>504.15</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3370</v>
+        <v>3406.45</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3350</v>
+        <v>3322.1</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3355</v>
+        <v>3402</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3355.35</v>
+        <v>3400.4</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3365</v>
+        <v>3330.05</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>146.45</v>
+        <v>144.65</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>144</v>
+        <v>141.3</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>144.6</v>
+        <v>143.5</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>144.45</v>
+        <v>143.8</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>145</v>
+        <v>143.7</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1163.3</v>
+        <v>1188</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1148.3</v>
+        <v>1171.1</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1159</v>
+        <v>1185.1</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1157.55</v>
+        <v>1185.8</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1150.6</v>
+        <v>1172.1</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1592.65</v>
+        <v>1579</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1583.45</v>
+        <v>1559.35</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1591.25</v>
+        <v>1573.75</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1590.3</v>
+        <v>1574.7</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1584.3</v>
+        <v>1571.35</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>458.5</v>
+        <v>478.5</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>448.55</v>
+        <v>468.75</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>456.9</v>
+        <v>472.7</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>456.05</v>
+        <v>473.25</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>450.75</v>
+        <v>469.75</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>976.8</v>
+        <v>973.05</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>965.65</v>
+        <v>952.8</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>967.7</v>
+        <v>967.6</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>967.75</v>
+        <v>968.7</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>975.3</v>
+        <v>955.6</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1409.8</v>
+        <v>1423.6</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1392.45</v>
+        <v>1376.3</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1400.15</v>
+        <v>1416.55</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1409.55</v>
+        <v>1383.35</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1424</v>
+        <v>1446</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1415.3</v>
+        <v>1428.2</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1418</v>
+        <v>1442</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1417.65</v>
+        <v>1443.85</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1421.8</v>
+        <v>1429.55</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>679.7</v>
+        <v>713.7</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>659</v>
+        <v>691.05</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>675.5</v>
+        <v>701</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>676.3</v>
+        <v>701.1</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>662.4</v>
+        <v>692.95</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>426.5</v>
+        <v>435.85</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>419</v>
+        <v>425.2</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>423.1</v>
+        <v>434.1</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>423.3</v>
+        <v>433.2</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>420.25</v>
+        <v>425.7</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1564.35</v>
+        <v>1604.5</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1540</v>
+        <v>1582.4</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1555.05</v>
+        <v>1589.95</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1560.85</v>
+        <v>1591.95</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1549.25</v>
+        <v>1599.05</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>295.35</v>
+        <v>300.2</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>291.4</v>
+        <v>293.85</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>293.25</v>
+        <v>298.6</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>293.15</v>
+        <v>299.15</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>294.7</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>2437.6</v>
+        <v>2425.65</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>2408.15</v>
+        <v>2402.1</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>2422</v>
+        <v>2411.4</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2420.35</v>
+        <v>2412.65</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2428</v>
+        <v>2411.85</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>576.3</v>
+        <v>571.2</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>571.85</v>
+        <v>562.3</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>575.25</v>
+        <v>569.5</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>574.85</v>
+        <v>569.55</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>572.8</v>
+        <v>564.5</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>605</v>
+        <v>623.75</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>595.3</v>
+        <v>615.35</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>604.1</v>
+        <v>619.55</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>604.2</v>
+        <v>620.8</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>601.1</v>
+        <v>617.8</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>1061.45</v>
+        <v>1064</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>1069.65</v>
+        <v>1071</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1066.9</v>
+        <v>1071.15</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1063</v>
+        <v>1068.25</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>610.5</v>
+        <v>614.9</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>605.1</v>
+        <v>603.7</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>607.65</v>
+        <v>610.4</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>607.15</v>
+        <v>611.2</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>606.65</v>
+        <v>604.05</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>248.5</v>
+        <v>255.95</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>245.9</v>
+        <v>247.6</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>246.8</v>
+        <v>255.5</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>246.9</v>
+        <v>255.35</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>247.2</v>
+        <v>247.75</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>120.15</v>
+        <v>128.7</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>117.75</v>
+        <v>125.4</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>119.8</v>
+        <v>126.8</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>119.55</v>
+        <v>127.05</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>360</v>
+        <v>764</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>118.1</v>
+        <v>125.7</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>8218</v>
+        <v>8339.799999999999</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>8152.7</v>
+        <v>8249</v>
       </c>
       <c r="D29" s="16" t="n">
-        <v>8200</v>
+        <v>8269.9</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>8199.700000000001</v>
+        <v>8262.4</v>
       </c>
       <c r="F29" s="19" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>8163.65</v>
+        <v>8312.1</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2465.55</v>
+        <v>2504</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2395.6</v>
+        <v>2471</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2449.9</v>
+        <v>2489.45</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2450.05</v>
+        <v>2496.5</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2401.95</v>
+        <v>2478.55</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>390.55</v>
+        <v>384.85</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>383.8</v>
+        <v>376</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>385.15</v>
+        <v>382</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>384.75</v>
+        <v>382.25</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>387.95</v>
+        <v>376.45</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1518.7</v>
+        <v>1522.45</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1490.15</v>
+        <v>1504.2</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1514.5</v>
+        <v>1518.2</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1493.25</v>
+        <v>1510.45</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7329.4</v>
+        <v>7397</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7155</v>
+        <v>7296</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7300.1</v>
+        <v>7391</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7320.6</v>
+        <v>7387.8</v>
       </c>
       <c r="F5" s="18" t="n">
         <v>6</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7185</v>
+        <v>7303.7</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>236.25</v>
+        <v>236.15</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>231.6</v>
+        <v>232.3</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>235.15</v>
+        <v>233.9</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>235.1</v>
+        <v>234</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>232.4</v>
+        <v>235.05</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>191.8</v>
+        <v>197.55</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>186.3</v>
+        <v>194</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>190.75</v>
+        <v>194.55</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>190.6</v>
+        <v>195</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>187.6</v>
+        <v>195.55</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>237.25</v>
+        <v>257.8</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>232.1</v>
+        <v>252.55</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>236.9</v>
+        <v>255.25</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>236.9</v>
+        <v>255.8</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>232.4</v>
+        <v>257.25</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>509.5</v>
+        <v>522.5</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>500.3</v>
+        <v>513.8</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>503.9</v>
+        <v>519</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>503.25</v>
+        <v>519</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>504.15</v>
+        <v>519.65</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3406.45</v>
+        <v>3417.1</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3322.1</v>
+        <v>3375</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3402</v>
+        <v>3390</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3400.4</v>
+        <v>3391.3</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3330.05</v>
+        <v>3408.4</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>144.65</v>
+        <v>145.5</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>141.3</v>
+        <v>142.85</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>143.5</v>
+        <v>143.9</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>143.8</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>143.7</v>
+        <v>144.7</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1188</v>
+        <v>1241.55</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1171.1</v>
+        <v>1222.7</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1185.1</v>
+        <v>1236</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1185.8</v>
+        <v>1235.85</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1172.1</v>
+        <v>1239.1</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1579</v>
+        <v>1600</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1559.35</v>
+        <v>1580.35</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1573.75</v>
+        <v>1599</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1574.7</v>
+        <v>1595.5</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1571.35</v>
+        <v>1582.25</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>478.5</v>
+        <v>480.55</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>468.75</v>
+        <v>474.25</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>472.7</v>
+        <v>478.1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>473.25</v>
+        <v>478.15</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>469.75</v>
+        <v>479.55</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>973.05</v>
+        <v>966.35</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>952.8</v>
+        <v>950.8</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>967.6</v>
+        <v>960.05</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>968.7</v>
+        <v>957.5</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>955.6</v>
+        <v>964.45</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1423.6</v>
+        <v>1416.9</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1376.3</v>
+        <v>1396.45</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1415</v>
+        <v>1405.25</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1416.55</v>
+        <v>1408.65</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1383.35</v>
+        <v>1409.9</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1446</v>
+        <v>1480.25</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1428.2</v>
+        <v>1463.3</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1442</v>
+        <v>1475.8</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1443.85</v>
+        <v>1477.45</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1429.55</v>
+        <v>1475.05</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>713.7</v>
+        <v>704.45</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>691.05</v>
+        <v>697</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>701</v>
+        <v>701.25</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>701.1</v>
+        <v>702.45</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>692.95</v>
+        <v>701.55</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>435.85</v>
+        <v>454</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>425.2</v>
+        <v>445</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>434.1</v>
+        <v>449.6</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>433.2</v>
+        <v>449.25</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>425.7</v>
+        <v>452.8</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1604.5</v>
+        <v>1580.9</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1582.4</v>
+        <v>1558.7</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1589.95</v>
+        <v>1572.2</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1591.95</v>
+        <v>1577</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1599.05</v>
+        <v>1567.9</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>300.2</v>
+        <v>294.8</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>293.85</v>
+        <v>289.05</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>298.6</v>
+        <v>294</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>299.15</v>
+        <v>294.35</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>296.6</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>2425.65</v>
+        <v>2436.15</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>2402.1</v>
+        <v>2417.25</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>2411.4</v>
+        <v>2426.35</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2412.65</v>
+        <v>2428.7</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2411.85</v>
+        <v>2428.45</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>571.2</v>
+        <v>573.85</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>562.3</v>
+        <v>568</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>569.5</v>
+        <v>570.95</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>569.55</v>
+        <v>570.5</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>564.5</v>
+        <v>572.3</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>623.75</v>
+        <v>619.55</v>
       </c>
       <c r="C24" s="12" t="n">
+        <v>607</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>614</v>
+      </c>
+      <c r="E24" s="6" t="n">
         <v>615.35</v>
-      </c>
-      <c r="D24" s="15" t="n">
-        <v>619.55</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>620.8</v>
       </c>
       <c r="F24" s="18" t="n">
         <v>9</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>617.8</v>
+        <v>614.15</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1076</v>
+        <v>1099.25</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>1064</v>
+        <v>1078.2</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1071.15</v>
+        <v>1090.1</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1068.25</v>
+        <v>1097.45</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>614.9</v>
+        <v>611.45</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>603.7</v>
+        <v>605.6</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>610.4</v>
+        <v>610.6</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>611.2</v>
+        <v>610.25</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>604.05</v>
+        <v>608.9</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>255.95</v>
+        <v>259.75</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>247.6</v>
+        <v>254.65</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>255.5</v>
+        <v>257.1</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>255.35</v>
+        <v>257.5</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>280</v>
+        <v>92</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>247.75</v>
+        <v>258.85</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>128.7</v>
+        <v>131.05</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>125.4</v>
+        <v>128.2</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>126.8</v>
+        <v>129.45</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>127.05</v>
+        <v>129.6</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>764</v>
+        <v>360</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>125.7</v>
+        <v>130.8</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>8339.799999999999</v>
+        <v>8556.799999999999</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>8249</v>
+        <v>8444.1</v>
       </c>
       <c r="D29" s="16" t="n">
-        <v>8269.9</v>
+        <v>8550</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>8262.4</v>
+        <v>8537.4</v>
       </c>
       <c r="F29" s="19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>8312.1</v>
+        <v>8508.85</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2504</v>
+        <v>2520</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2471</v>
+        <v>2485</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2489.45</v>
+        <v>2506</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2496.5</v>
+        <v>2509.5</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2478.55</v>
+        <v>2495.4</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>384.85</v>
+        <v>387.6</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>376</v>
+        <v>382.7</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>382</v>
+        <v>384.15</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>382.25</v>
+        <v>384.3</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>376.45</v>
+        <v>383.2</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1522.45</v>
+        <v>1522.95</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1504.2</v>
+        <v>1510.1</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>1519</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1518.2</v>
+        <v>1519.55</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1510.45</v>
+        <v>1515.45</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7397</v>
+        <v>7375</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7296</v>
+        <v>7303.7</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7391</v>
+        <v>7363</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7387.8</v>
+        <v>7363.2</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7303.7</v>
+        <v>7332.9</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>236.15</v>
+        <v>239.15</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>232.3</v>
+        <v>232.4</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>233.9</v>
+        <v>238.5</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>234</v>
+        <v>238.5</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>235.05</v>
+        <v>233.85</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>197.55</v>
+        <v>196.75</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>194</v>
+        <v>194.55</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>194.55</v>
+        <v>196.2</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>195</v>
+        <v>196.25</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>195.55</v>
+        <v>194.6</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>257.8</v>
+        <v>274.75</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>252.55</v>
+        <v>257.1</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>255.25</v>
+        <v>273.5</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>255.8</v>
+        <v>274</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>133</v>
+        <v>722</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>257.25</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>522.5</v>
+        <v>532.5</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>513.8</v>
+        <v>514.55</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>519</v>
+        <v>531.5</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>519</v>
+        <v>530.75</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>519.65</v>
+        <v>518.55</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3417.1</v>
+        <v>3411.95</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3375</v>
+        <v>3375.05</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3390</v>
+        <v>3397.4</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3391.3</v>
+        <v>3402.45</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3408.4</v>
+        <v>3382.4</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>145.5</v>
+        <v>147.15</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>142.85</v>
+        <v>144.15</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>143.9</v>
+        <v>145.25</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>143.8</v>
+        <v>145</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>144.7</v>
+        <v>144.15</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1241.55</v>
+        <v>1257</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1222.7</v>
+        <v>1230.45</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1236</v>
+        <v>1255</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1235.85</v>
+        <v>1254</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1239.1</v>
+        <v>1233.3</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1600</v>
+        <v>1614</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1580.35</v>
+        <v>1587.15</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1599</v>
+        <v>1611</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1595.5</v>
+        <v>1610.85</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1582.25</v>
+        <v>1588.5</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>480.55</v>
+        <v>479.5</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>474.25</v>
+        <v>473.55</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>478.1</v>
+        <v>475.1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>478.15</v>
+        <v>475.1</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>479.55</v>
+        <v>476.15</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>966.35</v>
+        <v>969.5</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>950.8</v>
+        <v>955.05</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>960.05</v>
+        <v>962.95</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>957.5</v>
+        <v>965.65</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>964.45</v>
+        <v>956.7</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1416.9</v>
+        <v>1443.2</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1396.45</v>
+        <v>1401.6</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1405.25</v>
+        <v>1438</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1408.65</v>
+        <v>1439.6</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1409.9</v>
+        <v>1403.25</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1480.25</v>
+        <v>1472</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1463.3</v>
+        <v>1462.05</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1475.8</v>
+        <v>1467.3</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1477.45</v>
+        <v>1466.2</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1475.05</v>
+        <v>1469.9</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>704.45</v>
+        <v>707.75</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>697</v>
+        <v>700.1</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>701.25</v>
+        <v>701.8</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>702.45</v>
+        <v>703.5</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>701.55</v>
+        <v>701.05</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>454</v>
+        <v>454.95</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>445</v>
+        <v>444.95</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>449.6</v>
+        <v>451</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>449.25</v>
+        <v>451</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>452.8</v>
+        <v>449.85</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1580.9</v>
+        <v>1574.45</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1558.7</v>
+        <v>1560.25</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1572.2</v>
+        <v>1564.9</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1577</v>
+        <v>1565.75</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1567.9</v>
+        <v>1571.8</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>294.8</v>
+        <v>301</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>289.05</v>
+        <v>293.3</v>
       </c>
       <c r="D21" s="15" t="n">
+        <v>300.9</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6" t="n">
         <v>294</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>294.35</v>
-      </c>
-      <c r="F21" s="18" t="n">
-        <v>26</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>293.6</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>2436.15</v>
+        <v>2438.25</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>2417.25</v>
+        <v>2411</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>2426.35</v>
+        <v>2431</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2428.7</v>
+        <v>2432</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2428.45</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>573.85</v>
+        <v>581</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>568</v>
+        <v>571.9</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>570.95</v>
+        <v>580.6</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>570.5</v>
+        <v>579.05</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>572.3</v>
+        <v>572.15</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>619.55</v>
+        <v>623.85</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>607</v>
+        <v>612.6</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>615.35</v>
+        <v>617.35</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>614.15</v>
+        <v>620.65</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1099.25</v>
+        <v>1088.25</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>1078.2</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>1090</v>
+        <v>1085.15</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1090.1</v>
+        <v>1086.15</v>
       </c>
       <c r="F25" s="18" t="n">
         <v>6</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1097.45</v>
+        <v>1082.35</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>611.45</v>
+        <v>616.5</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>605.6</v>
+        <v>609.05</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>610.6</v>
+        <v>614.25</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>610.25</v>
+        <v>614.9</v>
       </c>
       <c r="F26" s="18" t="n">
         <v>65</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>608.9</v>
+        <v>609.2</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>259.75</v>
+        <v>266.35</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>254.65</v>
+        <v>256.3</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>257.1</v>
+        <v>263.65</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>257.5</v>
+        <v>263.7</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>258.85</v>
+        <v>257.2</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>131.05</v>
+        <v>130.8</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>128.2</v>
+        <v>128.75</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>129.45</v>
+        <v>130.1</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>129.6</v>
+        <v>130.15</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>130.8</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>8556.799999999999</v>
+        <v>8515.75</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>8444.1</v>
+        <v>8430</v>
       </c>
       <c r="D29" s="16" t="n">
-        <v>8550</v>
+        <v>8482.5</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>8537.4</v>
+        <v>8495.15</v>
       </c>
       <c r="F29" s="19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>8508.85</v>
+        <v>8475.4</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2520</v>
+        <v>2538.6</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2485</v>
+        <v>2506.1</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2506</v>
+        <v>2519</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2509.5</v>
+        <v>2519.3</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2495.4</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>387.6</v>
+        <v>385</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>382.7</v>
+        <v>381.05</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>384.15</v>
+        <v>381.75</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>384.3</v>
+        <v>381.65</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>383.2</v>
+        <v>384.2</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1522.95</v>
+        <v>1558.8</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1510.1</v>
+        <v>1536.8</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1519</v>
+        <v>1540.6</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1519.55</v>
+        <v>1541</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1515.45</v>
+        <v>1540.55</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7375</v>
+        <v>7449.95</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7303.7</v>
+        <v>7370</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7363</v>
+        <v>7395</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7363.2</v>
+        <v>7410.65</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7332.9</v>
+        <v>7419.45</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>239.15</v>
+        <v>245.75</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>232.4</v>
+        <v>238.8</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>238.5</v>
+        <v>243.5</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>238.5</v>
+        <v>243.4</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>233.85</v>
+        <v>239.4</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>196.75</v>
+        <v>200</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>194.55</v>
+        <v>196.2</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>196.2</v>
+        <v>197.5</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>196.25</v>
+        <v>197.8</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>194.6</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>274.75</v>
+        <v>284.45</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>257.1</v>
+        <v>270.9</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>273.5</v>
+        <v>281.25</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>274</v>
+        <v>282.1</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>722</v>
+        <v>418</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>258</v>
+        <v>272.25</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>532.5</v>
+        <v>544.45</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>514.55</v>
+        <v>531.75</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>531.5</v>
+        <v>540.15</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>530.75</v>
+        <v>540</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>518.55</v>
+        <v>533.25</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3411.95</v>
+        <v>3399.05</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3375.05</v>
+        <v>3366.1</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3397.4</v>
+        <v>3371.7</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3402.45</v>
+        <v>3370.9</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3382.4</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>147.15</v>
+        <v>148.3</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>144.15</v>
+        <v>145.05</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>145.25</v>
+        <v>147.4</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>145</v>
+        <v>147.5</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>144.15</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1257</v>
+        <v>1269.55</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1230.45</v>
+        <v>1255.05</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1254</v>
+        <v>1262.05</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1233.3</v>
+        <v>1257.65</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1614</v>
+        <v>1632.9</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1587.15</v>
+        <v>1608</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1611</v>
+        <v>1623.2</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1610.85</v>
+        <v>1623.4</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1588.5</v>
+        <v>1611.8</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>479.5</v>
+        <v>478.8</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>473.55</v>
+        <v>467.7</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>475.1</v>
+        <v>476.5</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>475.1</v>
+        <v>476.15</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>476.15</v>
+        <v>471.55</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>969.5</v>
+        <v>975</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>955.05</v>
+        <v>961.25</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>962.95</v>
+        <v>971.8</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>965.65</v>
+        <v>970.55</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>956.7</v>
+        <v>963.7</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1443.2</v>
+        <v>1459.95</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1401.6</v>
+        <v>1434.6</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1438</v>
+        <v>1447.55</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1439.6</v>
+        <v>1448.85</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1403.25</v>
+        <v>1437.05</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1472</v>
+        <v>1474.75</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1462.05</v>
+        <v>1464.7</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1467.3</v>
+        <v>1468.45</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1466.2</v>
+        <v>1469.6</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1469.9</v>
+        <v>1465.95</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>707.75</v>
+        <v>704.2</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>700.1</v>
+        <v>695.5</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>701.8</v>
+        <v>696.55</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>703.5</v>
+        <v>698.3</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>701.05</v>
+        <v>703.65</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>454.95</v>
+        <v>457</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>444.95</v>
+        <v>450.2</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>451</v>
+        <v>453.4</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>451</v>
+        <v>452.95</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>449.85</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1574.45</v>
+        <v>1578</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1560.25</v>
+        <v>1565.05</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1564.9</v>
+        <v>1567.3</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1565.75</v>
+        <v>1567.55</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1571.8</v>
+        <v>1573.25</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>301</v>
+        <v>307.45</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>293.3</v>
+        <v>300.8</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>300.9</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>299.9</v>
+        <v>301.65</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>294</v>
+        <v>302.7</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>2438.25</v>
+        <v>2456</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>2411</v>
+        <v>2422.95</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>2431</v>
+        <v>2451</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2432</v>
+        <v>2448.2</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2419</v>
+        <v>2433.5</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>581</v>
+        <v>588.5</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>571.9</v>
+        <v>579.7</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>580.6</v>
+        <v>583.4</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>579.05</v>
+        <v>583.45</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>572.15</v>
+        <v>580.9</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>623.85</v>
+        <v>626.8</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>612.6</v>
+        <v>618.75</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>618</v>
+        <v>620.1</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>617.35</v>
+        <v>619.95</v>
       </c>
       <c r="F24" s="18" t="n">
         <v>8</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>620.65</v>
+        <v>622.1</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1088.25</v>
+        <v>1093.7</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>1078.2</v>
+        <v>1081.6</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>1085.15</v>
+        <v>1085</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1086.15</v>
+        <v>1085.3</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1082.35</v>
+        <v>1091.4</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>616.5</v>
+        <v>628.9</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>609.05</v>
+        <v>614.85</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>614.25</v>
+        <v>626.95</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>614.9</v>
+        <v>627.25</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>609.2</v>
+        <v>615.4</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>266.35</v>
+        <v>276.5</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>256.3</v>
+        <v>265.45</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>263.65</v>
+        <v>269.4</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>263.7</v>
+        <v>268.85</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>177</v>
+        <v>530</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>257.2</v>
+        <v>266.3</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>130.8</v>
+        <v>131.1</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>128.75</v>
+        <v>129.2</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>130.1</v>
+        <v>129.6</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>130.15</v>
+        <v>129.5</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>128.8</v>
+        <v>130.75</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>8515.75</v>
+        <v>8533.5</v>
       </c>
       <c r="C29" s="13" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D29" s="16" t="n">
         <v>8430</v>
       </c>
-      <c r="D29" s="16" t="n">
-        <v>8482.5</v>
-      </c>
       <c r="E29" s="7" t="n">
-        <v>8495.15</v>
+        <v>8430.549999999999</v>
       </c>
       <c r="F29" s="19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>8475.4</v>
+        <v>8532.950000000001</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2538.6</v>
+        <v>2558</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2506.1</v>
+        <v>2514.2</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2519</v>
+        <v>2537.9</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2519.3</v>
+        <v>2540.05</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2516</v>
+        <v>2521.6</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>385</v>
+        <v>391.1</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>381.05</v>
+        <v>375.3</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>381.75</v>
+        <v>376.5</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>381.65</v>
+        <v>376.4</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>384.2</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1558.8</v>
+        <v>1567.6</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1536.8</v>
+        <v>1531.3</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1540.6</v>
+        <v>1538.45</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1541</v>
+        <v>1538.1</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1540.55</v>
+        <v>1549.75</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7449.95</v>
+        <v>7565.15</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7370</v>
+        <v>7455.55</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7395</v>
+        <v>7491.5</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7410.65</v>
+        <v>7492.2</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7419.45</v>
+        <v>7483.45</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>245.75</v>
+        <v>250.2</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>238.8</v>
+        <v>240.5</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>243.5</v>
+        <v>249.25</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>243.4</v>
+        <v>249.35</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>239.4</v>
+        <v>241.25</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>200</v>
+        <v>212.65</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>196.2</v>
+        <v>209.25</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>197.5</v>
+        <v>210.5</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>197.8</v>
+        <v>210.8</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>197</v>
+        <v>210.95</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>284.45</v>
+        <v>284.15</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>270.9</v>
+        <v>277.55</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>281.25</v>
+        <v>278.7</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>282.1</v>
+        <v>279.3</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>418</v>
+        <v>132</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>272.25</v>
+        <v>282.75</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>544.45</v>
+        <v>536.55</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>531.75</v>
+        <v>528.05</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>540.15</v>
+        <v>530.25</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>540</v>
+        <v>532.4</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>533.25</v>
+        <v>533.9</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3399.05</v>
+        <v>3447.9</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3366.1</v>
+        <v>3390.9</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3371.7</v>
+        <v>3422</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3370.9</v>
+        <v>3427.2</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3395</v>
+        <v>3399.1</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>148.3</v>
+        <v>148.8</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>145.05</v>
+        <v>146.65</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>147.4</v>
+        <v>148.2</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>147.5</v>
+        <v>148.25</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>145.9</v>
+        <v>147.55</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1269.55</v>
+        <v>1310</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1255.05</v>
+        <v>1296.2</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1262</v>
+        <v>1304.15</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1262.05</v>
+        <v>1304.6</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1257.65</v>
+        <v>1301.8</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1632.9</v>
+        <v>1670</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1608</v>
+        <v>1652.6</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1623.2</v>
+        <v>1658.9</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1623.4</v>
+        <v>1661.75</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>172</v>
+        <v>867</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1611.8</v>
+        <v>1657.5</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>478.8</v>
+        <v>502.85</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>467.7</v>
+        <v>494.95</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>476.5</v>
+        <v>496.25</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>476.15</v>
+        <v>496.55</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>471.55</v>
+        <v>502.2</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>975</v>
+        <v>997.5</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>961.25</v>
+        <v>988.6</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>971.8</v>
+        <v>991.6</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>970.55</v>
+        <v>992.45</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>963.7</v>
+        <v>991.85</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1459.95</v>
+        <v>1456</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1434.6</v>
+        <v>1446.45</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1447.55</v>
+        <v>1451.95</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1448.85</v>
+        <v>1450</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1437.05</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1474.75</v>
+        <v>1517.9</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1464.7</v>
+        <v>1509</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1468.45</v>
+        <v>1512</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1469.6</v>
+        <v>1511.6</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1465.95</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>704.2</v>
+        <v>718.2</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>695.5</v>
+        <v>708.75</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>696.55</v>
+        <v>710.35</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>698.3</v>
+        <v>711.45</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>703.65</v>
+        <v>715.55</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>457</v>
+        <v>465.9</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>450.2</v>
+        <v>457.45</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>453.4</v>
+        <v>459</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>452.95</v>
+        <v>458.75</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>453</v>
+        <v>461.75</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1578</v>
+        <v>1610.7</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1565.05</v>
+        <v>1571.85</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1567.3</v>
+        <v>1600.05</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1567.55</v>
+        <v>1601.1</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1573.25</v>
+        <v>1586.4</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>307.45</v>
+        <v>305.45</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>300.8</v>
+        <v>299.95</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>300.9</v>
+        <v>301.05</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>301.65</v>
+        <v>300.95</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>302.7</v>
+        <v>302.6</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>2456</v>
+        <v>2467</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>2422.95</v>
+        <v>2449.5</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>2451</v>
+        <v>2452.5</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2448.2</v>
+        <v>2457.85</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2433.5</v>
+        <v>2462.5</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>588.5</v>
+        <v>600.7</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>579.7</v>
+        <v>595.2</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>583.4</v>
+        <v>598.05</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>583.45</v>
+        <v>598.8</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>580.9</v>
+        <v>597.6</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>626.8</v>
+        <v>601.8</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>618.75</v>
+        <v>589.55</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>620.1</v>
+        <v>597</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>619.95</v>
+        <v>596.2</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>622.1</v>
+        <v>598.35</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1093.7</v>
+        <v>1074.1</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>1081.6</v>
+        <v>1063.35</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>1085</v>
+        <v>1068.7</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1085.3</v>
+        <v>1070.45</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1091.4</v>
+        <v>1071.1</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>628.9</v>
+        <v>636.5</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>614.85</v>
+        <v>627.15</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>626.95</v>
+        <v>634.2</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>627.25</v>
+        <v>634.25</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>615.4</v>
+        <v>631.75</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>276.5</v>
+        <v>267.4</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>265.45</v>
+        <v>263.1</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>269.4</v>
+        <v>264.25</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>268.85</v>
+        <v>263.95</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>530</v>
+        <v>76</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>266.3</v>
+        <v>266.85</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>131.1</v>
+        <v>132.5</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>129.2</v>
+        <v>129.85</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>129.6</v>
+        <v>132.2</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>129.5</v>
+        <v>131.95</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>343</v>
+        <v>850</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>130.75</v>
+        <v>132.3</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>8533.5</v>
+        <v>8750.950000000001</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>8400</v>
+        <v>8661.75</v>
       </c>
       <c r="D29" s="16" t="n">
-        <v>8430</v>
+        <v>8731.049999999999</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>8430.549999999999</v>
+        <v>8728.35</v>
       </c>
       <c r="F29" s="19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>8532.950000000001</v>
+        <v>8682.75</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -598,7 +598,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2558</v>
+        <v>2443.95</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2514.2</v>
+        <v>2383</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2537.9</v>
+        <v>2395</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2540.05</v>
+        <v>2393.75</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2521.6</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>391.1</v>
+        <v>386.4</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>375.3</v>
+        <v>379.2</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>376.5</v>
+        <v>385.5</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>376.4</v>
+        <v>383.95</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>386.6</v>
+        <v>383.85</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1567.6</v>
+        <v>1639.75</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1531.3</v>
+        <v>1619.55</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1538.45</v>
+        <v>1636</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1538.1</v>
+        <v>1635.05</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1549.75</v>
+        <v>1624.8</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7565.15</v>
+        <v>7832.35</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7455.55</v>
+        <v>7722.5</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7491.5</v>
+        <v>7770</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7492.2</v>
+        <v>7769.2</v>
       </c>
       <c r="F5" s="18" t="n">
         <v>7</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7483.45</v>
+        <v>7784.15</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>250.2</v>
+        <v>231.5</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>240.5</v>
+        <v>225</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>249.25</v>
+        <v>225.5</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>249.35</v>
+        <v>225.5</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>241.25</v>
+        <v>231.05</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>212.65</v>
+        <v>205.05</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>209.25</v>
+        <v>201.2</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>210.5</v>
+        <v>202.7</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>210.8</v>
+        <v>202.3</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>210.95</v>
+        <v>204.85</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>284.15</v>
+        <v>315.75</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>277.55</v>
+        <v>309.6</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>278.7</v>
+        <v>311.95</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>279.3</v>
+        <v>312.4</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>282.75</v>
+        <v>315.55</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>536.55</v>
+        <v>565</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>528.05</v>
+        <v>548.1</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>530.25</v>
+        <v>552</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>532.4</v>
+        <v>552.2</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>533.9</v>
+        <v>562.9</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3447.9</v>
+        <v>3500.15</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3390.9</v>
+        <v>3465.6</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3422</v>
+        <v>3470.5</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3427.2</v>
+        <v>3480.9</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3399.1</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>148.8</v>
+        <v>147.9</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>146.65</v>
+        <v>145.25</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>148.2</v>
+        <v>145.65</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>148.25</v>
+        <v>145.85</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>147.55</v>
+        <v>147.8</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1310</v>
+        <v>1261.35</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1296.2</v>
+        <v>1249</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1304.15</v>
+        <v>1257</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1304.6</v>
+        <v>1258.6</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1301.8</v>
+        <v>1258.7</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1670</v>
+        <v>1527</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1652.6</v>
+        <v>1511.2</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1658.9</v>
+        <v>1523.4</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1661.75</v>
+        <v>1522.8</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>867</v>
+        <v>105</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1657.5</v>
+        <v>1511.55</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>502.85</v>
+        <v>479.2</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>494.95</v>
+        <v>470</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>496.25</v>
+        <v>472.7</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>496.55</v>
+        <v>471.75</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>502.2</v>
+        <v>478.05</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>997.5</v>
+        <v>940</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>988.6</v>
+        <v>931.15</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>991.6</v>
+        <v>934</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>992.45</v>
+        <v>932.75</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>991.85</v>
+        <v>933.2</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1456</v>
+        <v>1471.8</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1446.45</v>
+        <v>1453.4</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1451.95</v>
+        <v>1469</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1450</v>
+        <v>1469.1</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1453</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1517.9</v>
+        <v>1438.5</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1509</v>
+        <v>1425.25</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1512</v>
+        <v>1428</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1511.6</v>
+        <v>1427.25</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1515</v>
+        <v>1432.8</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>718.2</v>
+        <v>674.85</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>708.75</v>
+        <v>660.6</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>710.35</v>
+        <v>662.8</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>711.45</v>
+        <v>662.4</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>715.55</v>
+        <v>674.35</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>465.9</v>
+        <v>467.25</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>457.45</v>
+        <v>457.35</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>459</v>
+        <v>459.55</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>458.75</v>
+        <v>459.6</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>461.75</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1610.7</v>
+        <v>1575</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1571.85</v>
+        <v>1545.1</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1600.05</v>
+        <v>1553.75</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1601.1</v>
+        <v>1558.25</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1586.4</v>
+        <v>1573.1</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>305.45</v>
+        <v>282.2</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>299.95</v>
+        <v>274.55</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>301.05</v>
+        <v>277.85</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>300.95</v>
+        <v>277.85</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>302.6</v>
+        <v>281.35</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>2467</v>
+        <v>2314.7</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>2449.5</v>
+        <v>2296.3</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>2452.5</v>
+        <v>2296.6</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2457.85</v>
+        <v>2299.1</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2462.5</v>
+        <v>2309.65</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>600.7</v>
+        <v>570</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>595.2</v>
+        <v>562.1</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>598.05</v>
+        <v>562.8</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>598.8</v>
+        <v>563.1</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>597.6</v>
+        <v>569.65</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>601.8</v>
+        <v>659.95</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>589.55</v>
+        <v>647.05</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>597</v>
+        <v>649</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>596.2</v>
+        <v>650.15</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>598.35</v>
+        <v>654.25</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1074.1</v>
+        <v>1034.15</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>1063.35</v>
+        <v>1010</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>1068.7</v>
+        <v>1011.9</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1070.45</v>
+        <v>1011.7</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1071.1</v>
+        <v>1032.9</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>636.5</v>
+        <v>676.4</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>627.15</v>
+        <v>660.5</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>634.2</v>
+        <v>662.4</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>634.25</v>
+        <v>663.2</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>631.75</v>
+        <v>675.55</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>267.4</v>
+        <v>252</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>263.1</v>
+        <v>246.6</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>264.25</v>
+        <v>247.5</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>263.95</v>
+        <v>247.4</v>
       </c>
       <c r="F27" s="18" t="n">
         <v>76</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>266.85</v>
+        <v>251.95</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>132.5</v>
+        <v>125.7</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>129.85</v>
+        <v>122.7</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>132.2</v>
+        <v>123.1</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>131.95</v>
+        <v>123.1</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>850</v>
+        <v>307</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>132.3</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>8750.950000000001</v>
+        <v>8566.049999999999</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>8661.75</v>
+        <v>8410.9</v>
       </c>
       <c r="D29" s="16" t="n">
-        <v>8731.049999999999</v>
+        <v>8455</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>8728.35</v>
+        <v>8461.049999999999</v>
       </c>
       <c r="F29" s="19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>8682.75</v>
+        <v>8550.450000000001</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2443.95</v>
+        <v>2404.65</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2383</v>
+        <v>2301.8</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2395</v>
+        <v>2304.95</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2393.75</v>
+        <v>2308.65</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2437</v>
+        <v>2397.1</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>386.4</v>
+        <v>385.4</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>379.2</v>
+        <v>371.7</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>385.5</v>
+        <v>375</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>383.95</v>
+        <v>375</v>
       </c>
       <c r="F3" s="18" t="n">
         <v>13</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>383.85</v>
+        <v>384.45</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1639.75</v>
+        <v>1651.7</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1619.55</v>
+        <v>1605.5</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1636</v>
+        <v>1607</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1635.05</v>
+        <v>1613.15</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1624.8</v>
+        <v>1648.85</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7832.35</v>
+        <v>7884.9</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7722.5</v>
+        <v>7769.9</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7770</v>
+        <v>7775</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7769.2</v>
+        <v>7798.9</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7784.15</v>
+        <v>7860.05</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>231.5</v>
+        <v>228.45</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>225</v>
+        <v>220.4</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>225.5</v>
+        <v>221.5</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>225.5</v>
+        <v>221.3</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>231.05</v>
+        <v>227.65</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>205.05</v>
+        <v>202.9</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>201.2</v>
+        <v>194</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>202.7</v>
+        <v>194.75</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>202.3</v>
+        <v>195.2</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>204.85</v>
+        <v>202.8</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>315.75</v>
+        <v>312.45</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>309.6</v>
+        <v>305</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>311.95</v>
+        <v>305.5</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>312.4</v>
+        <v>306.1</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>315.55</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>565</v>
+        <v>555.65</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>548.1</v>
+        <v>531.25</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>552.2</v>
+        <v>532.95</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>562.9</v>
+        <v>552.65</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3500.15</v>
+        <v>3492.9</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3465.6</v>
+        <v>3425.85</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3470.5</v>
+        <v>3438.9</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3480.9</v>
+        <v>3446.35</v>
       </c>
       <c r="F10" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3485</v>
+        <v>3490.2</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>147.9</v>
+        <v>146.1</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>145.25</v>
+        <v>142.5</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>145.65</v>
+        <v>142.85</v>
       </c>
       <c r="E11" s="6" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>169</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>145.85</v>
-      </c>
-      <c r="F11" s="18" t="n">
-        <v>107</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>147.8</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1261.35</v>
+        <v>1260.5</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1249</v>
+        <v>1232.3</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1257</v>
+        <v>1234.95</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1258.6</v>
+        <v>1236.65</v>
       </c>
       <c r="F12" s="18" t="n">
         <v>16</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1258.7</v>
+        <v>1257.5</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1527</v>
+        <v>1527.75</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1511.2</v>
+        <v>1500.1</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1523.4</v>
+        <v>1507</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1522.8</v>
+        <v>1506.05</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1511.55</v>
+        <v>1526.85</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>479.2</v>
+        <v>473.95</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>472.7</v>
+        <v>457.25</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>471.75</v>
+        <v>456.7</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>478.05</v>
+        <v>472.5</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>940</v>
+        <v>943.7</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>931.15</v>
+        <v>925.4</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>934</v>
+        <v>931.1</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>932.75</v>
+        <v>929.95</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>933.2</v>
+        <v>940.5</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1471.8</v>
+        <v>1468.95</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1453.4</v>
+        <v>1430.05</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1469</v>
+        <v>1445</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1469.1</v>
+        <v>1435</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1457</v>
+        <v>1467.35</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1438.5</v>
+        <v>1429.95</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1425.25</v>
+        <v>1405.25</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1428</v>
+        <v>1409</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1427.25</v>
+        <v>1408.65</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1432.8</v>
+        <v>1428.05</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>674.85</v>
+        <v>664</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>660.6</v>
+        <v>637.05</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>662.8</v>
+        <v>638.55</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>662.4</v>
+        <v>640.15</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>674.35</v>
+        <v>662.7</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>467.25</v>
+        <v>460</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>457.35</v>
+        <v>448.75</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>459.55</v>
+        <v>450</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>459.6</v>
+        <v>451.85</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>467</v>
+        <v>459.7</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1575</v>
+        <v>1574.9</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1545.1</v>
+        <v>1558.45</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1553.75</v>
+        <v>1561</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1558.25</v>
+        <v>1565.15</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1573.1</v>
+        <v>1569.6</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>282.2</v>
+        <v>279.7</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>274.55</v>
+        <v>271.3</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>277.85</v>
+        <v>272.05</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>277.85</v>
+        <v>272.8</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>281.35</v>
+        <v>277.55</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>2314.7</v>
+        <v>2306.25</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>2296.3</v>
+        <v>2255.25</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>2296.6</v>
+        <v>2262.9</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2299.1</v>
+        <v>2263.2</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2309.65</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>570</v>
+        <v>564.2</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>562.1</v>
+        <v>551</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>562.8</v>
+        <v>552.4</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>563.1</v>
+        <v>552.95</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>569.65</v>
+        <v>563.45</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>659.95</v>
+        <v>648</v>
       </c>
       <c r="C24" s="12" t="n">
+        <v>625</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>627.3</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="n">
         <v>647.05</v>
-      </c>
-      <c r="D24" s="15" t="n">
-        <v>649</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>650.15</v>
-      </c>
-      <c r="F24" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>654.25</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1034.15</v>
+        <v>1013.1</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>1010</v>
+        <v>975.05</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>1011.9</v>
+        <v>980</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1011.7</v>
+        <v>978.5</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1032.9</v>
+        <v>1011.45</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>676.4</v>
+        <v>665.95</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>660.5</v>
+        <v>645</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>662.4</v>
+        <v>646.45</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>663.2</v>
+        <v>647.35</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>675.55</v>
+        <v>665.15</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>252</v>
+        <v>248.4</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>246.6</v>
+        <v>236.3</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>247.5</v>
+        <v>237.5</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>247.4</v>
+        <v>238.25</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>251.95</v>
+        <v>247.35</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>125.7</v>
+        <v>122.75</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>122.7</v>
+        <v>119.7</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>123.1</v>
+        <v>120.05</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>123.1</v>
+        <v>120</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>125.5</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>8566.049999999999</v>
+        <v>8523.6</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>8410.9</v>
+        <v>8302.549999999999</v>
       </c>
       <c r="D29" s="16" t="n">
-        <v>8455</v>
+        <v>8322.549999999999</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>8461.049999999999</v>
+        <v>8325.25</v>
       </c>
       <c r="F29" s="19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>8550.450000000001</v>
+        <v>8459</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -598,7 +598,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2404.65</v>
+        <v>2260</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2301.8</v>
+        <v>2226.65</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2304.95</v>
+        <v>2235.45</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2308.65</v>
+        <v>2233.35</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2397.1</v>
+        <v>2252.8</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>385.4</v>
+        <v>389.55</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>371.7</v>
+        <v>382</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>375</v>
+        <v>384.95</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>375</v>
+        <v>384.1</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>384.45</v>
+        <v>389.2</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1651.7</v>
+        <v>1595</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1605.5</v>
+        <v>1550</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1607</v>
+        <v>1569.9</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1613.15</v>
+        <v>1569.8</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1648.85</v>
+        <v>1588.5</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7884.9</v>
+        <v>7634.5</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7769.9</v>
+        <v>7446</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7775</v>
+        <v>7499</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7798.9</v>
+        <v>7495.6</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7860.05</v>
+        <v>7611.75</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>228.45</v>
+        <v>218.95</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>220.4</v>
+        <v>215.65</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>221.5</v>
+        <v>216.4</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>221.3</v>
+        <v>216.1</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>227.65</v>
+        <v>217.9</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>202.9</v>
+        <v>194.6</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>194</v>
+        <v>190.65</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>194.75</v>
+        <v>191.8</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>195.2</v>
+        <v>191.25</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>157</v>
+        <v>513</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>202.8</v>
+        <v>194.1</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>312.45</v>
+        <v>318.8</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>305</v>
+        <v>313.65</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>305.5</v>
+        <v>314.75</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>306.1</v>
+        <v>314.25</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>311</v>
+        <v>315.7</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>555.65</v>
+        <v>594.5</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>531.25</v>
+        <v>586.5</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>532</v>
+        <v>591.8</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>532.95</v>
+        <v>592.45</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>552.65</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3492.9</v>
+        <v>3538.95</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3425.85</v>
+        <v>3485</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3438.9</v>
+        <v>3515</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3446.35</v>
+        <v>3509.05</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3490.2</v>
+        <v>3505.8</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>146.1</v>
+        <v>148.2</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>142.5</v>
+        <v>143.85</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>142.85</v>
+        <v>147.8</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>143.4</v>
+        <v>147.3</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>145.85</v>
+        <v>144.1</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1260.5</v>
+        <v>1277.7</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1232.3</v>
+        <v>1267.1</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1234.95</v>
+        <v>1275</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1236.65</v>
+        <v>1273.95</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1257.5</v>
+        <v>1274.9</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1527.75</v>
+        <v>1490.4</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1500.1</v>
+        <v>1477.2</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1507</v>
+        <v>1490</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1506.05</v>
+        <v>1487.25</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1526.85</v>
+        <v>1485.4</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>473.95</v>
+        <v>491.5</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>455</v>
+        <v>482.35</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>457.25</v>
+        <v>483.95</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>456.7</v>
+        <v>484.55</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>472.5</v>
+        <v>483.4</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>943.7</v>
+        <v>950.45</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>925.4</v>
+        <v>930.45</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>931.1</v>
+        <v>948.35</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>929.95</v>
+        <v>948.1</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>940.5</v>
+        <v>939.75</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1468.95</v>
+        <v>1490.45</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1430.05</v>
+        <v>1466</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1445</v>
+        <v>1486.45</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1435</v>
+        <v>1486.4</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1467.35</v>
+        <v>1474.45</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1429.95</v>
+        <v>1405.9</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1405.25</v>
+        <v>1395.9</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1409</v>
+        <v>1404.5</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1408.65</v>
+        <v>1404.3</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1428.05</v>
+        <v>1397.45</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>664</v>
+        <v>633.5</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>637.05</v>
+        <v>620.55</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>638.55</v>
+        <v>630.15</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>640.15</v>
+        <v>630.35</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>662.7</v>
+        <v>621.55</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>460</v>
+        <v>465.15</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>448.75</v>
+        <v>457.35</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>450</v>
+        <v>460.7</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>451.85</v>
+        <v>461</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>459.7</v>
+        <v>464.6</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1574.9</v>
+        <v>1497</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1558.45</v>
+        <v>1475</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1561</v>
+        <v>1479.6</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1565.15</v>
+        <v>1479.75</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1569.6</v>
+        <v>1486.8</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>279.7</v>
+        <v>264.9</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>271.3</v>
+        <v>258.9</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>272.05</v>
+        <v>264</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>272.8</v>
+        <v>263.95</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>277.55</v>
+        <v>261.65</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>2306.25</v>
+        <v>2339.1</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>2255.25</v>
+        <v>2319.55</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>2262.9</v>
+        <v>2323.1</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2263.2</v>
+        <v>2323.8</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2295</v>
+        <v>2338.7</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>564.2</v>
+        <v>581.2</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>551</v>
+        <v>574.3</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>552.4</v>
+        <v>580.35</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>552.95</v>
+        <v>579.75</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>563.45</v>
+        <v>574.7</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>648</v>
+        <v>654.85</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>625</v>
+        <v>647.05</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>627.3</v>
+        <v>652.35</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>631.6</v>
+        <v>652.3</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>647.05</v>
+        <v>649.15</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1013.1</v>
+        <v>969.7</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>975.05</v>
+        <v>961</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>978.5</v>
+        <v>963.7</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>1011.45</v>
+        <v>967.55</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>665.95</v>
+        <v>649.9</v>
       </c>
       <c r="C26" s="12" t="n">
+        <v>643.3</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <v>644.8</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>645</v>
       </c>
-      <c r="D26" s="15" t="n">
-        <v>646.45</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>647.35</v>
-      </c>
       <c r="F26" s="18" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>665.15</v>
+        <v>645.85</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>248.4</v>
+        <v>252</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>236.3</v>
+        <v>249.05</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>237.5</v>
+        <v>250</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>238.25</v>
+        <v>249.8</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>247.35</v>
+        <v>251.15</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>122.75</v>
+        <v>120.2</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>119.7</v>
+        <v>118.6</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>120.05</v>
+        <v>119.75</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>120</v>
+        <v>119.65</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>122.5</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>8523.6</v>
+        <v>8695</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>8302.549999999999</v>
+        <v>8582.549999999999</v>
       </c>
       <c r="D29" s="16" t="n">
-        <v>8322.549999999999</v>
+        <v>8681</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>8325.25</v>
+        <v>8685.75</v>
       </c>
       <c r="F29" s="19" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>8459</v>
+        <v>8639.049999999999</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -641,7 +641,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
         <v>245.05</v>
       </c>
       <c r="D22" s="15">
-        <v>2315.1</v>
+        <v>245.7</v>
       </c>
       <c r="E22" s="6">
         <v>245.7</v>
@@ -1165,7 +1165,7 @@
         <v>2311.6999999999998</v>
       </c>
       <c r="D23" s="15">
-        <v>581.29999999999995</v>
+        <v>2315.1</v>
       </c>
       <c r="E23" s="6">
         <v>2314.6</v>
@@ -1188,7 +1188,7 @@
         <v>575.20000000000005</v>
       </c>
       <c r="D24" s="15">
-        <v>672.5</v>
+        <v>581.29999999999995</v>
       </c>
       <c r="E24" s="6">
         <v>581.35</v>
@@ -1211,7 +1211,7 @@
         <v>658.35</v>
       </c>
       <c r="D25" s="15">
-        <v>947.15</v>
+        <v>672.5</v>
       </c>
       <c r="E25" s="6">
         <v>672.25</v>
@@ -1234,7 +1234,7 @@
         <v>945.2</v>
       </c>
       <c r="D26" s="15">
-        <v>653.5</v>
+        <v>947.15</v>
       </c>
       <c r="E26" s="6">
         <v>946.65</v>
@@ -1257,7 +1257,7 @@
         <v>649.5</v>
       </c>
       <c r="D27" s="15">
-        <v>257.35000000000002</v>
+        <v>653.5</v>
       </c>
       <c r="E27" s="6">
         <v>653.25</v>
@@ -1280,7 +1280,7 @@
         <v>252.05</v>
       </c>
       <c r="D28" s="15">
-        <v>120.8</v>
+        <v>257.35000000000002</v>
       </c>
       <c r="E28" s="6">
         <v>257.05</v>
@@ -1303,7 +1303,7 @@
         <v>120.1</v>
       </c>
       <c r="D29" s="15">
-        <v>8678.9</v>
+        <v>120.8</v>
       </c>
       <c r="E29" s="6">
         <v>121</v>
@@ -1326,7 +1326,7 @@
         <v>8660</v>
       </c>
       <c r="D30" s="16">
-        <v>8720</v>
+        <v>8678.9</v>
       </c>
       <c r="E30" s="7">
         <v>8677.4</v>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -598,7 +598,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2242</v>
+        <v>2232.55</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2220.5</v>
+        <v>2185.05</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2223.95</v>
+        <v>2197.6</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2225.4</v>
+        <v>2196.65</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2234.7</v>
+        <v>2188.1</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>429.15</v>
+        <v>428.6</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>416</v>
+        <v>423.75</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>427.55</v>
+        <v>424</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>428.3</v>
+        <v>424.6</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>417.55</v>
+        <v>426.3</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1615</v>
+        <v>1616.45</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1579.95</v>
+        <v>1594.5</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1586.2</v>
+        <v>1607</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1587.05</v>
+        <v>1610.4</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1593.15</v>
+        <v>1604.25</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7450</v>
+        <v>7128.85</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7119.15</v>
+        <v>7049</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7216.95</v>
+        <v>7100</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7224.3</v>
+        <v>7103.15</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7432.65</v>
+        <v>7057.5</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>224.3</v>
+        <v>215.2</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>220.95</v>
+        <v>213.25</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>222.1</v>
+        <v>213.8</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>222.1</v>
+        <v>213.9</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>221.45</v>
+        <v>215.1</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>199.35</v>
+        <v>198.45</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>197.25</v>
+        <v>194.65</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>197.85</v>
+        <v>195.5</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>197.7</v>
+        <v>195.75</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>198.75</v>
+        <v>198.05</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>354.4</v>
+        <v>338.5</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>349.5</v>
+        <v>328.85</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>351.15</v>
+        <v>334.4</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>350.6</v>
+        <v>334.2</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>351.15</v>
+        <v>335.4</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>624.45</v>
+        <v>641.2</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>612.25</v>
+        <v>627.15</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>621.75</v>
+        <v>633.35</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>622.1</v>
+        <v>634.45</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>613</v>
+        <v>631.65</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3860</v>
+        <v>3863.8</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3681.45</v>
+        <v>3826.05</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3840</v>
+        <v>3835</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3848.3</v>
+        <v>3844.2</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3683.6</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>154.25</v>
+        <v>148.2</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>149.85</v>
+        <v>146.5</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>150.25</v>
+        <v>146.55</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>150.15</v>
+        <v>146.7</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>154.2</v>
+        <v>147.55</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1283</v>
+        <v>1334.4</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1270.8</v>
+        <v>1321.8</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1278.2</v>
+        <v>1326.05</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1276.65</v>
+        <v>1326.6</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1271.5</v>
+        <v>1331.5</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1510.95</v>
+        <v>1522</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1501.8</v>
+        <v>1513.4</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1504.8</v>
+        <v>1518.25</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1504.4</v>
+        <v>1517.95</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1510.05</v>
+        <v>1516.75</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>513.5</v>
+        <v>510.95</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>502.65</v>
+        <v>505.45</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>505.65</v>
+        <v>506.55</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>505.4</v>
+        <v>506.85</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>511.45</v>
+        <v>505.95</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>943.55</v>
+        <v>928.05</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>939.5</v>
+        <v>922</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>942</v>
+        <v>927.45</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>941.1</v>
+        <v>926.1</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>939.65</v>
+        <v>925.05</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1536</v>
+        <v>1507</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1490.25</v>
+        <v>1494.1</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1495</v>
+        <v>1502</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1493.95</v>
+        <v>1502.05</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1535.8</v>
+        <v>1506.15</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1414</v>
+        <v>1448.65</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1393.05</v>
+        <v>1436.75</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1412</v>
+        <v>1439.4</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1410.5</v>
+        <v>1439</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1394.5</v>
+        <v>1446.25</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>658.2</v>
+        <v>660.5</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>646.45</v>
+        <v>652.7</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>648</v>
+        <v>654.35</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>648.3</v>
+        <v>654.65</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>650.55</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>467.95</v>
+        <v>465.8</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>457.55</v>
+        <v>460.5</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>466.45</v>
+        <v>461.8</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>466.15</v>
+        <v>462.05</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>458.8</v>
+        <v>464.8</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1546.4</v>
+        <v>1571.4</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1533.55</v>
+        <v>1551.2</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1541.25</v>
+        <v>1561.25</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1544.15</v>
+        <v>1559.75</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1538.5</v>
+        <v>1556.4</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>279.6</v>
+        <v>276.5</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>274.65</v>
+        <v>272.4</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>277.25</v>
+        <v>275.15</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>276.4</v>
+        <v>275.15</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>276.35</v>
+        <v>275.4</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>248.7</v>
+        <v>251.65</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>246.1</v>
+        <v>247.3</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>247.2</v>
+        <v>249.75</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>247.3</v>
+        <v>250</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>246.95</v>
+        <v>250.55</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>2361.95</v>
+        <v>2388</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>2330.05</v>
+        <v>2364.1</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>2356.1</v>
+        <v>2377</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2356.45</v>
+        <v>2378.9</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2330.25</v>
+        <v>2365.55</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>586</v>
+        <v>566.2</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>582.6</v>
+        <v>561</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>584</v>
+        <v>561.4</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>584.7</v>
+        <v>561.5</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>585.05</v>
+        <v>565.75</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>670.7</v>
+        <v>676.7</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>664</v>
+        <v>660.5</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>667.1</v>
+        <v>663.1</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>665.95</v>
+        <v>662.55</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>670.65</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>955.55</v>
+        <v>971</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>948.1</v>
+        <v>960.15</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>949.5</v>
+        <v>963.3</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>949.55</v>
+        <v>961.3</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>951.6</v>
+        <v>962</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>673.5</v>
+        <v>683.3</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>656.55</v>
+        <v>675.25</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>671.5</v>
+        <v>681</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>671.55</v>
+        <v>681.7</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>657.55</v>
+        <v>677.4</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>262.25</v>
+        <v>263.85</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>258.35</v>
+        <v>260.75</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>259.1</v>
+        <v>262.6</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>259.2</v>
+        <v>262.65</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>259.05</v>
+        <v>263.55</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>124.4</v>
+        <v>126.4</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>122.4</v>
+        <v>125.55</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>124.1</v>
+        <v>126.2</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>124.05</v>
+        <v>126.25</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>383</v>
+        <v>296</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>123.25</v>
+        <v>125.75</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" thickBot="1">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>8815.75</v>
+        <v>8724.35</v>
       </c>
       <c r="C30" s="13" t="n">
-        <v>8721</v>
+        <v>8665</v>
       </c>
       <c r="D30" s="16" t="n">
-        <v>8747.6</v>
+        <v>8704</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>8766.9</v>
+        <v>8708.35</v>
       </c>
       <c r="F30" s="19" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>8730</v>
+        <v>8717.950000000001</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K11:K12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,22 +676,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="8">
-        <v>2251.9499999999998</v>
+        <v>2548.4</v>
       </c>
       <c r="C2" s="11">
-        <v>2160.9</v>
+        <v>2495</v>
       </c>
       <c r="D2" s="14">
-        <v>2250</v>
+        <v>2523</v>
       </c>
       <c r="E2" s="5">
-        <v>2225.4499999999998</v>
+        <v>2531.1999999999998</v>
       </c>
       <c r="F2" s="17">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5">
-        <v>2176.8000000000002</v>
+        <v>2514.0500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,22 +699,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>419.75</v>
+        <v>450.75</v>
       </c>
       <c r="C3" s="12">
-        <v>413.95</v>
+        <v>442.75</v>
       </c>
       <c r="D3" s="15">
-        <v>415.55</v>
+        <v>450</v>
       </c>
       <c r="E3" s="6">
-        <v>414.6</v>
+        <v>449.95</v>
       </c>
       <c r="F3" s="18">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6">
-        <v>418.95</v>
+        <v>444.85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,22 +722,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>1623.4</v>
+        <v>1711.7</v>
       </c>
       <c r="C4" s="12">
-        <v>1612</v>
+        <v>1685.9</v>
       </c>
       <c r="D4" s="15">
-        <v>1615</v>
+        <v>1694</v>
       </c>
       <c r="E4" s="6">
-        <v>1617.25</v>
+        <v>1696.25</v>
       </c>
       <c r="F4" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6">
-        <v>1621.45</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -745,22 +745,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>7089.95</v>
+        <v>7420</v>
       </c>
       <c r="C5" s="12">
-        <v>7011</v>
+        <v>7315.05</v>
       </c>
       <c r="D5" s="15">
-        <v>7035</v>
+        <v>7405</v>
       </c>
       <c r="E5" s="6">
-        <v>7020.8</v>
+        <v>7407.65</v>
       </c>
       <c r="F5" s="18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6">
-        <v>7076.55</v>
+        <v>7357.65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,22 +768,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>214.95</v>
+        <v>234.85</v>
       </c>
       <c r="C6" s="12">
-        <v>212</v>
+        <v>229.25</v>
       </c>
       <c r="D6" s="15">
-        <v>212.2</v>
+        <v>234.5</v>
       </c>
       <c r="E6" s="6">
-        <v>212.35</v>
+        <v>234.3</v>
       </c>
       <c r="F6" s="18">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G6" s="6">
-        <v>212.9</v>
+        <v>230.85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,22 +791,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>195.5</v>
+        <v>210</v>
       </c>
       <c r="C7" s="12">
-        <v>192.75</v>
+        <v>205.75</v>
       </c>
       <c r="D7" s="15">
-        <v>192.95</v>
+        <v>209</v>
       </c>
       <c r="E7" s="6">
-        <v>193.1</v>
+        <v>209.05</v>
       </c>
       <c r="F7" s="18">
-        <v>54</v>
+        <v>359</v>
       </c>
       <c r="G7" s="6">
-        <v>195.3</v>
+        <v>206.3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,22 +814,22 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>337.45</v>
+        <v>360</v>
       </c>
       <c r="C8" s="12">
-        <v>332.1</v>
+        <v>351.05</v>
       </c>
       <c r="D8" s="15">
-        <v>332.85</v>
+        <v>354.5</v>
       </c>
       <c r="E8" s="6">
-        <v>332.8</v>
+        <v>354.7</v>
       </c>
       <c r="F8" s="18">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="G8" s="6">
-        <v>335.35</v>
+        <v>352.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,22 +837,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <v>641.1</v>
+        <v>652</v>
       </c>
       <c r="C9" s="12">
-        <v>628.35</v>
+        <v>632.79999999999995</v>
       </c>
       <c r="D9" s="15">
-        <v>630.75</v>
+        <v>649.15</v>
       </c>
       <c r="E9" s="6">
-        <v>629.35</v>
+        <v>649.25</v>
       </c>
       <c r="F9" s="18">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6">
-        <v>636.95000000000005</v>
+        <v>636.45000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,22 +860,22 @@
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <v>3899</v>
+        <v>4200</v>
       </c>
       <c r="C10" s="12">
-        <v>3842.05</v>
+        <v>3931.3</v>
       </c>
       <c r="D10" s="15">
-        <v>3846</v>
+        <v>4181</v>
       </c>
       <c r="E10" s="6">
-        <v>3849.05</v>
+        <v>4180.3500000000004</v>
       </c>
       <c r="F10" s="18">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G10" s="6">
-        <v>3893.3</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,22 +883,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <v>148.05000000000001</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="C11" s="12">
-        <v>146.35</v>
+        <v>151.05000000000001</v>
       </c>
       <c r="D11" s="15">
-        <v>147.1</v>
+        <v>154.1</v>
       </c>
       <c r="E11" s="6">
-        <v>147.4</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="F11" s="18">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="G11" s="6">
-        <v>147.1</v>
+        <v>151.55000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -906,22 +906,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>1326.7</v>
+        <v>1344.35</v>
       </c>
       <c r="C12" s="12">
-        <v>1305.6500000000001</v>
+        <v>1331</v>
       </c>
       <c r="D12" s="15">
-        <v>1308.4000000000001</v>
+        <v>1335</v>
       </c>
       <c r="E12" s="6">
-        <v>1309.1500000000001</v>
+        <v>1337.95</v>
       </c>
       <c r="F12" s="18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="6">
-        <v>1325.1</v>
+        <v>1339.55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,22 +929,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>1533.15</v>
+        <v>1612</v>
       </c>
       <c r="C13" s="12">
-        <v>1523.1</v>
+        <v>1581.3</v>
       </c>
       <c r="D13" s="15">
-        <v>1531.4</v>
+        <v>1609.15</v>
       </c>
       <c r="E13" s="6">
-        <v>1532.1</v>
+        <v>1609.4</v>
       </c>
       <c r="F13" s="18">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="G13" s="6">
-        <v>1524.7</v>
+        <v>1581.85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,22 +952,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>512.75</v>
+        <v>526.65</v>
       </c>
       <c r="C14" s="12">
-        <v>503.15</v>
+        <v>516.54999999999995</v>
       </c>
       <c r="D14" s="15">
-        <v>509</v>
+        <v>519.25</v>
       </c>
       <c r="E14" s="6">
-        <v>507.8</v>
+        <v>519.25</v>
       </c>
       <c r="F14" s="18">
         <v>59</v>
       </c>
       <c r="G14" s="6">
-        <v>503.4</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,22 +975,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>930.4</v>
+        <v>994.85</v>
       </c>
       <c r="C15" s="12">
-        <v>920.2</v>
+        <v>966.85</v>
       </c>
       <c r="D15" s="15">
-        <v>929</v>
+        <v>991</v>
       </c>
       <c r="E15" s="6">
-        <v>929.4</v>
+        <v>991.2</v>
       </c>
       <c r="F15" s="18">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="G15" s="6">
-        <v>921.2</v>
+        <v>972.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,22 +998,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>1490.9</v>
+        <v>1517.55</v>
       </c>
       <c r="C16" s="12">
-        <v>1474</v>
+        <v>1479.65</v>
       </c>
       <c r="D16" s="15">
-        <v>1476</v>
+        <v>1515.55</v>
       </c>
       <c r="E16" s="6">
-        <v>1476.2</v>
+        <v>1514.65</v>
       </c>
       <c r="F16" s="18">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G16" s="6">
-        <v>1488.7</v>
+        <v>1483.15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,22 +1021,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <v>1452</v>
+        <v>1471.9</v>
       </c>
       <c r="C17" s="12">
-        <v>1433.85</v>
+        <v>1449.3</v>
       </c>
       <c r="D17" s="15">
-        <v>1437</v>
+        <v>1464.9</v>
       </c>
       <c r="E17" s="6">
-        <v>1437.4</v>
+        <v>1464.35</v>
       </c>
       <c r="F17" s="18">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G17" s="6">
-        <v>1450.15</v>
+        <v>1467.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,22 +1044,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <v>661.4</v>
+        <v>694.05</v>
       </c>
       <c r="C18" s="12">
-        <v>652.25</v>
+        <v>678.45</v>
       </c>
       <c r="D18" s="15">
-        <v>660</v>
+        <v>680.85</v>
       </c>
       <c r="E18" s="6">
-        <v>660.3</v>
+        <v>681.5</v>
       </c>
       <c r="F18" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G18" s="6">
-        <v>655.20000000000005</v>
+        <v>693.3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,22 +1067,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="9">
-        <v>460.9</v>
+        <v>510.6</v>
       </c>
       <c r="C19" s="12">
-        <v>453</v>
+        <v>497.1</v>
       </c>
       <c r="D19" s="15">
-        <v>454.5</v>
+        <v>504.95</v>
       </c>
       <c r="E19" s="6">
-        <v>454.65</v>
+        <v>507.55</v>
       </c>
       <c r="F19" s="18">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G19" s="6">
-        <v>457</v>
+        <v>498.95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,22 +1090,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="9">
-        <v>1559.5</v>
+        <v>1675</v>
       </c>
       <c r="C20" s="12">
-        <v>1547.5</v>
+        <v>1639.45</v>
       </c>
       <c r="D20" s="15">
-        <v>1551.95</v>
+        <v>1655</v>
       </c>
       <c r="E20" s="6">
-        <v>1553.2</v>
+        <v>1656.85</v>
       </c>
       <c r="F20" s="18">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G20" s="6">
-        <v>1551.95</v>
+        <v>1659.45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1113,22 +1113,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="9">
-        <v>273.8</v>
+        <v>281.35000000000002</v>
       </c>
       <c r="C21" s="12">
-        <v>263.5</v>
+        <v>276.10000000000002</v>
       </c>
       <c r="D21" s="15">
-        <v>263.89999999999998</v>
+        <v>278.05</v>
       </c>
       <c r="E21" s="6">
-        <v>263.89999999999998</v>
+        <v>277.7</v>
       </c>
       <c r="F21" s="18">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6">
-        <v>273.45</v>
+        <v>277.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,22 +1136,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="9">
-        <v>256.85000000000002</v>
+        <v>277.35000000000002</v>
       </c>
       <c r="C22" s="12">
-        <v>253.55</v>
+        <v>273.25</v>
       </c>
       <c r="D22" s="15">
-        <v>253.8</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="E22" s="6">
-        <v>253.9</v>
+        <v>274.8</v>
       </c>
       <c r="F22" s="18">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="G22" s="6">
-        <v>254.35</v>
+        <v>274.35000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,22 +1159,22 @@
         <v>27</v>
       </c>
       <c r="B23" s="9">
-        <v>2402.6</v>
+        <v>2426.1999999999998</v>
       </c>
       <c r="C23" s="12">
-        <v>2392.0500000000002</v>
+        <v>2398.6</v>
       </c>
       <c r="D23" s="15">
-        <v>2394.25</v>
+        <v>2421</v>
       </c>
       <c r="E23" s="6">
-        <v>2393.9</v>
+        <v>2420.1999999999998</v>
       </c>
       <c r="F23" s="18">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G23" s="6">
-        <v>2396.5500000000002</v>
+        <v>2418.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,22 +1182,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="9">
-        <v>562.45000000000005</v>
+        <v>596</v>
       </c>
       <c r="C24" s="12">
-        <v>559.25</v>
+        <v>584.54999999999995</v>
       </c>
       <c r="D24" s="15">
-        <v>560.70000000000005</v>
+        <v>595.9</v>
       </c>
       <c r="E24" s="6">
-        <v>560.35</v>
+        <v>594.70000000000005</v>
       </c>
       <c r="F24" s="18">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="G24" s="6">
-        <v>560.85</v>
+        <v>585.04999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,22 +1205,22 @@
         <v>29</v>
       </c>
       <c r="B25" s="9">
-        <v>678.65</v>
+        <v>680</v>
       </c>
       <c r="C25" s="12">
-        <v>668.2</v>
+        <v>673.8</v>
       </c>
       <c r="D25" s="15">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="E25" s="6">
-        <v>669.9</v>
+        <v>676.65</v>
       </c>
       <c r="F25" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="6">
-        <v>668.7</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1228,22 +1228,22 @@
         <v>30</v>
       </c>
       <c r="B26" s="9">
-        <v>968.9</v>
+        <v>978.8</v>
       </c>
       <c r="C26" s="12">
-        <v>958</v>
+        <v>971</v>
       </c>
       <c r="D26" s="15">
-        <v>958.05</v>
+        <v>971</v>
       </c>
       <c r="E26" s="6">
-        <v>960.6</v>
+        <v>973.05</v>
       </c>
       <c r="F26" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6">
-        <v>967.7</v>
+        <v>973.65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,22 +1251,22 @@
         <v>31</v>
       </c>
       <c r="B27" s="9">
-        <v>678.55</v>
+        <v>709.9</v>
       </c>
       <c r="C27" s="12">
-        <v>671.25</v>
+        <v>704.8</v>
       </c>
       <c r="D27" s="15">
-        <v>673.5</v>
+        <v>706.1</v>
       </c>
       <c r="E27" s="6">
-        <v>673.7</v>
+        <v>705.6</v>
       </c>
       <c r="F27" s="18">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G27" s="6">
-        <v>678</v>
+        <v>707.35</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,22 +1274,22 @@
         <v>32</v>
       </c>
       <c r="B28" s="9">
-        <v>260.7</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="C28" s="12">
-        <v>257.05</v>
+        <v>278.89999999999998</v>
       </c>
       <c r="D28" s="15">
-        <v>258.10000000000002</v>
+        <v>281.89999999999998</v>
       </c>
       <c r="E28" s="6">
-        <v>258.14999999999998</v>
+        <v>281.55</v>
       </c>
       <c r="F28" s="18">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="G28" s="6">
-        <v>260.25</v>
+        <v>281.14999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,22 +1297,22 @@
         <v>33</v>
       </c>
       <c r="B29" s="9">
-        <v>126.95</v>
+        <v>131.94999999999999</v>
       </c>
       <c r="C29" s="12">
-        <v>125.55</v>
+        <v>130.4</v>
       </c>
       <c r="D29" s="15">
-        <v>126.05</v>
+        <v>131</v>
       </c>
       <c r="E29" s="6">
-        <v>125.95</v>
+        <v>131</v>
       </c>
       <c r="F29" s="18">
-        <v>147</v>
+        <v>412</v>
       </c>
       <c r="G29" s="6">
-        <v>126.75</v>
+        <v>131.35</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1320,22 +1320,22 @@
         <v>34</v>
       </c>
       <c r="B30" s="10">
-        <v>8645.85</v>
+        <v>9340.7999999999993</v>
       </c>
       <c r="C30" s="13">
-        <v>8545.0499999999993</v>
+        <v>9090</v>
       </c>
       <c r="D30" s="16">
-        <v>8570</v>
+        <v>9295</v>
       </c>
       <c r="E30" s="7">
-        <v>8556.2000000000007</v>
+        <v>9317.75</v>
       </c>
       <c r="F30" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="7">
-        <v>8627.4500000000007</v>
+        <v>9113.1</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -598,7 +598,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2927</v>
+        <v>2863.3</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2760</v>
+        <v>2805.15</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2829.9</v>
+        <v>2849.05</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2822.15</v>
+        <v>2848.95</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2890.9</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>465</v>
+        <v>455.15</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>453.4</v>
+        <v>443.3</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>459.4</v>
+        <v>453.95</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>458.55</v>
+        <v>454.05</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>462.85</v>
+        <v>444.75</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1714.55</v>
+        <v>1692.7</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1692.5</v>
+        <v>1678.4</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1711.5</v>
+        <v>1688</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1710.15</v>
+        <v>1685.8</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1709.4</v>
+        <v>1679.5</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7376.7</v>
+        <v>7343</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7274</v>
+        <v>7215.45</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7310</v>
+        <v>7315</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7307.6</v>
+        <v>7327.75</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7376.7</v>
+        <v>7221.85</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>238.6</v>
+        <v>243</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>233.75</v>
+        <v>239.4</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>236.8</v>
+        <v>241.1</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>237.05</v>
+        <v>241.4</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>238.55</v>
+        <v>239.8</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>215.7</v>
+        <v>232.75</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>208.5</v>
+        <v>229.35</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>212.15</v>
+        <v>230.85</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>212</v>
+        <v>231.1</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>212.5</v>
+        <v>232.55</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>358.4</v>
+        <v>379.9</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>346.9</v>
+        <v>374.25</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>350.75</v>
+        <v>376.2</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>352.6</v>
+        <v>377.8</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>663.9</v>
+        <v>730</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>641.45</v>
+        <v>721.8</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>649.25</v>
+        <v>724</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>649.9</v>
+        <v>726.4</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>662.3</v>
+        <v>726.9</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>4108</v>
+        <v>4178</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>4028.8</v>
+        <v>4096.05</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>4047.3</v>
+        <v>4132</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4055</v>
+        <v>4143.5</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4103.6</v>
+        <v>4116.4</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>155.7</v>
+        <v>157.75</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>153.25</v>
+        <v>154.9</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>154.5</v>
+        <v>156.45</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>154.5</v>
+        <v>156.15</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>155.05</v>
+        <v>157.6</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1369.95</v>
+        <v>1481.85</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1340.15</v>
+        <v>1457.55</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1365.9</v>
+        <v>1468</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1364.1</v>
+        <v>1466.1</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1349.95</v>
+        <v>1470.05</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1655</v>
+        <v>1714.9</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1637.55</v>
+        <v>1700.3</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1653</v>
+        <v>1708.65</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1653.2</v>
+        <v>1709.25</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1639.5</v>
+        <v>1702.5</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>525.05</v>
+        <v>618</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>514</v>
+        <v>608.1</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>520.15</v>
+        <v>614.25</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>520.35</v>
+        <v>614.85</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>521.35</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>1012.85</v>
+        <v>1002.25</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>996.1</v>
+        <v>993.7</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>1011.5</v>
+        <v>998.4</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1010.85</v>
+        <v>996.6</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>997.05</v>
+        <v>1000.5</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1520.95</v>
+        <v>1606.4</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1494.05</v>
+        <v>1587.05</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1509.5</v>
+        <v>1595.9</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1508.95</v>
+        <v>1598.95</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1515.6</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1494.7</v>
+        <v>1554.9</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1467.1</v>
+        <v>1540</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1491</v>
+        <v>1542.65</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1491.15</v>
+        <v>1542.9</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1469.3</v>
+        <v>1550.7</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>697.45</v>
+        <v>750</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>676.4</v>
+        <v>735.9</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>685.1</v>
+        <v>747</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>686.25</v>
+        <v>748.1</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>690.2</v>
+        <v>737.7</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>543.9</v>
+        <v>540</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>526.65</v>
+        <v>525.65</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>531.8</v>
+        <v>536.5</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>532.3</v>
+        <v>536.1</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>529.8</v>
+        <v>526.35</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1694.4</v>
+        <v>1758</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1662.55</v>
+        <v>1715</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1668</v>
+        <v>1725</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1668.55</v>
+        <v>1729.4</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1692.25</v>
+        <v>1727.1</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>276.65</v>
+        <v>281.55</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>270.55</v>
+        <v>274.5</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>273.5</v>
+        <v>277</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>273.25</v>
+        <v>276.7</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>275.65</v>
+        <v>275.05</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>291.9</v>
+        <v>313.1</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>281</v>
+        <v>308.15</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>284.55</v>
+        <v>310.5</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>285.05</v>
+        <v>311.15</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>285.1</v>
+        <v>312.9</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>2476.7</v>
+        <v>2597.8</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>2445</v>
+        <v>2579.3</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>2451</v>
+        <v>2587</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2455.75</v>
+        <v>2584.95</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2460.55</v>
+        <v>2585.75</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>616.8</v>
+        <v>649.6</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>605.35</v>
+        <v>639.6</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>614.5</v>
+        <v>641.7</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>614.15</v>
+        <v>642.05</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>610.6</v>
+        <v>647.3</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>699</v>
+        <v>714.5</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>666.9</v>
+        <v>706.85</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>672.5</v>
+        <v>711.9</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>671.6</v>
+        <v>712.2</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>692.6</v>
+        <v>711.15</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>1022.55</v>
+        <v>1123</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>990</v>
+        <v>1089</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>998</v>
+        <v>1107.85</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>996.85</v>
+        <v>1104.1</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1022.55</v>
+        <v>1092.7</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>727.6</v>
+        <v>802.9</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>707.5</v>
+        <v>762.5</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>714.5</v>
+        <v>779.4</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>714.55</v>
+        <v>779.95</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>85</v>
+        <v>411</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>723.3</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>331.65</v>
+        <v>336</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>318.1</v>
+        <v>326.05</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>323.55</v>
+        <v>331.5</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>323.55</v>
+        <v>332.15</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>749</v>
+        <v>199</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>327.6</v>
+        <v>328.05</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>131.4</v>
+        <v>141.25</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>127.95</v>
+        <v>137.2</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>129.2</v>
+        <v>139.3</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>129.2</v>
+        <v>139.6</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>343</v>
+        <v>492</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>130.7</v>
+        <v>137.55</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" thickBot="1">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>9431.65</v>
+        <v>10526</v>
       </c>
       <c r="C30" s="13" t="n">
-        <v>9341.15</v>
+        <v>10361.55</v>
       </c>
       <c r="D30" s="16" t="n">
-        <v>9422</v>
+        <v>10482.35</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>9413.549999999999</v>
+        <v>10503.05</v>
       </c>
       <c r="F30" s="19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>9370.75</v>
+        <v>10395.4</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -598,7 +598,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>2863.3</v>
+        <v>2927.6</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>2805.15</v>
+        <v>2871.25</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>2849.05</v>
+        <v>2908</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>2848.95</v>
+        <v>2903.45</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2810</v>
+        <v>2900.25</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>455.15</v>
+        <v>526.85</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>443.3</v>
+        <v>508.95</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>453.95</v>
+        <v>526.2</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>454.05</v>
+        <v>525.75</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>444.75</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1692.7</v>
+        <v>1622.85</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1678.4</v>
+        <v>1581.2</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1688</v>
+        <v>1621.8</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1685.8</v>
+        <v>1620.85</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1679.5</v>
+        <v>1590.05</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7343</v>
+        <v>7093.9</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>7215.45</v>
+        <v>6996.8</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7315</v>
+        <v>7080</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7327.75</v>
+        <v>7055.3</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7221.85</v>
+        <v>7045.7</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>243</v>
+        <v>226.7</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>239.4</v>
+        <v>220.25</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>241.1</v>
+        <v>224.65</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>241.4</v>
+        <v>224.4</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>239.8</v>
+        <v>224.2</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>232.75</v>
+        <v>229</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>229.35</v>
+        <v>223.45</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>230.85</v>
+        <v>228.25</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>231.1</v>
+        <v>228.65</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>232.55</v>
+        <v>224.65</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>379.9</v>
+        <v>387.8</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>374.25</v>
+        <v>377.45</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>376.2</v>
+        <v>385</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>376</v>
+        <v>382.6</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>377.8</v>
+        <v>379.4</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>721.8</v>
+        <v>734.35</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>726.4</v>
+        <v>747.4</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>726.9</v>
+        <v>740.9</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>4178</v>
+        <v>3648.95</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>4096.05</v>
+        <v>3562.45</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>4132</v>
+        <v>3640</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4143.5</v>
+        <v>3635</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4116.4</v>
+        <v>3635.6</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>157.75</v>
+        <v>143.25</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>154.9</v>
+        <v>140</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>156.45</v>
+        <v>142.45</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>156.15</v>
+        <v>142.2</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>157.6</v>
+        <v>141.25</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1481.85</v>
+        <v>1581.2</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1457.55</v>
+        <v>1529</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1468</v>
+        <v>1576.75</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1466.1</v>
+        <v>1576.4</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1470.05</v>
+        <v>1535.55</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1714.9</v>
+        <v>1458.45</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1700.3</v>
+        <v>1419.6</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1708.65</v>
+        <v>1456.3</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1709.25</v>
+        <v>1455.9</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>125</v>
+        <v>430</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1702.5</v>
+        <v>1425.15</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>618</v>
+        <v>566.8</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>608.1</v>
+        <v>556.35</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>614.25</v>
+        <v>566.75</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>614.85</v>
+        <v>565.15</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>611</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>1002.25</v>
+        <v>1035.95</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>993.7</v>
+        <v>996.65</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>998.4</v>
+        <v>998.3</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>996.6</v>
+        <v>999.2</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>122</v>
+        <v>345</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1000.5</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1606.4</v>
+        <v>1495.8</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1587.05</v>
+        <v>1449</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1595.9</v>
+        <v>1495.45</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1598.95</v>
+        <v>1490.85</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1604</v>
+        <v>1454.95</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1554.9</v>
+        <v>1680</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1540</v>
+        <v>1645</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1542.65</v>
+        <v>1673</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1542.9</v>
+        <v>1675.4</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1550.7</v>
+        <v>1657.45</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>750</v>
+        <v>711.55</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>735.9</v>
+        <v>687.8</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>747</v>
+        <v>707.5</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>748.1</v>
+        <v>706.3</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>737.7</v>
+        <v>697.25</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>540</v>
+        <v>578.95</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>525.65</v>
+        <v>561.55</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>536.5</v>
+        <v>577</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>536.1</v>
+        <v>577.4</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>526.35</v>
+        <v>563.2</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1758</v>
+        <v>1632.3</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1715</v>
+        <v>1576.5</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1725</v>
+        <v>1628</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1729.4</v>
+        <v>1628.1</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1727.1</v>
+        <v>1586.7</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>281.55</v>
+        <v>275.7</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>274.5</v>
+        <v>270.45</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>277</v>
+        <v>272.1</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>276.7</v>
+        <v>272.55</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>275.05</v>
+        <v>273.95</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>313.1</v>
+        <v>310.7</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>308.15</v>
+        <v>300.1</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>310.5</v>
+        <v>308.65</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>311.15</v>
+        <v>308.85</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>312.9</v>
+        <v>302.35</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>2597.8</v>
+        <v>2699</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>2579.3</v>
+        <v>2648.1</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>2587</v>
+        <v>2694.9</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2584.95</v>
+        <v>2687.75</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2585.75</v>
+        <v>2655.45</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>649.6</v>
+        <v>622.35</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>639.6</v>
+        <v>607.6</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>641.7</v>
+        <v>618</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>642.05</v>
+        <v>618.3</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>647.3</v>
+        <v>610.65</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>714.5</v>
+        <v>645.5</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>706.85</v>
+        <v>624.3</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>711.9</v>
+        <v>642.05</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>712.2</v>
+        <v>643.95</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>711.15</v>
+        <v>626.2</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>1123</v>
+        <v>1023</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>1089</v>
+        <v>999.45</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>1107.85</v>
+        <v>1019</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1104.1</v>
+        <v>1017.85</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1092.7</v>
+        <v>1010.05</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>802.9</v>
+        <v>812</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>762.5</v>
+        <v>791.85</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>779.4</v>
+        <v>811.65</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>779.95</v>
+        <v>810.9</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>411</v>
+        <v>72</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>764.5</v>
+        <v>797.4</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>336</v>
+        <v>357.9</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>326.05</v>
+        <v>347.5</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>331.5</v>
+        <v>357.9</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>332.15</v>
+        <v>356.95</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>328.05</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>141.25</v>
+        <v>135.55</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>137.2</v>
+        <v>130.65</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>139.3</v>
+        <v>134.9</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>139.6</v>
+        <v>135.15</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>492</v>
+        <v>393</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>137.55</v>
+        <v>131.05</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" thickBot="1">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>10526</v>
+        <v>10032.6</v>
       </c>
       <c r="C30" s="13" t="n">
-        <v>10361.55</v>
+        <v>9775</v>
       </c>
       <c r="D30" s="16" t="n">
-        <v>10482.35</v>
+        <v>9998</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>10503.05</v>
+        <v>9990.5</v>
       </c>
       <c r="F30" s="19" t="n">
         <v>2</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>10395.4</v>
+        <v>9852.049999999999</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -595,10 +595,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -643,726 +643,751 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
+          <t>AARTIIND</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>685.9</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>671</v>
+      </c>
+      <c r="D2" s="14" t="n">
+        <v>673</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>674.3</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>684.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
           <t>ADANI</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>2927.6</v>
-      </c>
-      <c r="C2" s="11" t="n">
-        <v>2871.25</v>
-      </c>
-      <c r="D2" s="14" t="n">
-        <v>2908</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>2903.45</v>
-      </c>
-      <c r="F2" s="17" t="n">
-        <v>58</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>2900.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>APOLLO</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>526.85</v>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>508.95</v>
-      </c>
-      <c r="D3" s="15" t="n">
-        <v>526.2</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>525.75</v>
-      </c>
-      <c r="F3" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>511.45</v>
+      <c r="B3" s="8" t="n">
+        <v>3319.95</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>3225.1</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>3273.05</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>3273.3</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3263.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>BAJFINSV</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>1622.85</v>
+        <v>528.05</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>1581.2</v>
+        <v>520.75</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>1621.8</v>
+        <v>522.2</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1620.85</v>
+        <v>523.75</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1590.05</v>
+        <v>525.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>BAJFIN</t>
+          <t>BAJFINSV</t>
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>7093.9</v>
+        <v>1620.9</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>6996.8</v>
+        <v>1598.45</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>7080</v>
+        <v>1616</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>7055.3</v>
+        <v>1616.55</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>7045.7</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>BANBK</t>
+          <t>BAJFIN</t>
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>226.7</v>
+        <v>6719</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>220.25</v>
+        <v>6632.6</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>224.65</v>
+        <v>6690</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>224.4</v>
+        <v>6697.85</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>224.2</v>
+        <v>6674.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>BARODA</t>
+          <t>BANBK</t>
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>229</v>
+        <v>209.35</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>223.45</v>
+        <v>205.05</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>228.25</v>
+        <v>209.25</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>228.65</v>
+        <v>208.25</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>362</v>
+        <v>136</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>224.65</v>
+        <v>206.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>COALIND</t>
+          <t>BARODA</t>
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>387.8</v>
+        <v>280.15</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>377.45</v>
+        <v>265.3</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>385</v>
+        <v>269</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>382.6</v>
+        <v>268.85</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>379.4</v>
+        <v>278.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>COALIND</t>
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>749</v>
+        <v>447.8</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>734.35</v>
+        <v>441.65</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>748</v>
+        <v>444.2</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>747.4</v>
+        <v>443.9</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>740.9</v>
+        <v>445.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>EICHER</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>3648.95</v>
+        <v>905</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>3562.45</v>
+        <v>892.35</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>3640</v>
+        <v>897</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3635</v>
+        <v>899.25</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3635.6</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>FEDBANK</t>
+          <t>EICHER</t>
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>143.25</v>
+        <v>3959.85</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>140</v>
+        <v>3913.65</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>142.45</v>
+        <v>3924.2</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>142.2</v>
+        <v>3927.05</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>141.25</v>
+        <v>3958.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>HCL</t>
+          <t>FEDBANK</t>
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>1581.2</v>
+        <v>154.85</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1529</v>
+        <v>152</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>1576.75</v>
+        <v>152.3</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1576.4</v>
+        <v>152.45</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1535.55</v>
+        <v>154.35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>HDFC</t>
+          <t>HCL</t>
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1458.45</v>
+        <v>1694</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1419.6</v>
+        <v>1663.45</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1456.3</v>
+        <v>1664.4</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1455.9</v>
+        <v>1665.75</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>430</v>
+        <v>21</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1425.15</v>
+        <v>1685.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>HIND</t>
+          <t>HDFC</t>
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>566.8</v>
+        <v>1433.9</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>556.35</v>
+        <v>1418</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>566.75</v>
+        <v>1419.45</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>565.15</v>
+        <v>1420.6</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>559</v>
+        <v>1428.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>ICICI</t>
+          <t>HIND</t>
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>1035.95</v>
+        <v>524.45</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>996.65</v>
+        <v>517</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>998.3</v>
+        <v>518.05</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>999.2</v>
+        <v>518.35</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>345</v>
+        <v>64</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1027</v>
+        <v>520.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>INDUSIND</t>
+          <t>ICICI</t>
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1495.8</v>
+        <v>1069.65</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1449</v>
+        <v>1058.55</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1495.45</v>
+        <v>1061.25</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1490.85</v>
+        <v>1061.3</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1454.95</v>
+        <v>1062.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>INDUSIND</t>
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1680</v>
+        <v>1504.9</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1645</v>
+        <v>1475.05</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1673</v>
+        <v>1478.95</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1675.4</v>
+        <v>1480.3</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1657.45</v>
+        <v>1496.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>JIND</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>711.55</v>
+        <v>1687.8</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>687.8</v>
+        <v>1671.9</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>707.5</v>
+        <v>1675.05</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>706.3</v>
+        <v>1676.85</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>697.25</v>
+        <v>1683.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>LIC</t>
+          <t>JIND</t>
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>578.95</v>
+        <v>795.8</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>561.55</v>
+        <v>784.1</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>577</v>
+        <v>786.1</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>577.4</v>
+        <v>786.55</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>563.2</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>LIC</t>
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>1632.3</v>
+        <v>647.55</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>1576.5</v>
+        <v>637.95</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>1628</v>
+        <v>641.3</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1628.1</v>
+        <v>642.3</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1586.7</v>
+        <v>646.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>M&amp;MFIN</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>275.7</v>
+        <v>1947.85</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>270.45</v>
+        <v>1904.4</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>272.1</v>
+        <v>1924.95</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>272.55</v>
+        <v>1929.95</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>273.95</v>
+        <v>1909.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>M&amp;MFIN</t>
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>310.7</v>
+        <v>294.4</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>300.1</v>
+        <v>288.6</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>308.65</v>
+        <v>292.5</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>308.85</v>
+        <v>292.95</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>302.35</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>REL</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>2699</v>
+        <v>339.1</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>2648.1</v>
+        <v>334.85</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>2694.9</v>
+        <v>336.95</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2687.75</v>
+        <v>337.75</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2655.45</v>
+        <v>338.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>REL</t>
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>622.35</v>
+        <v>2995.1</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>607.6</v>
+        <v>2967.1</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>618</v>
+        <v>2986.55</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>618.3</v>
+        <v>2987.25</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>610.65</v>
+        <v>2972.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>SUNTV</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>645.5</v>
+        <v>770.5</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>624.3</v>
+        <v>755</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>642.05</v>
+        <v>760.35</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>643.95</v>
+        <v>759.05</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>626.2</v>
+        <v>768.85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>TCHEM</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>1023</v>
+        <v>638.1</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>999.45</v>
+        <v>620.25</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>1019</v>
+        <v>634.9</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1017.85</v>
+        <v>634.4</v>
       </c>
       <c r="F26" s="18" t="n">
         <v>8</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1010.05</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TCHEM</t>
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>812</v>
+        <v>987.05</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>791.85</v>
+        <v>975</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>811.65</v>
+        <v>975</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>810.9</v>
+        <v>976.5</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>797.4</v>
+        <v>986</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>357.9</v>
+        <v>939.8</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>347.5</v>
+        <v>929.4</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>357.9</v>
+        <v>935.05</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>356.95</v>
+        <v>937.4</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>349.6</v>
+        <v>934.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="C29" s="12" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <v>379</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="F29" s="18" t="n">
+        <v>56</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>380.45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="B29" s="9" t="n">
-        <v>135.55</v>
-      </c>
-      <c r="C29" s="12" t="n">
-        <v>130.65</v>
-      </c>
-      <c r="D29" s="15" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>135.15</v>
-      </c>
-      <c r="F29" s="18" t="n">
-        <v>393</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>131.05</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="7" t="inlineStr">
+      <c r="B30" s="9" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C30" s="12" t="n">
+        <v>145</v>
+      </c>
+      <c r="D30" s="15" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>145.45</v>
+      </c>
+      <c r="F30" s="18" t="n">
+        <v>284</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>146.3</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="7" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="B30" s="10" t="n">
-        <v>10032.6</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D30" s="16" t="n">
-        <v>9998</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>9990.5</v>
-      </c>
-      <c r="F30" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v>9852.049999999999</v>
+      <c r="B31" s="10" t="n">
+        <v>10028</v>
+      </c>
+      <c r="C31" s="13" t="n">
+        <v>9894.049999999999</v>
+      </c>
+      <c r="D31" s="16" t="n">
+        <v>10023</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>10000.9</v>
+      </c>
+      <c r="F31" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>9974.15</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>634.5</v>
+        <v>633.65</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>615.35</v>
+        <v>624.65</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>627</v>
+        <v>627.3</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>628.35</v>
+        <v>628</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>621.9</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3066.9</v>
+        <v>3322.9</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>2974.95</v>
+        <v>3225</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3034.05</v>
+        <v>3255</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3041.65</v>
+        <v>3258.8</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3056.95</v>
+        <v>3234.85</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>508.3</v>
+        <v>471.85</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>482.25</v>
+        <v>467.1</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>489</v>
+        <v>471.35</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>488.15</v>
+        <v>471.05</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>501.55</v>
+        <v>468.2</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1601</v>
+        <v>1595.75</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1560.45</v>
+        <v>1565.1</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1593.95</v>
+        <v>1567.05</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1596</v>
+        <v>1569.9</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1572.7</v>
+        <v>1595.7</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>6762.1</v>
+        <v>6894</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>6623.05</v>
+        <v>6785.35</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>6731</v>
+        <v>6791.65</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6747.15</v>
+        <v>6806.7</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6705</v>
+        <v>6870.1</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>185.45</v>
+        <v>194.1</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>176.55</v>
+        <v>189.5</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>180.2</v>
+        <v>191.6</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>179.6</v>
+        <v>191.7</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>400</v>
+        <v>113</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>185</v>
+        <v>189.7</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>267.1</v>
+        <v>266.2</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>259.05</v>
+        <v>262.55</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>263.8</v>
+        <v>263.5</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>262.9</v>
+        <v>263.4</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>265.95</v>
+        <v>263.75</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>475</v>
+        <v>491.9</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>457.85</v>
+        <v>485</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>467.25</v>
+        <v>486.1</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>468.3</v>
+        <v>486.45</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>468.1</v>
+        <v>486.15</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>846.35</v>
+        <v>825.9</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>826.35</v>
+        <v>816.55</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>845.05</v>
+        <v>819</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>841.5</v>
+        <v>818.3</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>832.15</v>
+        <v>817.95</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4695.55</v>
+        <v>4808.85</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4543.1</v>
+        <v>4734</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4663.05</v>
+        <v>4757.25</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4681.75</v>
+        <v>4745.4</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4665.1</v>
+        <v>4755.6</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>164.8</v>
+        <v>160.9</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>161.7</v>
+        <v>158.95</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>164.5</v>
+        <v>160.15</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>164.1</v>
+        <v>159.5</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>163.2</v>
+        <v>159.65</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1357.8</v>
+        <v>1360.95</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1328.5</v>
+        <v>1346.95</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1347.15</v>
+        <v>1347.95</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1348.15</v>
+        <v>1353.1</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1352.8</v>
+        <v>1360.6</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1462.55</v>
+        <v>1520.4</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1435.5</v>
+        <v>1501.25</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1459.75</v>
+        <v>1506</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1460.25</v>
+        <v>1508.3</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1446.1</v>
+        <v>1520.05</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>666</v>
+        <v>713.5</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>643.25</v>
+        <v>684.4</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>652.3</v>
+        <v>705.3</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>653.35</v>
+        <v>705.3</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>663.9</v>
+        <v>689.2</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1136.1</v>
+        <v>1120.35</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1112.8</v>
+        <v>1098.5</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1131.05</v>
+        <v>1102</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1135.2</v>
+        <v>1119.55</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1415.7</v>
+        <v>1470.55</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1385.65</v>
+        <v>1439.25</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1410</v>
+        <v>1463.45</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1408.75</v>
+        <v>1460.25</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1415.5</v>
+        <v>1444.9</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1455.75</v>
+        <v>1462.25</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1433.2</v>
+        <v>1450</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1450.9</v>
+        <v>1455</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1453.35</v>
+        <v>1450.95</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1446</v>
+        <v>1460.9</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1009.95</v>
+        <v>1051.15</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>994.05</v>
+        <v>1030.25</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>1005.5</v>
+        <v>1037.75</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1005.25</v>
+        <v>1038.55</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1005.35</v>
+        <v>1048.7</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>657.15</v>
+        <v>653.85</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>625</v>
+        <v>642.45</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>655.8</v>
+        <v>645</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>653.15</v>
+        <v>646.8</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>633.45</v>
+        <v>643.3</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>2393.9</v>
+        <v>2547</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>2286.2</v>
+        <v>2500.95</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>2393.9</v>
+        <v>2530</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2371.75</v>
+        <v>2533.65</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2330.05</v>
+        <v>2517.5</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>268.3</v>
+        <v>270.6</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>264.75</v>
+        <v>267.25</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>267.75</v>
+        <v>267.65</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>266.65</v>
+        <v>268.45</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>267</v>
+        <v>268.55</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>362.1</v>
+        <v>366.35</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>353.05</v>
+        <v>361.5</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>361.45</v>
+        <v>364.6</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>360.35</v>
+        <v>362.5</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>2855</v>
+        <v>2916</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2796.05</v>
+        <v>2876.9</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>2851</v>
+        <v>2881.05</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2850.7</v>
+        <v>2881.55</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2844.1</v>
+        <v>2906.55</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>825.8</v>
+        <v>834.45</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>797.35</v>
+        <v>819.3</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>812.3</v>
+        <v>825</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>811.95</v>
+        <v>822.65</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>825</v>
+        <v>830.7</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>672.35</v>
+        <v>668.95</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>661.45</v>
+        <v>651.15</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>668.75</v>
+        <v>654</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>670</v>
+        <v>653.75</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>662.75</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1085</v>
+        <v>1101.45</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1071.4</v>
+        <v>1070.25</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1082</v>
+        <v>1072.7</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1083</v>
+        <v>1072.3</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1080.05</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>942.85</v>
+        <v>950.5</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>919</v>
+        <v>939.8</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>939.2</v>
+        <v>943.5</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>936.4</v>
+        <v>943.6</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>940.2</v>
+        <v>941.85</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>435</v>
+        <v>439.45</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>426.85</v>
+        <v>432.1</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>434.55</v>
+        <v>433.5</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>433.95</v>
+        <v>432.85</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>430.45</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>162.3</v>
+        <v>173.5</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>165.85</v>
+        <v>174</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>165.9</v>
+        <v>174.25</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>167.8</v>
+        <v>175.25</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>9725.700000000001</v>
+        <v>10169.95</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>9525.5</v>
+        <v>9961</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>9700</v>
+        <v>10031</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>9709.1</v>
+        <v>10023.4</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>3</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>9608.4</v>
+        <v>10141.95</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>633.65</v>
+        <v>679.4</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>624.65</v>
+        <v>671.45</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>627.3</v>
+        <v>675.5</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>628</v>
+        <v>675.75</v>
       </c>
       <c r="F2" s="17" t="n">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>625</v>
+        <v>673.95</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3322.9</v>
+        <v>3275</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>3225</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3255</v>
+        <v>3269</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3258.8</v>
+        <v>3261.75</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3234.85</v>
+        <v>3227.8</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>471.85</v>
+        <v>478</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>467.1</v>
+        <v>472.1</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>471.35</v>
+        <v>476.6</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>471.05</v>
+        <v>476.45</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>468.2</v>
+        <v>474.4</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1595.75</v>
+        <v>1596</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1565.1</v>
+        <v>1575.35</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1567.05</v>
+        <v>1587.05</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1569.9</v>
+        <v>1591.75</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1595.7</v>
+        <v>1582.6</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>6894</v>
+        <v>7370</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>6785.35</v>
+        <v>7247</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>6791.65</v>
+        <v>7340.5</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6806.7</v>
+        <v>7341.55</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6870.1</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>194.1</v>
+        <v>195.9</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>189.5</v>
+        <v>193.53</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>191.6</v>
+        <v>194.15</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>191.7</v>
+        <v>194.34</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>189.7</v>
+        <v>195.6</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>266.2</v>
+        <v>287.5</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>262.55</v>
+        <v>281.75</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>263.5</v>
+        <v>286</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>263.4</v>
+        <v>286.25</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>263.75</v>
+        <v>282.35</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>491.9</v>
+        <v>492.4</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>485</v>
+        <v>485.7</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>486.1</v>
+        <v>487.5</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>486.45</v>
+        <v>486.95</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>486.15</v>
+        <v>487.55</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>825.9</v>
+        <v>883.65</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>816.55</v>
+        <v>871.9</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>819</v>
+        <v>877.25</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>818.3</v>
+        <v>878.6</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>817.95</v>
+        <v>872.85</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4808.85</v>
+        <v>4945</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4734</v>
+        <v>4801.5</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4757.25</v>
+        <v>4929</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4745.4</v>
+        <v>4935.1</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>5</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4755.6</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>160.9</v>
+        <v>174.89</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>158.95</v>
+        <v>172.51</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>160.15</v>
+        <v>174.15</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>159.5</v>
+        <v>174.4</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>159.65</v>
+        <v>173.23</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1360.95</v>
+        <v>1439.75</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1346.95</v>
+        <v>1424.4</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1347.95</v>
+        <v>1431.2</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1353.1</v>
+        <v>1431.05</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1360.6</v>
+        <v>1435.55</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1520.4</v>
+        <v>1599</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1501.25</v>
+        <v>1579.05</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1506</v>
+        <v>1595.6</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1508.3</v>
+        <v>1596.9</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1520.05</v>
+        <v>1582.25</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>713.5</v>
+        <v>686.5</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>684.4</v>
+        <v>678.9</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>705.3</v>
+        <v>682.1</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>705.3</v>
+        <v>683.6</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>689.2</v>
+        <v>679.9</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1120.35</v>
+        <v>1112.95</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1098.5</v>
+        <v>1099.45</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1104</v>
+        <v>1105.05</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1102</v>
+        <v>1105.65</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1119.55</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1470.55</v>
+        <v>1515.9</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1439.25</v>
+        <v>1495.95</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1463.45</v>
+        <v>1498.5</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1460.25</v>
+        <v>1502.35</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1444.9</v>
+        <v>1498.4</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1462.25</v>
+        <v>1495.2</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1450</v>
+        <v>1486.05</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1455</v>
+        <v>1488.5</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1450.95</v>
+        <v>1488.9</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1460.9</v>
+        <v>1489.6</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1051.15</v>
+        <v>1059.25</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>1030.25</v>
+        <v>1036</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>1037.75</v>
+        <v>1052</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1038.55</v>
+        <v>1052.45</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1048.7</v>
+        <v>1038.2</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>653.85</v>
+        <v>734.7</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>642.45</v>
+        <v>717.2</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>645</v>
+        <v>734</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>646.8</v>
+        <v>731.65</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>643.3</v>
+        <v>718.55</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>2547</v>
+        <v>2946</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>2500.95</v>
+        <v>2865</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>2530</v>
+        <v>2924</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2533.65</v>
+        <v>2928.6</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2517.5</v>
+        <v>2872.35</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>270.6</v>
+        <v>300</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>267.25</v>
+        <v>293.2</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>267.65</v>
+        <v>298.95</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>268.45</v>
+        <v>298.95</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>268.55</v>
+        <v>293.85</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>366.35</v>
+        <v>369.45</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>361.5</v>
+        <v>366.1</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>365</v>
+        <v>368.5</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>364.6</v>
+        <v>368.45</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>362.5</v>
+        <v>366.5</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>2916</v>
+        <v>2959.35</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2876.9</v>
+        <v>2914.45</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>2881.05</v>
+        <v>2951.45</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2881.55</v>
+        <v>2955.1</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2906.55</v>
+        <v>2917.2</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>834.45</v>
+        <v>845.8</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>819.3</v>
+        <v>835.1</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>825</v>
+        <v>839.2</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>822.65</v>
+        <v>839.2</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>830.7</v>
+        <v>842.85</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>668.95</v>
+        <v>767.05</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>651.15</v>
+        <v>751</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>654</v>
+        <v>760</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>653.75</v>
+        <v>757.55</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>657</v>
+        <v>760.2</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1101.45</v>
+        <v>1118.75</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1070.25</v>
+        <v>1100.7</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1072.7</v>
+        <v>1105</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1072.3</v>
+        <v>1105.85</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1095</v>
+        <v>1112.05</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>950.5</v>
+        <v>997.25</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>939.8</v>
+        <v>981.4</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>943.5</v>
+        <v>992</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>943.6</v>
+        <v>993.4</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>941.85</v>
+        <v>982.3</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>439.45</v>
+        <v>453.6</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>432.1</v>
+        <v>447.5</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>433.5</v>
+        <v>448.5</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>432.85</v>
+        <v>448.65</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>436</v>
+        <v>449.1</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>176</v>
+        <v>183.5</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>173.5</v>
+        <v>181.4</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>174</v>
+        <v>182.9</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>174.25</v>
+        <v>183.15</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>365</v>
+        <v>285</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>175.25</v>
+        <v>181.75</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>10169.95</v>
+        <v>11271</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>9961</v>
+        <v>11167.6</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>10031</v>
+        <v>11250</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>10023.4</v>
+        <v>11242.8</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>3</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>10141.95</v>
+        <v>11175</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>679.4</v>
+        <v>720.35</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>671.45</v>
+        <v>703.8</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>675.5</v>
+        <v>708.1</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>675.75</v>
+        <v>708.4</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>673.95</v>
+        <v>719.2</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3275</v>
+        <v>3143.55</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3225</v>
+        <v>3075</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3269</v>
+        <v>3112</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3261.75</v>
+        <v>3113.6</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3227.8</v>
+        <v>3139.4</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>478</v>
+        <v>533.5</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>472.1</v>
+        <v>520</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>476.6</v>
+        <v>523.7</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>476.45</v>
+        <v>522.35</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>474.4</v>
+        <v>527.95</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1596</v>
+        <v>1574.5</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1575.35</v>
+        <v>1562</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1587.05</v>
+        <v>1568</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1591.75</v>
+        <v>1570.1</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1582.6</v>
+        <v>1573.35</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7370</v>
+        <v>7108</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>7247</v>
+        <v>7047</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7340.5</v>
+        <v>7099</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7341.55</v>
+        <v>7098.25</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7300</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>195.9</v>
+        <v>205.22</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>193.53</v>
+        <v>201.5</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>194.15</v>
+        <v>204</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>194.34</v>
+        <v>204.47</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>195.6</v>
+        <v>202.85</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>287.5</v>
+        <v>266.8</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>281.75</v>
+        <v>261.55</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>286.25</v>
+        <v>262.35</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>282.35</v>
+        <v>263.55</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>492.4</v>
+        <v>496</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>485.7</v>
+        <v>487.2</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>487.5</v>
+        <v>493.5</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>486.95</v>
+        <v>493.3</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>487.55</v>
+        <v>490.7</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>883.65</v>
+        <v>839.1</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>871.9</v>
+        <v>828.05</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>877.25</v>
+        <v>834.2</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>878.6</v>
+        <v>835.7</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>872.85</v>
+        <v>838.5</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4945</v>
+        <v>4775</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4801.5</v>
+        <v>4716</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4929</v>
+        <v>4752.55</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4935.1</v>
+        <v>4754.45</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>5</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4836</v>
+        <v>4751.7</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>174.89</v>
+        <v>189.3</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>172.51</v>
+        <v>185.27</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>174.15</v>
+        <v>188.3</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>174.4</v>
+        <v>188.06</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>173.23</v>
+        <v>187.06</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1439.75</v>
+        <v>1540</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1424.4</v>
+        <v>1506.2</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1431.2</v>
+        <v>1537.95</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1431.05</v>
+        <v>1533.4</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1435.55</v>
+        <v>1524.6</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1599</v>
+        <v>1654.95</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1579.05</v>
+        <v>1627.15</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1595.6</v>
+        <v>1636.35</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1596.9</v>
+        <v>1635.35</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1582.25</v>
+        <v>1653.2</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>686.5</v>
+        <v>705.9</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>678.9</v>
+        <v>691.65</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>682.1</v>
+        <v>697.6</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>683.6</v>
+        <v>697.2</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>679.9</v>
+        <v>700.8</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1112.95</v>
+        <v>1239.5</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1099.45</v>
+        <v>1226.05</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1105.05</v>
+        <v>1237</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1105.65</v>
+        <v>1235.05</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1101</v>
+        <v>1233.7</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1515.9</v>
+        <v>1441.7</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1495.95</v>
+        <v>1426.3</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1498.5</v>
+        <v>1439</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1502.35</v>
+        <v>1438.05</v>
       </c>
       <c r="F17" s="18" t="n">
         <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1498.4</v>
+        <v>1435.6</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1495.2</v>
+        <v>1666</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1486.05</v>
+        <v>1648</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1488.5</v>
+        <v>1660.95</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1488.9</v>
+        <v>1661.65</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1489.6</v>
+        <v>1653.4</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1059.25</v>
+        <v>1050.4</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>1036</v>
+        <v>1023.5</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1052.45</v>
+        <v>1025.95</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1038.2</v>
+        <v>1048.5</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>734.7</v>
+        <v>792.05</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>717.2</v>
+        <v>780.2</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>734</v>
+        <v>783.8</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>731.65</v>
+        <v>782.15</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>718.55</v>
+        <v>787.6</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>2946</v>
+        <v>2918.6</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>2865</v>
+        <v>2847.5</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>2924</v>
+        <v>2849.65</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2928.6</v>
+        <v>2851.35</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2872.35</v>
+        <v>2898.5</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>300</v>
+        <v>305.35</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>293.2</v>
+        <v>298</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>298.95</v>
+        <v>303.5</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>298.95</v>
+        <v>302.8</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>293.85</v>
+        <v>299.65</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>369.45</v>
+        <v>380.7</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>366.1</v>
+        <v>376.15</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>368.5</v>
+        <v>378.1</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>368.45</v>
+        <v>377.45</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>366.5</v>
+        <v>378.7</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>2959.35</v>
+        <v>3217.6</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2914.45</v>
+        <v>3165.05</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>2951.45</v>
+        <v>3201.5</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2955.1</v>
+        <v>3201.8</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2917.2</v>
+        <v>3182.05</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>845.8</v>
+        <v>865</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>835.1</v>
+        <v>854.65</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>839.2</v>
+        <v>856.75</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>839.2</v>
+        <v>856.25</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>842.85</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>767.05</v>
+        <v>785.9</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>751</v>
+        <v>771.15</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>760</v>
+        <v>783</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>757.55</v>
+        <v>784.1</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>760.2</v>
+        <v>781.2</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1118.75</v>
+        <v>1111.15</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1100.7</v>
+        <v>1078.65</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1105</v>
+        <v>1080.9</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1105.85</v>
+        <v>1079.95</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1112.05</v>
+        <v>1102.7</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>997.25</v>
+        <v>1016.6</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>981.4</v>
+        <v>996.2</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>992</v>
+        <v>1002.9</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>993.4</v>
+        <v>1002.6</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>982.3</v>
+        <v>1010.7</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>453.6</v>
+        <v>442.85</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>447.5</v>
+        <v>431.9</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>448.5</v>
+        <v>434</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>448.65</v>
+        <v>433.45</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>449.1</v>
+        <v>441.95</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>183.5</v>
+        <v>175.47</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>181.4</v>
+        <v>172.09</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>182.9</v>
+        <v>172.49</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>183.15</v>
+        <v>172.28</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>181.75</v>
+        <v>175.04</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>11271</v>
+        <v>11645</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11167.6</v>
+        <v>11530</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11250</v>
+        <v>11579</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11242.8</v>
+        <v>11582.9</v>
       </c>
       <c r="F31" s="19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11175</v>
+        <v>11627.45</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>720.35</v>
+        <v>640.2</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>703.8</v>
+        <v>622.3</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>708.1</v>
+        <v>628.2</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>708.4</v>
+        <v>628.7</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>719.2</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3143.55</v>
+        <v>3038</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3075</v>
+        <v>2981.3</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3112</v>
+        <v>3022</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3113.6</v>
+        <v>3020.15</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3139.4</v>
+        <v>3034.95</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>533.5</v>
+        <v>500.5</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>523.7</v>
+        <v>493.1</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>522.35</v>
+        <v>492.35</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>527.95</v>
+        <v>498.6</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1574.5</v>
+        <v>1772</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1562</v>
+        <v>1715.9</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1568</v>
+        <v>1758.3</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1570.1</v>
+        <v>1755.65</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1573.35</v>
+        <v>1718.55</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7108</v>
+        <v>7158</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>7047</v>
+        <v>6893.2</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7099</v>
+        <v>7066.65</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7098.25</v>
+        <v>7063.55</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7100</v>
+        <v>6895.05</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>205.22</v>
+        <v>196.5</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>201.5</v>
+        <v>191.64</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>204</v>
+        <v>194.22</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>204.47</v>
+        <v>193.93</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>202.85</v>
+        <v>196.27</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>266.8</v>
+        <v>250.7</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>261.55</v>
+        <v>247.65</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>263</v>
+        <v>250.1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>262.35</v>
+        <v>249.8</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>263.55</v>
+        <v>249.65</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>487.2</v>
+        <v>516.1</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>493.5</v>
+        <v>529.15</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>493.3</v>
+        <v>527.55</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>490.7</v>
+        <v>525.35</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>839.1</v>
+        <v>835.35</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>828.05</v>
+        <v>818.5</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>834.2</v>
+        <v>835.2</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>835.7</v>
+        <v>831.9</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>838.5</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4775</v>
+        <v>4994.4</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4716</v>
+        <v>4880</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4752.55</v>
+        <v>4902.65</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4754.45</v>
+        <v>4915.9</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>5</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4751.7</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>189.3</v>
+        <v>196.88</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>185.27</v>
+        <v>194.5</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>188.3</v>
+        <v>195.99</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>188.06</v>
+        <v>195.92</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>187.06</v>
+        <v>195.28</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1540</v>
+        <v>1756</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1506.2</v>
+        <v>1707.55</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1537.95</v>
+        <v>1750.45</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1533.4</v>
+        <v>1751.85</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1524.6</v>
+        <v>1709.4</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1654.95</v>
+        <v>1644.4</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1627.15</v>
+        <v>1631.15</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1636.35</v>
+        <v>1639.95</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1635.35</v>
+        <v>1638.55</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1653.2</v>
+        <v>1644.15</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>705.9</v>
+        <v>702.35</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>691.65</v>
+        <v>691.4</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>697.6</v>
+        <v>700</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>697.2</v>
+        <v>700.5</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>700.8</v>
+        <v>695.8</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1239.5</v>
+        <v>1235</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1226.05</v>
+        <v>1218.9</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1237</v>
+        <v>1222.75</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1235.05</v>
+        <v>1221.9</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1233.7</v>
+        <v>1222.8</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1441.7</v>
+        <v>1423.05</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1426.3</v>
+        <v>1407.8</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1439</v>
+        <v>1415.5</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1438.05</v>
+        <v>1417.45</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1435.6</v>
+        <v>1413.4</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1666</v>
+        <v>1950.5</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1648</v>
+        <v>1920.9</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1660.95</v>
+        <v>1930.2</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1661.65</v>
+        <v>1933.35</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1653.4</v>
+        <v>1929.05</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1050.4</v>
+        <v>967</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>1023.5</v>
+        <v>948.55</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>1027</v>
+        <v>961</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1025.95</v>
+        <v>960.5</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1048.5</v>
+        <v>962.35</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>792.05</v>
+        <v>681.9</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>780.2</v>
+        <v>667.05</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>783.8</v>
+        <v>677.75</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>782.15</v>
+        <v>675.95</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>787.6</v>
+        <v>676.95</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>2918.6</v>
+        <v>2801.65</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>2847.5</v>
+        <v>2741.65</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>2849.65</v>
+        <v>2763</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2851.35</v>
+        <v>2757.6</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2898.5</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>305.35</v>
+        <v>317.8</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>298</v>
+        <v>308.9</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>303.5</v>
+        <v>314.7</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>302.8</v>
+        <v>313.4</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>299.65</v>
+        <v>315.75</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>380.7</v>
+        <v>412.6</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>376.15</v>
+        <v>403.75</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>378.1</v>
+        <v>411.1</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>377.45</v>
+        <v>409.9</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>378.7</v>
+        <v>410.5</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>3217.6</v>
+        <v>3074</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>3165.05</v>
+        <v>2988</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>3201.5</v>
+        <v>3042.9</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>3201.8</v>
+        <v>3041.85</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3182.05</v>
+        <v>2997.15</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>865</v>
+        <v>816</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>854.65</v>
+        <v>809.1</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>856.75</v>
+        <v>815.7</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>856.25</v>
+        <v>814.5</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>859.5</v>
+        <v>810.4</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>785.9</v>
+        <v>815.95</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>771.15</v>
+        <v>800.55</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>783</v>
+        <v>810.65</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>784.1</v>
+        <v>809.9</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>781.2</v>
+        <v>814.05</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1111.15</v>
+        <v>1076.55</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1078.65</v>
+        <v>1057.55</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1080.9</v>
+        <v>1072</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1079.95</v>
+        <v>1073.3</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1102.7</v>
+        <v>1073.85</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>1016.6</v>
+        <v>1142</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>996.2</v>
+        <v>1066</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>1002.9</v>
+        <v>1112.9</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>1002.6</v>
+        <v>1121.65</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>133</v>
+        <v>406</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>1010.7</v>
+        <v>1076.25</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>442.85</v>
+        <v>433.1</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>431.9</v>
+        <v>424.7</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>434</v>
+        <v>430.9</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>433.45</v>
+        <v>430.9</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>441.95</v>
+        <v>430.4</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>175.47</v>
+        <v>153.56</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>172.09</v>
+        <v>151.2</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>172.49</v>
+        <v>153.15</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>172.28</v>
+        <v>152.97</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>314</v>
+        <v>444</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>175.04</v>
+        <v>152.85</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>11645</v>
+        <v>11256.7</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11530</v>
+        <v>11115.4</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11579</v>
+        <v>11210</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11582.9</v>
+        <v>11222</v>
       </c>
       <c r="F31" s="19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11627.45</v>
+        <v>11141</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>640.2</v>
+        <v>632.45</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>622.3</v>
+        <v>626.1</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>628.2</v>
+        <v>628</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>628.7</v>
+        <v>627.05</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>635</v>
+        <v>630.45</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3038</v>
+        <v>3035.65</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>2981.3</v>
+        <v>3003.3</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3022</v>
+        <v>3033</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3020.15</v>
+        <v>3019.35</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3034.95</v>
+        <v>3018.25</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>500.5</v>
+        <v>498.7</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>485</v>
+        <v>491.6</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>493.1</v>
+        <v>493.5</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>492.35</v>
+        <v>492.9</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>498.6</v>
+        <v>495.25</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1772</v>
+        <v>1793.5</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1715.9</v>
+        <v>1750.05</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1758.3</v>
+        <v>1782</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1755.65</v>
+        <v>1783.05</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1718.55</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7158</v>
+        <v>7215.05</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>6893.2</v>
+        <v>7100.1</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7066.65</v>
+        <v>7210</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7063.55</v>
+        <v>7200.15</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6895.05</v>
+        <v>7124.8</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>196.5</v>
+        <v>201.92</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>191.64</v>
+        <v>196.52</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>194.22</v>
+        <v>201.1</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>193.93</v>
+        <v>200.3</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>212</v>
+        <v>1098</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>196.27</v>
+        <v>196.97</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>250.7</v>
+        <v>253.85</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>247.65</v>
+        <v>249.65</v>
       </c>
       <c r="D8" s="15" t="n">
+        <v>249.85</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>250.1</v>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>249.8</v>
-      </c>
       <c r="F8" s="18" t="n">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>249.65</v>
+        <v>251.45</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>530</v>
+        <v>534.5</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>516.1</v>
+        <v>522</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>529.15</v>
+        <v>523.95</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>527.55</v>
+        <v>524.95</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>525.35</v>
+        <v>533.7</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>835.35</v>
+        <v>849.55</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>818.5</v>
+        <v>838.65</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>835.2</v>
+        <v>846.05</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>831.9</v>
+        <v>845.1</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>834.05</v>
+        <v>840.5</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4994.4</v>
+        <v>4979.5</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4880</v>
+        <v>4918.05</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4902.65</v>
+        <v>4956.25</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4915.9</v>
+        <v>4960.5</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4945</v>
+        <v>4931.5</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>196.88</v>
+        <v>198.23</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>194.5</v>
+        <v>194.2</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>195.99</v>
+        <v>195.4</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>195.92</v>
+        <v>194.7</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>195.28</v>
+        <v>196.71</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1756</v>
+        <v>1766.3</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1707.55</v>
+        <v>1742.2</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1750.45</v>
+        <v>1749.1</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1751.85</v>
+        <v>1753.25</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1709.4</v>
+        <v>1758.85</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1644.4</v>
+        <v>1656.3</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1631.15</v>
+        <v>1621.15</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1639.95</v>
+        <v>1625.75</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1638.55</v>
+        <v>1636.9</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>245</v>
+        <v>2226</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1644.15</v>
+        <v>1655.2</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>702.35</v>
+        <v>708.5</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>691.4</v>
+        <v>695.1</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>700</v>
+        <v>700.3</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>700.5</v>
+        <v>701.35</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>695.8</v>
+        <v>695.5</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1235</v>
+        <v>1235.55</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>1218.9</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1222.75</v>
+        <v>1232</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1221.9</v>
+        <v>1229.2</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1222.8</v>
+        <v>1223.5</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1423.05</v>
+        <v>1430</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1407.8</v>
+        <v>1415.55</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1415.5</v>
+        <v>1427.45</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1417.45</v>
+        <v>1425.25</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1413.4</v>
+        <v>1416.45</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1950.5</v>
+        <v>1950</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1920.9</v>
+        <v>1928</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1930.2</v>
+        <v>1949.85</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1933.35</v>
+        <v>1943.7</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1929.05</v>
+        <v>1934.15</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>948.55</v>
+        <v>962.5</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>961</v>
+        <v>967.9</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>960.5</v>
+        <v>970.4</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>962.35</v>
+        <v>962.95</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>681.9</v>
+        <v>682</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>667.05</v>
+        <v>673.25</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>677.75</v>
+        <v>674.15</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>675.95</v>
+        <v>674.4</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>676.95</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>2801.65</v>
+        <v>2821.55</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>2741.65</v>
+        <v>2765</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>2763</v>
+        <v>2812</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2757.6</v>
+        <v>2805.4</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2791</v>
+        <v>2773.2</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>317.8</v>
+        <v>317.2</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>308.9</v>
+        <v>313.5</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>314.7</v>
+        <v>313.65</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>313.4</v>
+        <v>314.35</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>315.75</v>
+        <v>315.45</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>412.6</v>
+        <v>419.2</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>403.75</v>
+        <v>411.5</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>411.1</v>
+        <v>417.2</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>409.9</v>
+        <v>416.2</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>410.5</v>
+        <v>412.95</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>3074</v>
+        <v>3056</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2988</v>
+        <v>3006.65</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>3042.9</v>
+        <v>3024.95</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>3041.85</v>
+        <v>3019.25</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2997.15</v>
+        <v>3051.95</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>816</v>
+        <v>820.7</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>809.1</v>
+        <v>814.35</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>815.7</v>
+        <v>816.25</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>814.5</v>
+        <v>815.6</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>810.4</v>
+        <v>816.5</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>815.95</v>
+        <v>829.45</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>800.55</v>
+        <v>811</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>810.65</v>
+        <v>822.5</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>809.9</v>
+        <v>821.9</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>814.05</v>
+        <v>813.45</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1076.55</v>
+        <v>1096</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1057.55</v>
+        <v>1081.5</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1072</v>
+        <v>1082.1</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1073.3</v>
+        <v>1082.65</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1073.85</v>
+        <v>1083.8</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>1142</v>
+        <v>1115</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>1066</v>
+        <v>1097.45</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>1112.9</v>
+        <v>1109</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>1121.65</v>
+        <v>1111.35</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>406</v>
+        <v>176</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>1076.25</v>
+        <v>1111.5</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>433.1</v>
+        <v>437.4</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>424.7</v>
+        <v>431.8</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>430.9</v>
+        <v>434.95</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>430.9</v>
+        <v>434.65</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>430.4</v>
+        <v>432.25</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>153.56</v>
+        <v>155.25</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>151.2</v>
+        <v>152.47</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>153.15</v>
+        <v>153.3</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>152.97</v>
+        <v>152.76</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>444</v>
+        <v>551</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>152.85</v>
+        <v>153.62</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>11256.7</v>
+        <v>11360.9</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11115.4</v>
+        <v>11255</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11210</v>
+        <v>11320</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11222</v>
+        <v>11301.9</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11141</v>
+        <v>11278.7</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>632.45</v>
+        <v>621.95</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>626.1</v>
+        <v>612.3</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>628</v>
+        <v>617.9</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>627.05</v>
+        <v>617.05</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>630.45</v>
+        <v>613.1</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3035.65</v>
+        <v>3037.9</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3003.3</v>
+        <v>3002</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3033</v>
+        <v>3012</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3019.35</v>
+        <v>3015.35</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3018.25</v>
+        <v>3013.75</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>498.7</v>
+        <v>515.5</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>491.6</v>
+        <v>509.5</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>493.5</v>
+        <v>511.3</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>492.9</v>
+        <v>512</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>495.25</v>
+        <v>510.15</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1793.5</v>
+        <v>1874.7</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1750.05</v>
+        <v>1850</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1782</v>
+        <v>1865.1</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1783.05</v>
+        <v>1864.95</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1777</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7215.05</v>
+        <v>7286.65</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>7100.1</v>
+        <v>7193</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7210</v>
+        <v>7235</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7200.15</v>
+        <v>7244.9</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7124.8</v>
+        <v>7275.5</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>201.92</v>
+        <v>208.25</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>196.52</v>
+        <v>202.51</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>201.1</v>
+        <v>203.7</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>200.3</v>
+        <v>203.66</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>1098</v>
+        <v>273</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>196.97</v>
+        <v>202.67</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>253.85</v>
+        <v>244.45</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>249.65</v>
+        <v>240.85</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>249.85</v>
+        <v>244.05</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>250.1</v>
+        <v>243.85</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>251.45</v>
+        <v>242.75</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>534.5</v>
+        <v>505.2</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>522</v>
+        <v>495.15</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>523.95</v>
+        <v>497.2</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>524.95</v>
+        <v>497</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>309</v>
+        <v>108</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>533.7</v>
+        <v>502.55</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>849.55</v>
+        <v>851.8</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>838.65</v>
+        <v>840.15</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>846.05</v>
+        <v>841.5</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>845.1</v>
+        <v>841.65</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>840.5</v>
+        <v>850.6</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4979.5</v>
+        <v>4854.55</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4918.05</v>
+        <v>4787.15</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4956.25</v>
+        <v>4800</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4960.5</v>
+        <v>4800.1</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4931.5</v>
+        <v>4848.45</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>198.23</v>
+        <v>190.68</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>194.2</v>
+        <v>187.61</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>195.4</v>
+        <v>190</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>194.7</v>
+        <v>189.65</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>196.71</v>
+        <v>188.28</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1766.3</v>
+        <v>1797.7</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1742.2</v>
+        <v>1767.3</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1749.1</v>
+        <v>1794.6</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1753.25</v>
+        <v>1790.55</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1758.85</v>
+        <v>1780.05</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1656.3</v>
+        <v>1649.5</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1621.15</v>
+        <v>1642</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1625.75</v>
+        <v>1644.4</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1636.9</v>
+        <v>1645.45</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>2226</v>
+        <v>114</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1655.2</v>
+        <v>1648.25</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>708.5</v>
+        <v>672.4</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>695.1</v>
+        <v>667.25</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>700.3</v>
+        <v>669.3</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>701.35</v>
+        <v>669.95</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>695.5</v>
+        <v>669.05</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1235.55</v>
+        <v>1241.85</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1218.9</v>
+        <v>1231.3</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1232</v>
+        <v>1235.35</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1229.2</v>
+        <v>1235.95</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1223.5</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1430</v>
+        <v>1440.55</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1415.55</v>
+        <v>1418.9</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1427.45</v>
+        <v>1426.2</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1425.25</v>
+        <v>1422.9</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1416.45</v>
+        <v>1435.85</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1928</v>
+        <v>1909.6</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1949.85</v>
+        <v>1933</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1943.7</v>
+        <v>1933.15</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1934.15</v>
+        <v>1926.9</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>976</v>
+        <v>955.65</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>962.5</v>
+        <v>942.6</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>967.9</v>
+        <v>949.8</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>970.4</v>
+        <v>950.5</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>962.95</v>
+        <v>950</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>682</v>
+        <v>719.5</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>673.25</v>
+        <v>700.6</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>674.15</v>
+        <v>707.75</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>674.4</v>
+        <v>707.4</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>679</v>
+        <v>703.25</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>2821.55</v>
+        <v>2746.55</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>2765</v>
+        <v>2711.9</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>2812</v>
+        <v>2721</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2805.4</v>
+        <v>2723.1</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2773.2</v>
+        <v>2745.9</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>317.2</v>
+        <v>332.3</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>313.5</v>
+        <v>326</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>313.65</v>
+        <v>328.5</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>314.35</v>
+        <v>329.1</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>315.45</v>
+        <v>328.45</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>419.2</v>
+        <v>408.4</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>411.5</v>
+        <v>401.85</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>417.2</v>
+        <v>403</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>416.2</v>
+        <v>403.25</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>412.95</v>
+        <v>405.05</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>3056</v>
+        <v>3041</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>3006.65</v>
+        <v>2974.1</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>3024.95</v>
+        <v>2991</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>3019.25</v>
+        <v>2985.95</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3051.95</v>
+        <v>3039.65</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>820.7</v>
+        <v>822.15</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>814.35</v>
+        <v>815.6</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>816.25</v>
+        <v>818</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>815.6</v>
+        <v>818.75</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>816.5</v>
+        <v>816.35</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>829.45</v>
+        <v>812.5</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>811</v>
+        <v>794.9</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>822.5</v>
+        <v>798.5</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>821.9</v>
+        <v>796.4</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>813.45</v>
+        <v>807.1</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1096</v>
+        <v>1088.25</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1081.5</v>
+        <v>1076.3</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1082.1</v>
+        <v>1081.45</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1082.65</v>
+        <v>1081.25</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1083.8</v>
+        <v>1079.3</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>1097.45</v>
+        <v>1066.95</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>1109</v>
+        <v>1068.7</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>1111.35</v>
+        <v>1069.15</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>1111.5</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>437.4</v>
+        <v>424</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>431.8</v>
+        <v>419.15</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>434.95</v>
+        <v>420.7</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>434.65</v>
+        <v>420.9</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>432.25</v>
+        <v>421.3</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>155.25</v>
+        <v>152.79</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>152.47</v>
+        <v>151.4</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>153.3</v>
+        <v>152.03</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>152.76</v>
+        <v>151.72</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>551</v>
+        <v>283</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>153.62</v>
+        <v>152.66</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>11360.9</v>
+        <v>11822.75</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11255</v>
+        <v>11514.2</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11320</v>
+        <v>11532</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11301.9</v>
+        <v>11542.65</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11278.7</v>
+        <v>11781.3</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -597,8 +597,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>621.95</v>
+        <v>593.85</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>612.3</v>
+        <v>581.7</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>617.9</v>
+        <v>583.65</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>617.05</v>
+        <v>583.4</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>613.1</v>
+        <v>586.8</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3037.9</v>
+        <v>3179</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3002</v>
+        <v>3116</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3012</v>
+        <v>3137.65</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3015.35</v>
+        <v>3130.3</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3013.75</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>515.5</v>
+        <v>555.9</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>509.5</v>
+        <v>545</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>511.3</v>
+        <v>547.1</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>512</v>
+        <v>547.55</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>510.15</v>
+        <v>551.25</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1874.7</v>
+        <v>2029.9</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1850</v>
+        <v>1971.2</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1865.1</v>
+        <v>2004.75</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1864.95</v>
+        <v>2010.7</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1868</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7286.65</v>
+        <v>7810</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>7193</v>
+        <v>7712</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7235</v>
+        <v>7748</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7244.9</v>
+        <v>7756</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7275.5</v>
+        <v>7714.5</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>208.25</v>
+        <v>206.9</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>202.51</v>
+        <v>202.3</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>203.7</v>
+        <v>203.93</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>203.66</v>
+        <v>203.22</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>202.67</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>244.45</v>
+        <v>250</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>240.85</v>
+        <v>244.95</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>244.05</v>
+        <v>248.1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>243.85</v>
+        <v>249.6</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>242.75</v>
+        <v>244.95</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>505.2</v>
+        <v>517.85</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>495.15</v>
+        <v>506.2</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>497.2</v>
+        <v>513</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>497</v>
+        <v>516.1</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>502.55</v>
+        <v>506.3</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>851.8</v>
+        <v>929</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>840.15</v>
+        <v>905</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>841.5</v>
+        <v>915</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>841.65</v>
+        <v>914.05</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>850.6</v>
+        <v>926.15</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4854.55</v>
+        <v>5105</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4787.15</v>
+        <v>4976</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4800</v>
+        <v>5062.75</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4800.1</v>
+        <v>5062.6</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4848.45</v>
+        <v>5012.75</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>190.68</v>
+        <v>195.5</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>187.61</v>
+        <v>191.01</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>190</v>
+        <v>193.25</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>189.65</v>
+        <v>193.71</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>188.28</v>
+        <v>191.12</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1797.7</v>
+        <v>1828.55</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1767.3</v>
+        <v>1796.55</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1794.6</v>
+        <v>1809</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1790.55</v>
+        <v>1808.4</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1780.05</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1649.5</v>
+        <v>1775.8</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1642</v>
+        <v>1750</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1644.4</v>
+        <v>1753</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1645.45</v>
+        <v>1752.65</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1648.25</v>
+        <v>1770.15</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>672.4</v>
+        <v>757.7</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>667.25</v>
+        <v>744.65</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>669.3</v>
+        <v>744.65</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>669.95</v>
+        <v>747.15</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>669.05</v>
+        <v>750.4</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1241.85</v>
+        <v>1326.25</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1231.3</v>
+        <v>1303.85</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1235.35</v>
+        <v>1306.5</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1235.95</v>
+        <v>1306.6</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1241</v>
+        <v>1323.7</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1440.55</v>
+        <v>1481</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1418.9</v>
+        <v>1459.2</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1426.2</v>
+        <v>1462</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1422.9</v>
+        <v>1462.7</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1435.85</v>
+        <v>1464.25</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1940</v>
+        <v>1974.6</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1909.6</v>
+        <v>1903.3</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1933</v>
+        <v>1908</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1933.15</v>
+        <v>1906.75</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1926.9</v>
+        <v>1967.15</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>955.65</v>
+        <v>1044.05</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>942.6</v>
+        <v>1011.1</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>949.8</v>
+        <v>1020.45</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>950.5</v>
+        <v>1028.05</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>950</v>
+        <v>1035.15</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>719.5</v>
+        <v>671.35</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>700.6</v>
+        <v>663.05</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>707.75</v>
+        <v>665</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>707.4</v>
+        <v>664</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>703.25</v>
+        <v>666.3</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>2746.55</v>
+        <v>3222.1</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>2711.9</v>
+        <v>3152.55</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>2721</v>
+        <v>3190</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2723.1</v>
+        <v>3183.65</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2745.9</v>
+        <v>3160.35</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>332.3</v>
+        <v>343</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>326</v>
+        <v>332.1</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>328.5</v>
+        <v>334.95</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>329.1</v>
+        <v>333.5</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>328.45</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>408.4</v>
+        <v>442.5</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>401.85</v>
+        <v>434.05</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>403</v>
+        <v>440.3</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>403.25</v>
+        <v>436.9</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>142</v>
+        <v>538</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>405.05</v>
+        <v>435.2</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>3041</v>
+        <v>3066.95</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2974.1</v>
+        <v>2984</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>2991</v>
+        <v>3047.05</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2985.95</v>
+        <v>3052.35</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3039.65</v>
+        <v>2994.1</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>822.15</v>
+        <v>808</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>815.6</v>
+        <v>798.45</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>818</v>
+        <v>802.3</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>818.75</v>
+        <v>802.65</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>816.35</v>
+        <v>803.4</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>812.5</v>
+        <v>853.7</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>794.9</v>
+        <v>832</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>798.5</v>
+        <v>837.5</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>796.4</v>
+        <v>835.05</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>807.1</v>
+        <v>834.3</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1088.25</v>
+        <v>1089.8</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1076.3</v>
+        <v>1064.1</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1081.45</v>
+        <v>1066.45</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1081.25</v>
+        <v>1067.2</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1079.3</v>
+        <v>1067.75</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>1084</v>
+        <v>998.7</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>1066.95</v>
+        <v>989.15</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>1068.7</v>
+        <v>989.9</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>1069.15</v>
+        <v>993</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>1080</v>
+        <v>991.15</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>424</v>
+        <v>494.85</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>419.15</v>
+        <v>477.5</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>420.7</v>
+        <v>484.4</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>420.9</v>
+        <v>485.5</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>421.3</v>
+        <v>480.5</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>152.79</v>
+        <v>169.01</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>151.4</v>
+        <v>165.89</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>152.03</v>
+        <v>166.13</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>151.72</v>
+        <v>166.55</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>283</v>
+        <v>727</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>152.66</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>11822.75</v>
+        <v>12138</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11514.2</v>
+        <v>11924.75</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11532</v>
+        <v>11950</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11542.65</v>
+        <v>11952.3</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11781.3</v>
+        <v>12062.05</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -597,8 +597,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>593.85</v>
+        <v>592.8</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>581.7</v>
+        <v>581.3</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>583.65</v>
+        <v>588</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>583.4</v>
+        <v>587</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>586.8</v>
+        <v>583.2</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3179</v>
+        <v>3192</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3116</v>
+        <v>3107</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3137.65</v>
+        <v>3183</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3130.3</v>
+        <v>3186.1</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3127</v>
+        <v>3131.2</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>555.9</v>
+        <v>552.15</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>545</v>
+        <v>546.2</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>547.1</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>547.55</v>
+        <v>550.75</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>551.25</v>
+        <v>549.6</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>2029.9</v>
+        <v>2007.1</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1971.2</v>
+        <v>1970.4</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>2004.75</v>
+        <v>1975.2</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>2010.7</v>
+        <v>1975.25</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1973</v>
+        <v>1979.6</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7810</v>
+        <v>7814.65</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>7712</v>
+        <v>7656.25</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7748</v>
+        <v>7722</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7756</v>
+        <v>7703</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7714.5</v>
+        <v>7670.7</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>206.9</v>
+        <v>198.03</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>202.3</v>
+        <v>195</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>203.93</v>
+        <v>195.48</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>203.22</v>
+        <v>195.28</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>206.25</v>
+        <v>197.72</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>250</v>
+        <v>251.4</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>244.95</v>
+        <v>248.1</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>248.1</v>
+        <v>248.3</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>249.6</v>
+        <v>248.91</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>244.95</v>
+        <v>250.75</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>517.85</v>
+        <v>516</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>506.2</v>
+        <v>506.15</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>513</v>
+        <v>508.5</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>516.1</v>
+        <v>508.5</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>506.3</v>
+        <v>515.8</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>929</v>
+        <v>916.1</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>905</v>
+        <v>895.3</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>915</v>
+        <v>912.55</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>914.05</v>
+        <v>913.75</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>926.15</v>
+        <v>904.75</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>5105</v>
+        <v>5016.35</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4976</v>
+        <v>4952</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>5062.75</v>
+        <v>4977.4</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5062.6</v>
+        <v>4972.65</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5012.75</v>
+        <v>5013.3</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>195.5</v>
+        <v>200.1</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>191.01</v>
+        <v>196.27</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>193.25</v>
+        <v>197.3</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>193.71</v>
+        <v>197.12</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>191.12</v>
+        <v>196.71</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1828.55</v>
+        <v>1822.45</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1796.55</v>
+        <v>1794.6</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1809</v>
+        <v>1816.45</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1808.4</v>
+        <v>1816.5</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1826</v>
+        <v>1802.75</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1775.8</v>
+        <v>1740.5</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1750</v>
+        <v>1720.1</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1753</v>
+        <v>1728.3</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1752.65</v>
+        <v>1726.2</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1770.15</v>
+        <v>1739.6</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>757.7</v>
+        <v>765.5</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>744.65</v>
+        <v>745.2</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>744.65</v>
+        <v>760</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>747.15</v>
+        <v>761.55</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>750.4</v>
+        <v>752.05</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1326.25</v>
+        <v>1280.25</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1303.85</v>
+        <v>1267.6</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1306.5</v>
+        <v>1277</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1306.6</v>
+        <v>1274.4</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1323.7</v>
+        <v>1279.15</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1481</v>
+        <v>1449.05</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1459.2</v>
+        <v>1404.65</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1462</v>
+        <v>1409.15</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1462.7</v>
+        <v>1409.7</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1464.25</v>
+        <v>1444.95</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1974.6</v>
+        <v>1908.95</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1903.3</v>
+        <v>1883.1</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1906.75</v>
+        <v>1904.35</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1967.15</v>
+        <v>1890.25</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1044.05</v>
+        <v>1039.6</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>1011.1</v>
+        <v>1019.45</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>1020.45</v>
+        <v>1033.45</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1028.05</v>
+        <v>1035.35</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1035.15</v>
+        <v>1038.65</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>671.35</v>
+        <v>668.75</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>663.05</v>
+        <v>657.5</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>665</v>
+        <v>658.5</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>664</v>
+        <v>659.25</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>666.3</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>3222.1</v>
+        <v>3185.45</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>3152.55</v>
+        <v>3111.55</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>3190</v>
+        <v>3168</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3183.65</v>
+        <v>3165.5</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3160.35</v>
+        <v>3128.7</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>343</v>
+        <v>338.45</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>332.1</v>
+        <v>328.05</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>334.95</v>
+        <v>332.55</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>333.5</v>
+        <v>330.1</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>339</v>
+        <v>337.75</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>442.5</v>
+        <v>446.55</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>434.05</v>
+        <v>438.8</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>440.3</v>
+        <v>440.8</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>436.9</v>
+        <v>440.1</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>538</v>
+        <v>159</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>435.2</v>
+        <v>444.6</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>3066.95</v>
+        <v>2967.65</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2984</v>
+        <v>2925.65</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>3047.05</v>
+        <v>2927</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>3052.35</v>
+        <v>2929.65</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2994.1</v>
+        <v>2967.35</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>808</v>
+        <v>800.35</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>798.45</v>
+        <v>791.7</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>802.3</v>
+        <v>795.5</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>802.65</v>
+        <v>796.95</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>803.4</v>
+        <v>794.75</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>853.7</v>
+        <v>853</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>832</v>
+        <v>833.85</v>
       </c>
       <c r="D26" s="15" t="n">
+        <v>849.3</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>849.65</v>
+      </c>
+      <c r="F26" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6" t="n">
         <v>837.5</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>835.05</v>
-      </c>
-      <c r="F26" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>834.3</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1089.8</v>
+        <v>1139.95</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1064.1</v>
+        <v>1090.35</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1066.45</v>
+        <v>1130.9</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1067.2</v>
+        <v>1132.6</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1067.75</v>
+        <v>1093.8</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>998.7</v>
+        <v>984.5</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>989.15</v>
+        <v>958.9</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>989.9</v>
+        <v>966.4</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>993</v>
+        <v>965.2</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>991.15</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>494.85</v>
+        <v>491.2</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>477.5</v>
+        <v>479.4</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>484.4</v>
+        <v>481</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>485.5</v>
+        <v>481.25</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>480.5</v>
+        <v>486.7</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>169.01</v>
+        <v>168.37</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>165.89</v>
+        <v>165.1</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>166.13</v>
+        <v>166.7</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>166.55</v>
+        <v>167.03</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>727</v>
+        <v>507</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>167</v>
+        <v>168.12</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>12138</v>
+        <v>11887.7</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11924.75</v>
+        <v>11650.25</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11950</v>
+        <v>11849.85</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11952.3</v>
+        <v>11837.15</v>
       </c>
       <c r="F31" s="19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>12062.05</v>
+        <v>11798.8</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1402,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G29"/>
+      <selection activeCell="L9" sqref="L9:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1546,6 +1546,24 @@
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
+      <c r="J9" t="n">
+        <v>587.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>579.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>582.15</v>
+      </c>
+      <c r="M9" t="n">
+        <v>582.95</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>586</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1559,6 +1577,24 @@
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
+      <c r="J10" t="n">
+        <v>3179</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3116</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3131</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3135.85</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3127</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1572,6 +1608,24 @@
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
+      <c r="J11" t="n">
+        <v>555.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>545</v>
+      </c>
+      <c r="L11" t="n">
+        <v>547.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>547.85</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>551.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1585,6 +1639,24 @@
       <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
+      <c r="J12" t="n">
+        <v>2029.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1971.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1969.65</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1973.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>18</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1973</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1598,6 +1670,24 @@
       <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
+      <c r="J13" t="n">
+        <v>7810</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7712</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7697.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7703</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7714.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1611,6 +1701,24 @@
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
+      <c r="J14" t="n">
+        <v>3209.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3120.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>198.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>198.74</v>
+      </c>
+      <c r="N14" t="n">
+        <v>94</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3143</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1624,6 +1732,24 @@
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
+      <c r="J15" t="n">
+        <v>551</v>
+      </c>
+      <c r="K15" t="n">
+        <v>538.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>247</v>
+      </c>
+      <c r="M15" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>129</v>
+      </c>
+      <c r="O15" t="n">
+        <v>543.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1637,6 +1763,24 @@
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
+      <c r="J16" t="n">
+        <v>2018.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1968.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>509.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>510.15</v>
+      </c>
+      <c r="N16" t="n">
+        <v>88</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2008.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1650,6 +1794,24 @@
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
+      <c r="J17" t="n">
+        <v>7800</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7676.15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>895.45</v>
+      </c>
+      <c r="M17" t="n">
+        <v>895.15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>46</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7757.75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1663,6 +1825,24 @@
       <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
       <c r="G18" s="1" t="n"/>
+      <c r="J18" t="n">
+        <v>204.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>197.85</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5036.15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5026.25</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>203.81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1676,6 +1856,24 @@
       <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
       <c r="G19" s="1" t="n"/>
+      <c r="J19" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>246.15</v>
+      </c>
+      <c r="L19" t="n">
+        <v>196.69</v>
+      </c>
+      <c r="M19" t="n">
+        <v>196.73</v>
+      </c>
+      <c r="N19" t="n">
+        <v>129</v>
+      </c>
+      <c r="O19" t="n">
+        <v>248.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1689,6 +1887,24 @@
       <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="n"/>
       <c r="G20" s="1" t="n"/>
+      <c r="J20" t="n">
+        <v>513.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1796</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1796.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>21</v>
+      </c>
+      <c r="O20" t="n">
+        <v>508.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1702,6 +1918,24 @@
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
+      <c r="J21" t="n">
+        <v>916.35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>893.05</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1732</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1732.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>131</v>
+      </c>
+      <c r="O21" t="n">
+        <v>916.3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1715,6 +1949,24 @@
       <c r="E22" s="1" t="n"/>
       <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
+      <c r="J22" t="n">
+        <v>5085</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4998.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>755</v>
+      </c>
+      <c r="M22" t="n">
+        <v>756.2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>85</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5050</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1728,6 +1980,24 @@
       <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
+      <c r="J23" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1273.95</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1273</v>
+      </c>
+      <c r="N23" t="n">
+        <v>126</v>
+      </c>
+      <c r="O23" t="n">
+        <v>194.92</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1741,6 +2011,24 @@
       <c r="E24" s="1" t="n"/>
       <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
+      <c r="J24" t="n">
+        <v>1820.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1789.15</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1445</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1447.6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>28</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1810.4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1754,6 +2042,24 @@
       <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
       <c r="G25" s="1" t="n"/>
+      <c r="J25" t="n">
+        <v>1750.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1724.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1877.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1875.6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>69</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1748.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1767,6 +2073,24 @@
       <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
       <c r="G26" s="1" t="n"/>
+      <c r="J26" t="n">
+        <v>763.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>753.15</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1038</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1039.65</v>
+      </c>
+      <c r="N26" t="n">
+        <v>30</v>
+      </c>
+      <c r="O26" t="n">
+        <v>760.65</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1780,6 +2104,24 @@
       <c r="E27" s="1" t="n"/>
       <c r="F27" s="1" t="n"/>
       <c r="G27" s="1" t="n"/>
+      <c r="J27" t="n">
+        <v>1291.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1270.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>662.9</v>
+      </c>
+      <c r="M27" t="n">
+        <v>662.45</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1289.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1793,6 +2135,24 @@
       <c r="E28" s="1" t="n"/>
       <c r="F28" s="1" t="n"/>
       <c r="G28" s="1" t="n"/>
+      <c r="J28" t="n">
+        <v>1455.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1437</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3115</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3094.9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>35</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1455</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1806,6 +2166,204 @@
       <c r="E29" s="1" t="n"/>
       <c r="F29" s="1" t="n"/>
       <c r="G29" s="1" t="n"/>
+      <c r="J29" t="n">
+        <v>1901.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1870.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>340.35</v>
+      </c>
+      <c r="M29" t="n">
+        <v>338.35</v>
+      </c>
+      <c r="N29" t="n">
+        <v>49</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1889.55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="J30" t="n">
+        <v>1058.85</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1023.55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>443</v>
+      </c>
+      <c r="M30" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>209</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1032.45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="J31" t="n">
+        <v>670.55</v>
+      </c>
+      <c r="K31" t="n">
+        <v>659.25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2958</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2953.15</v>
+      </c>
+      <c r="N31" t="n">
+        <v>135</v>
+      </c>
+      <c r="O31" t="n">
+        <v>662.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="J32" t="n">
+        <v>3151.95</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3087</v>
+      </c>
+      <c r="L32" t="n">
+        <v>788</v>
+      </c>
+      <c r="M32" t="n">
+        <v>787.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>154</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3137.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="J33" t="n">
+        <v>341.65</v>
+      </c>
+      <c r="K33" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="L33" t="n">
+        <v>833.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>833.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>334.75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="J34" t="n">
+        <v>445.95</v>
+      </c>
+      <c r="K34" t="n">
+        <v>433.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1091.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1091.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>24</v>
+      </c>
+      <c r="O34" t="n">
+        <v>444.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="J35" t="n">
+        <v>3027.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2948.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>975.8</v>
+      </c>
+      <c r="M35" t="n">
+        <v>974.65</v>
+      </c>
+      <c r="N35" t="n">
+        <v>122</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3025.35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="J36" t="n">
+        <v>799.3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>786.45</v>
+      </c>
+      <c r="L36" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>482.6</v>
+      </c>
+      <c r="N36" t="n">
+        <v>157</v>
+      </c>
+      <c r="O36" t="n">
+        <v>798.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="J37" t="n">
+        <v>837.95</v>
+      </c>
+      <c r="K37" t="n">
+        <v>824.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>168.11</v>
+      </c>
+      <c r="M37" t="n">
+        <v>168.55</v>
+      </c>
+      <c r="N37" t="n">
+        <v>923</v>
+      </c>
+      <c r="O37" t="n">
+        <v>832.95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="J38" t="n">
+        <v>1101.3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1074.15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11800</v>
+      </c>
+      <c r="M38" t="n">
+        <v>11802</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1092.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>592.8</v>
+        <v>531.9</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>581.3</v>
+        <v>526</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>588</v>
+        <v>530.05</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>587</v>
+        <v>529.2</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>583.2</v>
+        <v>528.35</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3107</v>
+        <v>3116</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3183</v>
+        <v>3129.95</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3186.1</v>
+        <v>3137.2</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3131.2</v>
+        <v>3186.8</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>552.15</v>
+        <v>510.95</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>546.2</v>
+        <v>501.25</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>547.1</v>
+        <v>504.7</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>550.75</v>
+        <v>505.05</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>549.6</v>
+        <v>505.6</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>2007.1</v>
+        <v>1879.9</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1970.4</v>
+        <v>1855.1</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1975.2</v>
+        <v>1877.95</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1975.25</v>
+        <v>1876.4</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1979.6</v>
+        <v>1864.3</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7814.65</v>
+        <v>7317.95</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>7656.25</v>
+        <v>7226.05</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7722</v>
+        <v>7300.1</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7703</v>
+        <v>7302</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7670.7</v>
+        <v>7262.7</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>198.03</v>
+        <v>211.8</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>195</v>
+        <v>200.25</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>195.48</v>
+        <v>209.44</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>195.28</v>
+        <v>210.26</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>134</v>
+        <v>1298</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>197.72</v>
+        <v>201.35</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>251.4</v>
+        <v>248.2</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>248.1</v>
+        <v>242.13</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>248.3</v>
+        <v>242.48</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>248.91</v>
+        <v>242.42</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>250.75</v>
+        <v>246.75</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>516</v>
+        <v>493.9</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>506.15</v>
+        <v>488</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>508.5</v>
+        <v>493.1</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>508.5</v>
+        <v>492.95</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>515.8</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>916.1</v>
+        <v>859.75</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>895.3</v>
+        <v>841.75</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>912.55</v>
+        <v>845.8</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>913.75</v>
+        <v>846.6</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>904.75</v>
+        <v>854.35</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>5016.35</v>
+        <v>4808.15</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4952</v>
+        <v>4664.15</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4977.4</v>
+        <v>4735.9</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4972.65</v>
+        <v>4728.05</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5013.3</v>
+        <v>4670.05</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>200.1</v>
+        <v>189.3</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>196.27</v>
+        <v>186.63</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>197.3</v>
+        <v>187.58</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>197.12</v>
+        <v>187.55</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>196.71</v>
+        <v>187.15</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1822.45</v>
+        <v>1852.8</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1794.6</v>
+        <v>1821</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1816.45</v>
+        <v>1839.95</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1816.5</v>
+        <v>1839.65</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1802.75</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1740.5</v>
+        <v>1659.05</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1720.1</v>
+        <v>1643.25</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1728.3</v>
+        <v>1651.5</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1726.2</v>
+        <v>1651</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1739.6</v>
+        <v>1652.15</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>765.5</v>
+        <v>749.95</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>745.2</v>
+        <v>736.05</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>760</v>
+        <v>746.7</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>761.55</v>
+        <v>747.35</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>752.05</v>
+        <v>737.6</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1280.25</v>
+        <v>1237.55</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1267.6</v>
+        <v>1222</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1277</v>
+        <v>1223.3</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1274.4</v>
+        <v>1223</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1279.15</v>
+        <v>1234.7</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1449.05</v>
+        <v>1371.3</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1404.65</v>
+        <v>1339</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1409.15</v>
+        <v>1347.85</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1409.7</v>
+        <v>1347.6</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1444.95</v>
+        <v>1356.15</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1908.95</v>
+        <v>1947</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1883.1</v>
+        <v>1915.5</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1906</v>
+        <v>1935</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1904.35</v>
+        <v>1935.1</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1890.25</v>
+        <v>1920.65</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1039.6</v>
+        <v>1014</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>1019.45</v>
+        <v>996.65</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>1033.45</v>
+        <v>1003.9</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1035.35</v>
+        <v>1005.85</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1038.65</v>
+        <v>997.45</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>668.75</v>
+        <v>621.65</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>657.5</v>
+        <v>614.15</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>658.5</v>
+        <v>620.05</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>659.25</v>
+        <v>619.5</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>666</v>
+        <v>615.55</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>3185.45</v>
+        <v>3188</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>3111.55</v>
+        <v>3121</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>3168</v>
+        <v>3136.8</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3165.5</v>
+        <v>3134.35</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3128.7</v>
+        <v>3180.75</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>338.45</v>
+        <v>287.05</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>328.05</v>
+        <v>282.6</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>332.55</v>
+        <v>284.4</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>330.1</v>
+        <v>284.05</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>337.75</v>
+        <v>284.45</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>446.55</v>
+        <v>426.65</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>438.8</v>
+        <v>420.3</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>440.8</v>
+        <v>422.5</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>440.1</v>
+        <v>422.5</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>444.6</v>
+        <v>420.6</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>2967.65</v>
+        <v>2766.55</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2925.65</v>
+        <v>2740</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>2927</v>
+        <v>2749</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2929.65</v>
+        <v>2744.2</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2967.35</v>
+        <v>2751.95</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>800.35</v>
+        <v>802.7</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>791.7</v>
+        <v>793</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>795.5</v>
+        <v>799</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>796.95</v>
+        <v>799.75</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>794.75</v>
+        <v>797</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>853</v>
+        <v>795.65</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>833.85</v>
+        <v>782</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>849.3</v>
+        <v>782.45</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>849.65</v>
+        <v>783.85</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>837.5</v>
+        <v>787.05</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1139.95</v>
+        <v>1188.7</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1090.35</v>
+        <v>1152.9</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1130.9</v>
+        <v>1183.5</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1132.6</v>
+        <v>1183.1</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1093.8</v>
+        <v>1161.75</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>984.5</v>
+        <v>937</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>958.9</v>
+        <v>928.5</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>966.4</v>
+        <v>931.4</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>965.2</v>
+        <v>930.7</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>980</v>
+        <v>930.15</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>491.2</v>
+        <v>466.3</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>479.4</v>
+        <v>459.55</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>481</v>
+        <v>461.5</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>481.25</v>
+        <v>461.15</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>486.7</v>
+        <v>462.7</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>168.37</v>
+        <v>163.78</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>165.1</v>
+        <v>160.39</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>166.7</v>
+        <v>160.85</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>167.03</v>
+        <v>160.66</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>168.12</v>
+        <v>160.7</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>11887.7</v>
+        <v>11468.3</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11650.25</v>
+        <v>11377.05</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11849.85</v>
+        <v>11423.2</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11837.15</v>
+        <v>11421.3</v>
       </c>
       <c r="F31" s="19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11798.8</v>
+        <v>11391.5</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>531.9</v>
+        <v>541.65</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>526</v>
+        <v>534.95</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>530.05</v>
+        <v>539</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>529.2</v>
+        <v>539</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>528.35</v>
+        <v>536.65</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3190</v>
+        <v>3128</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3116</v>
+        <v>3091.5</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3129.95</v>
+        <v>3103.25</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3137.2</v>
+        <v>3104.7</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3186.8</v>
+        <v>3116.25</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>510.95</v>
+        <v>518.7</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>501.25</v>
+        <v>508.05</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>504.7</v>
+        <v>516</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>505.05</v>
+        <v>515</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>505.6</v>
+        <v>508.2</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1879.9</v>
+        <v>1895.75</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1855.1</v>
+        <v>1842</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1877.95</v>
+        <v>1856.95</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1876.4</v>
+        <v>1853.95</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1864.3</v>
+        <v>1881.2</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7317.95</v>
+        <v>7252.85</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>7226.05</v>
+        <v>6979</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7300.1</v>
+        <v>7029.8</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7302</v>
+        <v>7016.9</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7262.7</v>
+        <v>7244.65</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>211.8</v>
+        <v>199.94</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>200.25</v>
+        <v>193.81</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>209.44</v>
+        <v>194.39</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>210.26</v>
+        <v>194.35</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>1298</v>
+        <v>216</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>201.35</v>
+        <v>199.93</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>248.2</v>
+        <v>248.14</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>242.13</v>
+        <v>242.18</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>242.48</v>
+        <v>244.3</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>242.42</v>
+        <v>243.81</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>246.75</v>
+        <v>247.7</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>493.9</v>
+        <v>499</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>488</v>
+        <v>490.05</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>493.1</v>
+        <v>494.8</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>492.95</v>
+        <v>494.45</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>488.6</v>
+        <v>497.4</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>859.75</v>
+        <v>877.25</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>841.75</v>
+        <v>857.05</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>845.8</v>
+        <v>875.05</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>846.6</v>
+        <v>875.45</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>854.35</v>
+        <v>861.95</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4808.15</v>
+        <v>4774.2</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4664.15</v>
+        <v>4695.9</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4735.9</v>
+        <v>4723</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4728.05</v>
+        <v>4722.1</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4670.05</v>
+        <v>4764.3</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>189.3</v>
+        <v>199.13</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>186.63</v>
+        <v>195.6</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>187.58</v>
+        <v>198.5</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>187.55</v>
+        <v>198.62</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>187.15</v>
+        <v>197.1</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1852.8</v>
+        <v>1882.75</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1821</v>
+        <v>1852.5</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1839.95</v>
+        <v>1866</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1839.65</v>
+        <v>1870.1</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1845</v>
+        <v>1873.1</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1659.05</v>
+        <v>1689.75</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1643.25</v>
+        <v>1675.5</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1651.5</v>
+        <v>1686</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1651</v>
+        <v>1684.1</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1652.15</v>
+        <v>1687.85</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>749.95</v>
+        <v>738.9</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>736.05</v>
+        <v>720.65</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>746.7</v>
+        <v>726.75</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>747.35</v>
+        <v>726.95</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>737.6</v>
+        <v>738.3</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
+        <v>1258.3</v>
+      </c>
+      <c r="C16" s="12" t="n">
         <v>1237.55</v>
       </c>
-      <c r="C16" s="12" t="n">
-        <v>1222</v>
-      </c>
       <c r="D16" s="15" t="n">
-        <v>1223.3</v>
+        <v>1256</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1223</v>
+        <v>1255.5</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1234.7</v>
+        <v>1242.35</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1371.3</v>
+        <v>1372</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1339</v>
+        <v>1349.45</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1347.85</v>
+        <v>1360.95</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1347.6</v>
+        <v>1360.9</v>
       </c>
       <c r="F17" s="18" t="n">
         <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1356.15</v>
+        <v>1370.1</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1947</v>
+        <v>1989.9</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1915.5</v>
+        <v>1951.75</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1935</v>
+        <v>1960</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1935.1</v>
+        <v>1959.3</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1920.65</v>
+        <v>1986.35</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1014</v>
+        <v>987.6</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>996.65</v>
+        <v>965</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>1003.9</v>
+        <v>968</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1005.85</v>
+        <v>968.7</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>997.45</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>621.65</v>
+        <v>627.9</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>614.15</v>
+        <v>621.1</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>620.05</v>
+        <v>627.15</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>619.5</v>
+        <v>625.95</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>615.55</v>
+        <v>623.8</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>3188</v>
+        <v>3163.1</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>3121</v>
+        <v>3086.55</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>3136.8</v>
+        <v>3154.8</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3134.35</v>
+        <v>3155.8</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3180.75</v>
+        <v>3146.45</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>287.05</v>
+        <v>288.3</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>282.6</v>
+        <v>283.1</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>284.4</v>
+        <v>288</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>284.05</v>
+        <v>286.4</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>284.45</v>
+        <v>285.95</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>426.65</v>
+        <v>427.2</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>420.3</v>
+        <v>423.9</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>422.5</v>
+        <v>425.8</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>422.5</v>
+        <v>426.6</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>420.6</v>
+        <v>424.15</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>2766.55</v>
+        <v>2738.1</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2740</v>
+        <v>2681.4</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>2749</v>
+        <v>2688.6</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2744.2</v>
+        <v>2688.05</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2751.95</v>
+        <v>2733.05</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>802.7</v>
+        <v>807.5</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>793</v>
+        <v>801.6</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>799.75</v>
+        <v>804.65</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>797</v>
+        <v>806.75</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>795.65</v>
+        <v>789.95</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>782</v>
+        <v>777.1</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>782.45</v>
+        <v>780</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>783.85</v>
+        <v>778.9</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>787.05</v>
+        <v>787.6</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1188.7</v>
+        <v>1121.75</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1152.9</v>
+        <v>1095.15</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1183.5</v>
+        <v>1102</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1183.1</v>
+        <v>1099</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1161.75</v>
+        <v>1114.8</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>937</v>
+        <v>931.8</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>928.5</v>
+        <v>913</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>931.4</v>
+        <v>918.9</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>930.7</v>
+        <v>917.3</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>930.15</v>
+        <v>929.3</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>466.3</v>
+        <v>474.4</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>459.55</v>
+        <v>461.05</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>461.5</v>
+        <v>463</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>461.15</v>
+        <v>463.5</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>462.7</v>
+        <v>463.7</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>163.78</v>
+        <v>157.84</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>160.39</v>
+        <v>155.05</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>160.85</v>
+        <v>155.66</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>160.66</v>
+        <v>155.63</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>532</v>
+        <v>389</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>160.7</v>
+        <v>157.65</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>11468.3</v>
+        <v>11432.95</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11377.05</v>
+        <v>11290</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11423.2</v>
+        <v>11425</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11421.3</v>
+        <v>11416.9</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11391.5</v>
+        <v>11389.95</v>
       </c>
     </row>
   </sheetData>

--- a/cash high low.xlsx
+++ b/cash high low.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>541.65</v>
+        <v>526.45</v>
       </c>
       <c r="C2" s="11" t="n">
-        <v>534.95</v>
+        <v>509.05</v>
       </c>
       <c r="D2" s="14" t="n">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>539</v>
+        <v>524.25</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>536.65</v>
+        <v>516.3</v>
       </c>
     </row>
     <row r="3">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>3128</v>
+        <v>3031.7</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>3091.5</v>
+        <v>2974.05</v>
       </c>
       <c r="D3" s="14" t="n">
-        <v>3103.25</v>
+        <v>2999.95</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3104.7</v>
+        <v>3002</v>
       </c>
       <c r="F3" s="17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3116.25</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="4">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>518.7</v>
+        <v>510.9</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>508.05</v>
+        <v>498.2</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>516</v>
+        <v>505.55</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>515</v>
+        <v>505.75</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>508.2</v>
+        <v>499.15</v>
       </c>
     </row>
     <row r="5">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1895.75</v>
+        <v>1833.3</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1842</v>
+        <v>1800</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>1856.95</v>
+        <v>1821.5</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1853.95</v>
+        <v>1819.9</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1881.2</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="6">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>7252.85</v>
+        <v>6938.65</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>6979</v>
+        <v>6820.7</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>7029.8</v>
+        <v>6910.05</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7016.9</v>
+        <v>6899.55</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7244.65</v>
+        <v>6844.25</v>
       </c>
     </row>
     <row r="7">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>199.94</v>
+        <v>192.68</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>193.81</v>
+        <v>188.68</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>194.39</v>
+        <v>191.96</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>194.35</v>
+        <v>191.96</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>199.93</v>
+        <v>188.9</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>248.14</v>
+        <v>248.75</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>242.18</v>
+        <v>237.85</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>244.3</v>
+        <v>247.5</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>243.81</v>
+        <v>247.97</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>247.7</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="9">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>499</v>
+        <v>493.75</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>490.05</v>
+        <v>483.35</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>494.8</v>
+        <v>491.05</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>494.45</v>
+        <v>492.2</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>497.4</v>
+        <v>484.7</v>
       </c>
     </row>
     <row r="10">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>877.25</v>
+        <v>880.35</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>857.05</v>
+        <v>848.7</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>875.05</v>
+        <v>874</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>875.45</v>
+        <v>875.15</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>861.95</v>
+        <v>851.25</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>4774.2</v>
+        <v>4799.9</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>4695.9</v>
+        <v>4670.6</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>4723</v>
+        <v>4761.75</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4722.1</v>
+        <v>4765.65</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4764.3</v>
+        <v>4691.6</v>
       </c>
     </row>
     <row r="12">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>199.13</v>
+        <v>196.25</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>195.6</v>
+        <v>190.59</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>198.5</v>
+        <v>195.05</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>198.62</v>
+        <v>195.3</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>197.1</v>
+        <v>190.86</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>1882.75</v>
+        <v>1870.5</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1852.5</v>
+        <v>1843</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>1866</v>
+        <v>1856.55</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1870.1</v>
+        <v>1857.7</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1873.1</v>
+        <v>1862.95</v>
       </c>
     </row>
     <row r="14">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>1689.75</v>
+        <v>1691</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>1675.5</v>
+        <v>1654.1</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>1686</v>
+        <v>1684.8</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1684.1</v>
+        <v>1681.85</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1687.85</v>
+        <v>1655.7</v>
       </c>
     </row>
     <row r="15">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>738.9</v>
+        <v>756.45</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>720.65</v>
+        <v>725.5</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>726.75</v>
+        <v>753.2</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>726.95</v>
+        <v>753.5</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>738.3</v>
+        <v>725.6</v>
       </c>
     </row>
     <row r="16">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B16" s="9" t="n">
-        <v>1258.3</v>
+        <v>1268.9</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>1237.55</v>
+        <v>1225.75</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>1256</v>
+        <v>1267</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>1255.5</v>
+        <v>1264.5</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1242.35</v>
+        <v>1228.55</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>1372</v>
+        <v>1354.95</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>1349.45</v>
+        <v>1331.5</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>1360.95</v>
+        <v>1347.95</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1360.9</v>
+        <v>1347.25</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1370.1</v>
+        <v>1333.85</v>
       </c>
     </row>
     <row r="18">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1989.9</v>
+        <v>1936.85</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>1951.75</v>
+        <v>1869.25</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>1960</v>
+        <v>1885</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1959.3</v>
+        <v>1879.6</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1986.35</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="19">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>987.6</v>
+        <v>973.2</v>
       </c>
       <c r="C19" s="12" t="n">
+        <v>923.7</v>
+      </c>
+      <c r="D19" s="15" t="n">
         <v>965</v>
       </c>
-      <c r="D19" s="15" t="n">
-        <v>968</v>
-      </c>
       <c r="E19" s="6" t="n">
-        <v>968.7</v>
+        <v>964.5</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>983</v>
+        <v>924</v>
       </c>
     </row>
     <row r="20">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B20" s="9" t="n">
-        <v>627.9</v>
+        <v>619.9</v>
       </c>
       <c r="C20" s="12" t="n">
-        <v>621.1</v>
+        <v>602.25</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>627.15</v>
+        <v>619.6</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>625.95</v>
+        <v>618.6</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>623.8</v>
+        <v>602.55</v>
       </c>
     </row>
     <row r="21">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>3163.1</v>
+        <v>2988.85</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>3086.55</v>
+        <v>2928</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>3154.8</v>
+        <v>2965</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3155.8</v>
+        <v>2964.25</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3146.45</v>
+        <v>2940.75</v>
       </c>
     </row>
     <row r="22">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B22" s="9" t="n">
-        <v>288.3</v>
+        <v>293.4</v>
       </c>
       <c r="C22" s="12" t="n">
-        <v>283.1</v>
+        <v>280</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>288</v>
+        <v>291.1</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>286.4</v>
+        <v>291</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>285.95</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>427.2</v>
+        <v>425.95</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>423.9</v>
+        <v>414.85</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>425.8</v>
+        <v>425.1</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>426.6</v>
+        <v>424.95</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>424.15</v>
+        <v>414.95</v>
       </c>
     </row>
     <row r="24">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>2738.1</v>
+        <v>2736.85</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>2681.4</v>
+        <v>2682.65</v>
       </c>
       <c r="D24" s="15" t="n">
-        <v>2688.6</v>
+        <v>2717</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2688.05</v>
+        <v>2718.6</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2733.05</v>
+        <v>2684.1</v>
       </c>
     </row>
     <row r="25">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>807.5</v>
+        <v>822.6</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>801.6</v>
+        <v>802.9</v>
       </c>
       <c r="D25" s="15" t="n">
-        <v>805</v>
+        <v>819.95</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>804.65</v>
+        <v>820.4</v>
       </c>
       <c r="F25" s="18" t="n">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>806.75</v>
+        <v>804.95</v>
       </c>
     </row>
     <row r="26">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>789.95</v>
+        <v>763.95</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>777.1</v>
+        <v>757</v>
       </c>
       <c r="D26" s="15" t="n">
-        <v>780</v>
+        <v>759.15</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>778.9</v>
+        <v>759.95</v>
       </c>
       <c r="F26" s="18" t="n">
         <v>4</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>787.6</v>
+        <v>757.3</v>
       </c>
     </row>
     <row r="27">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>1121.75</v>
+        <v>1093.45</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>1095.15</v>
+        <v>1040</v>
       </c>
       <c r="D27" s="15" t="n">
-        <v>1102</v>
+        <v>1083.95</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1099</v>
+        <v>1088.1</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1114.8</v>
+        <v>1047.95</v>
       </c>
     </row>
     <row r="28">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B28" s="9" t="n">
-        <v>931.8</v>
+        <v>917.7</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>913</v>
+        <v>889.2</v>
       </c>
       <c r="D28" s="15" t="n">
-        <v>918.9</v>
+        <v>911</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>917.3</v>
+        <v>910.15</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>929.3</v>
+        <v>890.5</v>
       </c>
     </row>
     <row r="29">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B29" s="9" t="n">
-        <v>474.4</v>
+        <v>456.5</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>461.05</v>
+        <v>443.15</v>
       </c>
       <c r="D29" s="15" t="n">
-        <v>463</v>
+        <v>453.55</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>463.5</v>
+        <v>453.55</v>
       </c>
       <c r="F29" s="18" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>463.7</v>
+        <v>443.7</v>
       </c>
     </row>
     <row r="30">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B30" s="9" t="n">
-        <v>157.84</v>
+        <v>156.2</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>155.05</v>
+        <v>151.1</v>
       </c>
       <c r="D30" s="15" t="n">
-        <v>155.66</v>
+        <v>155.5</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>155.63</v>
+        <v>155.39</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>157.65</v>
+        <v>151.16</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" thickBot="1">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>11432.95</v>
+        <v>11139.95</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>11290</v>
+        <v>10901</v>
       </c>
       <c r="D31" s="16" t="n">
-        <v>11425</v>
+        <v>11084</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>11416.9</v>
+        <v>11069.3</v>
       </c>
       <c r="F31" s="19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11389.95</v>
+        <v>10915.35</v>
       </c>
     </row>
   </sheetData>
